--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_11_3.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_11_3.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2807916.807477443</v>
+        <v>-2808730.110916774</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2484767.005433343</v>
+        <v>2484767.005433345</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.0292736553</v>
+        <v>504792.0292736554</v>
       </c>
     </row>
     <row r="9">
@@ -1133,26 +1133,26 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>97.59782943789268</v>
       </c>
       <c r="D8" t="n">
-        <v>107.607508220824</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>135.7293992974318</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="G8" t="n">
         <v>11.94294668035388</v>
       </c>
       <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>135.7293992974318</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
       <c r="J8" t="n">
         <v>0</v>
       </c>
@@ -1184,10 +1184,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1221,10 +1221,10 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1257,19 +1257,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S9" t="n">
         <v>135.7293992974318</v>
       </c>
       <c r="T9" t="n">
-        <v>130.2211784494688</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>60.36402868517423</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>135.7293992974318</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>21.94182076836089</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>81.39848696832993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>91.41629514176</v>
       </c>
       <c r="C11" t="n">
-        <v>292.0484899080475</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>283.0297939525755</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>304.771931522481</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>323.9437476104582</v>
       </c>
       <c r="G11" t="n">
-        <v>325.4950644345947</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>239.5154740569005</v>
       </c>
       <c r="I11" t="n">
-        <v>59.07410003638436</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>90.58704436097196</v>
+        <v>90.58704436097197</v>
       </c>
       <c r="T11" t="n">
         <v>134.3774348105163</v>
@@ -1427,13 +1427,13 @@
         <v>166.2399956648098</v>
       </c>
       <c r="V11" t="n">
-        <v>247.5435501905448</v>
+        <v>247.5435501905449</v>
       </c>
       <c r="W11" t="n">
-        <v>272.8436496685017</v>
+        <v>272.8436496685018</v>
       </c>
       <c r="X11" t="n">
-        <v>292.1439079012483</v>
+        <v>292.1439079012484</v>
       </c>
       <c r="Y11" t="n">
         <v>303.5405056974471</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>95.65388382506279</v>
+        <v>95.65388382506281</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>81.85387867046329</v>
       </c>
       <c r="D13" t="n">
-        <v>65.47524306804166</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>64.42299292382113</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>64.88991725200744</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>80.99328987101448</v>
       </c>
       <c r="H13" t="n">
-        <v>70.18970723159762</v>
+        <v>70.18970723159764</v>
       </c>
       <c r="I13" t="n">
-        <v>51.54271933957222</v>
+        <v>51.54271933957223</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>54.25700797949676</v>
+        <v>54.25700797949678</v>
       </c>
       <c r="S13" t="n">
-        <v>91.09316030291811</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>141.0312089919308</v>
       </c>
       <c r="U13" t="n">
         <v>198.2430606650084</v>
@@ -1588,13 +1588,13 @@
         <v>172.0620202246884</v>
       </c>
       <c r="W13" t="n">
-        <v>197.2289062953016</v>
+        <v>197.2289062953017</v>
       </c>
       <c r="X13" t="n">
-        <v>142.8740082911048</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>133.7488760471724</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1604,13 +1604,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>304.0371729503657</v>
+        <v>304.0371729503656</v>
       </c>
       <c r="C14" t="n">
         <v>292.0484899080474</v>
       </c>
       <c r="D14" t="n">
-        <v>283.0297939525754</v>
+        <v>283.0297939525753</v>
       </c>
       <c r="E14" t="n">
         <v>304.7719315224809</v>
@@ -1619,13 +1619,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>135.5881427173671</v>
+        <v>325.3788411523992</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>65.81722879112205</v>
+        <v>65.81722879112206</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>87.93860631794395</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>133.8686673927058</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>166.2306978022341</v>
+        <v>153.6469153671491</v>
       </c>
       <c r="V14" t="n">
-        <v>247.5435501905448</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>272.8436496685017</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>292.1439079012483</v>
       </c>
       <c r="Y14" t="n">
         <v>303.5405056974471</v>
@@ -1704,7 +1704,7 @@
         <v>96.36419814500434</v>
       </c>
       <c r="I15" t="n">
-        <v>58.52130361939541</v>
+        <v>58.52130361939543</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>42.63714462328264</v>
+        <v>42.63714462328267</v>
       </c>
       <c r="S15" t="n">
         <v>146.3205026044475</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>95.65388382506278</v>
+        <v>95.65388382506274</v>
       </c>
       <c r="C16" t="n">
-        <v>81.85387867046326</v>
+        <v>81.85387867046322</v>
       </c>
       <c r="D16" t="n">
-        <v>65.47524306804165</v>
+        <v>65.47524306804161</v>
       </c>
       <c r="E16" t="n">
-        <v>64.4229929238211</v>
+        <v>64.42299292382106</v>
       </c>
       <c r="F16" t="n">
-        <v>64.88991725200741</v>
+        <v>64.88991725200736</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>80.94115610775094</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>27.59683551936946</v>
       </c>
       <c r="I16" t="n">
-        <v>49.97491489524874</v>
+        <v>49.97491489524873</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.91288440584994</v>
+        <v>51.91288440584989</v>
       </c>
       <c r="S16" t="n">
         <v>121.6123680673</v>
@@ -1819,16 +1819,16 @@
         <v>143.8264323269683</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>198.240217005194</v>
       </c>
       <c r="V16" t="n">
-        <v>172.0620202246884</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>197.2289062953016</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>80.3612904034285</v>
+        <v>142.8740082911047</v>
       </c>
       <c r="Y16" t="n">
         <v>133.7488760471724</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>234.1524352700991</v>
+        <v>234.152435270099</v>
       </c>
       <c r="C17" t="n">
         <v>222.1637522277808</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>18.05386863767731</v>
+        <v>18.05386863767728</v>
       </c>
       <c r="T17" t="n">
-        <v>63.98392971243922</v>
+        <v>63.98392971243919</v>
       </c>
       <c r="U17" t="n">
-        <v>96.34596012196749</v>
+        <v>96.34596012196747</v>
       </c>
       <c r="V17" t="n">
         <v>177.6588125102782</v>
@@ -1910,7 +1910,7 @@
         <v>222.2591702209817</v>
       </c>
       <c r="Y17" t="n">
-        <v>233.6557680171805</v>
+        <v>233.6557680171804</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1941,7 @@
         <v>96.36419814500434</v>
       </c>
       <c r="I18" t="n">
-        <v>58.52130361939541</v>
+        <v>58.52130361939543</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>42.63714462328264</v>
+        <v>42.63714462328267</v>
       </c>
       <c r="S18" t="n">
         <v>146.3205026044475</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>25.76914614479614</v>
+        <v>25.76914614479611</v>
       </c>
       <c r="C19" t="n">
-        <v>11.96914099019662</v>
+        <v>11.96914099019659</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>11.05641842748435</v>
+        <v>11.05641842748432</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,10 +2050,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>51.72763038703339</v>
+        <v>51.72763038703337</v>
       </c>
       <c r="T19" t="n">
-        <v>73.94169464670169</v>
+        <v>73.94169464670166</v>
       </c>
       <c r="U19" t="n">
         <v>169.2010078818203</v>
@@ -2065,10 +2065,10 @@
         <v>127.344168615035</v>
       </c>
       <c r="X19" t="n">
-        <v>72.9892706108381</v>
+        <v>72.98927061083808</v>
       </c>
       <c r="Y19" t="n">
-        <v>63.86413836690579</v>
+        <v>63.86413836690576</v>
       </c>
     </row>
     <row r="20">
@@ -2087,7 +2087,7 @@
         <v>213.1450562723087</v>
       </c>
       <c r="E20" t="n">
-        <v>234.8871938422142</v>
+        <v>234.8871938422143</v>
       </c>
       <c r="F20" t="n">
         <v>254.0590099301914</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>18.05386863767723</v>
+        <v>18.05386863767728</v>
       </c>
       <c r="T20" t="n">
-        <v>63.98392971243914</v>
+        <v>63.98392971243916</v>
       </c>
       <c r="U20" t="n">
-        <v>96.34596012196741</v>
+        <v>96.34596012196837</v>
       </c>
       <c r="V20" t="n">
         <v>177.6588125102781</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>42.63714462328267</v>
+        <v>42.63714462328268</v>
       </c>
       <c r="S21" t="n">
         <v>146.3205026044475</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>25.76914614479605</v>
+        <v>25.76914614479608</v>
       </c>
       <c r="C22" t="n">
-        <v>52.81466954709021</v>
+        <v>11.96914099019656</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>11.05641842748426</v>
+        <v>11.05641842748429</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2260,7 +2260,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>21.40561213387101</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2281,31 +2281,31 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>19.43991642302219</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>51.72763038703332</v>
+        <v>51.72763038703334</v>
       </c>
       <c r="T22" t="n">
-        <v>73.94169464670161</v>
+        <v>73.94169464670163</v>
       </c>
       <c r="U22" t="n">
         <v>128.3554793249273</v>
       </c>
       <c r="V22" t="n">
-        <v>102.1772825444216</v>
+        <v>102.1772825444217</v>
       </c>
       <c r="W22" t="n">
         <v>127.3441686150349</v>
       </c>
       <c r="X22" t="n">
-        <v>72.98927061083802</v>
+        <v>72.98927061083805</v>
       </c>
       <c r="Y22" t="n">
-        <v>63.86413836690571</v>
+        <v>63.86413836690573</v>
       </c>
     </row>
     <row r="23">
@@ -2318,19 +2318,19 @@
         <v>234.152435270099</v>
       </c>
       <c r="C23" t="n">
-        <v>222.1637522277807</v>
+        <v>222.1637522277808</v>
       </c>
       <c r="D23" t="n">
-        <v>213.1450562723087</v>
+        <v>213.1450562723088</v>
       </c>
       <c r="E23" t="n">
-        <v>234.8871938422142</v>
+        <v>234.8871938422143</v>
       </c>
       <c r="F23" t="n">
-        <v>254.0590099301914</v>
+        <v>254.0590099301915</v>
       </c>
       <c r="G23" t="n">
-        <v>255.4941034721325</v>
+        <v>255.4941034721326</v>
       </c>
       <c r="H23" t="n">
         <v>168.44046468785</v>
@@ -2366,22 +2366,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>18.05386863767723</v>
+        <v>18.05386863767729</v>
       </c>
       <c r="T23" t="n">
-        <v>63.98392971243914</v>
+        <v>63.98392971243921</v>
       </c>
       <c r="U23" t="n">
-        <v>96.34596012196741</v>
+        <v>96.34596012196747</v>
       </c>
       <c r="V23" t="n">
-        <v>177.6588125102781</v>
+        <v>177.6588125102782</v>
       </c>
       <c r="W23" t="n">
-        <v>202.958911988235</v>
+        <v>202.9589119882351</v>
       </c>
       <c r="X23" t="n">
-        <v>222.2591702209816</v>
+        <v>222.2591702209817</v>
       </c>
       <c r="Y23" t="n">
         <v>233.6557680171804</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>25.76914614479605</v>
+        <v>25.76914614479611</v>
       </c>
       <c r="C25" t="n">
-        <v>11.96914099019654</v>
+        <v>11.96914099019659</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>51.90194698437793</v>
+        <v>11.05641842748432</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2497,7 +2497,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>40.845528556893</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>51.72763038703332</v>
+        <v>51.72763038703337</v>
       </c>
       <c r="T25" t="n">
-        <v>73.94169464670161</v>
+        <v>73.94169464670166</v>
       </c>
       <c r="U25" t="n">
         <v>128.3554793249273</v>
       </c>
       <c r="V25" t="n">
-        <v>102.1772825444216</v>
+        <v>102.1772825444217</v>
       </c>
       <c r="W25" t="n">
-        <v>127.3441686150349</v>
+        <v>127.344168615035</v>
       </c>
       <c r="X25" t="n">
-        <v>72.98927061083802</v>
+        <v>72.98927061083808</v>
       </c>
       <c r="Y25" t="n">
-        <v>63.86413836690571</v>
+        <v>63.86413836690576</v>
       </c>
     </row>
     <row r="26">
@@ -2561,19 +2561,19 @@
         <v>265.772810894856</v>
       </c>
       <c r="E26" t="n">
-        <v>287.5149484647616</v>
+        <v>287.5149484647615</v>
       </c>
       <c r="F26" t="n">
         <v>306.6867645527387</v>
       </c>
       <c r="G26" t="n">
-        <v>308.1218580946799</v>
+        <v>308.1218580946798</v>
       </c>
       <c r="H26" t="n">
-        <v>221.0682193103973</v>
+        <v>221.0682193103972</v>
       </c>
       <c r="I26" t="n">
-        <v>48.56024573340267</v>
+        <v>48.56024573340268</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.68162326022454</v>
+        <v>70.68162326022455</v>
       </c>
       <c r="T26" t="n">
         <v>116.6116843349864</v>
@@ -2618,7 +2618,7 @@
         <v>255.5866666107823</v>
       </c>
       <c r="X26" t="n">
-        <v>274.886924843529</v>
+        <v>274.8869248435289</v>
       </c>
       <c r="Y26" t="n">
         <v>286.2835226397277</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>78.39690076734337</v>
+        <v>78.39690076734335</v>
       </c>
       <c r="C28" t="n">
-        <v>64.59689561274385</v>
+        <v>64.59689561274384</v>
       </c>
       <c r="D28" t="n">
-        <v>48.21826001032224</v>
+        <v>48.21826001032223</v>
       </c>
       <c r="E28" t="n">
-        <v>47.16600986610169</v>
+        <v>47.16600986610167</v>
       </c>
       <c r="F28" t="n">
-        <v>47.632934194288</v>
+        <v>47.63293419428798</v>
       </c>
       <c r="G28" t="n">
-        <v>63.68417305003157</v>
+        <v>63.68417305003156</v>
       </c>
       <c r="H28" t="n">
-        <v>52.46920762413566</v>
+        <v>52.46920762413565</v>
       </c>
       <c r="I28" t="n">
-        <v>32.71793183752936</v>
+        <v>32.71793183752935</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>34.65590134813053</v>
+        <v>34.65590134813051</v>
       </c>
       <c r="S28" t="n">
         <v>104.3553850095806</v>
@@ -2770,7 +2770,7 @@
         <v>180.9832339474746</v>
       </c>
       <c r="V28" t="n">
-        <v>154.805037166969</v>
+        <v>154.8050371669689</v>
       </c>
       <c r="W28" t="n">
         <v>179.9719232375822</v>
@@ -2810,7 +2810,7 @@
         <v>221.0682193103973</v>
       </c>
       <c r="I29" t="n">
-        <v>48.56024573340267</v>
+        <v>48.5602457334027</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.68162326022454</v>
+        <v>70.68162326022457</v>
       </c>
       <c r="T29" t="n">
-        <v>116.6116843349865</v>
+        <v>116.6116843349864</v>
       </c>
       <c r="U29" t="n">
         <v>148.9737147445147</v>
@@ -2889,7 +2889,7 @@
         <v>96.36419814500434</v>
       </c>
       <c r="I30" t="n">
-        <v>58.52130361939542</v>
+        <v>58.52130361939543</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>42.63714462328265</v>
+        <v>42.63714462328267</v>
       </c>
       <c r="S30" t="n">
         <v>146.3205026044475</v>
@@ -2968,7 +2968,7 @@
         <v>52.46920762413566</v>
       </c>
       <c r="I31" t="n">
-        <v>32.71793183752935</v>
+        <v>32.71793183752936</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>251.6642797064148</v>
+        <v>251.6642797064147</v>
       </c>
       <c r="C32" t="n">
-        <v>239.6755966640966</v>
+        <v>239.6755966640964</v>
       </c>
       <c r="D32" t="n">
-        <v>230.6569007086246</v>
+        <v>230.6569007086244</v>
       </c>
       <c r="E32" t="n">
-        <v>252.3990382785301</v>
+        <v>252.39903827853</v>
       </c>
       <c r="F32" t="n">
-        <v>271.5708543665073</v>
+        <v>271.5708543665071</v>
       </c>
       <c r="G32" t="n">
-        <v>273.0059479084484</v>
+        <v>273.0059479084482</v>
       </c>
       <c r="H32" t="n">
-        <v>185.9523091241658</v>
+        <v>185.9523091241657</v>
       </c>
       <c r="I32" t="n">
-        <v>13.44433554717122</v>
+        <v>13.44433554717111</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>35.56571307399309</v>
+        <v>35.56571307399298</v>
       </c>
       <c r="T32" t="n">
-        <v>81.495774148755</v>
+        <v>81.49577414875486</v>
       </c>
       <c r="U32" t="n">
-        <v>113.8578045582833</v>
+        <v>113.8578045582831</v>
       </c>
       <c r="V32" t="n">
-        <v>195.170656946594</v>
+        <v>195.1706569465938</v>
       </c>
       <c r="W32" t="n">
-        <v>220.4707564245509</v>
+        <v>220.4707564245507</v>
       </c>
       <c r="X32" t="n">
-        <v>239.7710146572975</v>
+        <v>239.7710146572973</v>
       </c>
       <c r="Y32" t="n">
-        <v>251.1676124534962</v>
+        <v>251.1676124534961</v>
       </c>
     </row>
     <row r="33">
@@ -3184,25 +3184,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>43.28099058111192</v>
+        <v>43.28099058111178</v>
       </c>
       <c r="C34" t="n">
-        <v>29.4809854265124</v>
+        <v>29.48098542651226</v>
       </c>
       <c r="D34" t="n">
-        <v>13.10234982409079</v>
+        <v>13.10234982409065</v>
       </c>
       <c r="E34" t="n">
-        <v>12.05009967987024</v>
+        <v>12.0500996798701</v>
       </c>
       <c r="F34" t="n">
-        <v>12.51702400805655</v>
+        <v>12.51702400805641</v>
       </c>
       <c r="G34" t="n">
-        <v>28.56826286380013</v>
+        <v>28.56826286379999</v>
       </c>
       <c r="H34" t="n">
-        <v>17.35329743790422</v>
+        <v>17.35329743790408</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>69.23947482334918</v>
+        <v>69.23947482334904</v>
       </c>
       <c r="T34" t="n">
-        <v>91.45353908301747</v>
+        <v>91.45353908301733</v>
       </c>
       <c r="U34" t="n">
-        <v>145.8673237612431</v>
+        <v>145.867323761243</v>
       </c>
       <c r="V34" t="n">
-        <v>119.6891269807375</v>
+        <v>119.6891269807374</v>
       </c>
       <c r="W34" t="n">
-        <v>144.8560130513508</v>
+        <v>144.8560130513506</v>
       </c>
       <c r="X34" t="n">
-        <v>90.50111504715389</v>
+        <v>90.50111504715375</v>
       </c>
       <c r="Y34" t="n">
-        <v>81.37598280322158</v>
+        <v>81.37598280322143</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>234.152435270099</v>
+        <v>234.1524352700991</v>
       </c>
       <c r="C35" t="n">
         <v>222.1637522277808</v>
@@ -3281,7 +3281,7 @@
         <v>255.4941034721326</v>
       </c>
       <c r="H35" t="n">
-        <v>168.44046468785</v>
+        <v>168.4404646878501</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>18.05386863767729</v>
+        <v>18.05386863767737</v>
       </c>
       <c r="T35" t="n">
-        <v>63.98392971243921</v>
+        <v>63.98392971243925</v>
       </c>
       <c r="U35" t="n">
-        <v>96.34596012196747</v>
+        <v>96.34596012196752</v>
       </c>
       <c r="V35" t="n">
         <v>177.6588125102782</v>
@@ -3332,7 +3332,7 @@
         <v>222.2591702209817</v>
       </c>
       <c r="Y35" t="n">
-        <v>233.6557680171804</v>
+        <v>233.6557680171805</v>
       </c>
     </row>
     <row r="36">
@@ -3421,10 +3421,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>25.76914614479611</v>
+        <v>25.76914614479617</v>
       </c>
       <c r="C37" t="n">
-        <v>11.96914099019659</v>
+        <v>11.96914099019665</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3436,7 +3436,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>11.05641842748432</v>
+        <v>32.46203056135466</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3466,31 +3466,31 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>19.43991642302219</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>51.72763038703337</v>
+        <v>51.72763038703343</v>
       </c>
       <c r="T37" t="n">
-        <v>73.94169464670166</v>
+        <v>73.94169464670172</v>
       </c>
       <c r="U37" t="n">
-        <v>128.3554793249273</v>
+        <v>128.3554793249274</v>
       </c>
       <c r="V37" t="n">
-        <v>102.1772825444217</v>
+        <v>102.1772825444218</v>
       </c>
       <c r="W37" t="n">
         <v>127.344168615035</v>
       </c>
       <c r="X37" t="n">
-        <v>113.8347991677311</v>
+        <v>72.98927061083813</v>
       </c>
       <c r="Y37" t="n">
-        <v>63.86413836690576</v>
+        <v>63.86413836690582</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>234.152435270099</v>
+        <v>234.1524352700991</v>
       </c>
       <c r="C38" t="n">
         <v>222.1637522277808</v>
@@ -3518,7 +3518,7 @@
         <v>255.4941034721326</v>
       </c>
       <c r="H38" t="n">
-        <v>168.44046468785</v>
+        <v>168.4404646878501</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>18.0538686376773</v>
+        <v>18.05386863767737</v>
       </c>
       <c r="T38" t="n">
-        <v>63.98392971243921</v>
+        <v>63.98392971243925</v>
       </c>
       <c r="U38" t="n">
-        <v>96.34596012196747</v>
+        <v>96.34596012196752</v>
       </c>
       <c r="V38" t="n">
         <v>177.6588125102782</v>
@@ -3569,7 +3569,7 @@
         <v>222.2591702209817</v>
       </c>
       <c r="Y38" t="n">
-        <v>233.6557680171804</v>
+        <v>233.6557680171805</v>
       </c>
     </row>
     <row r="39">
@@ -3658,10 +3658,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>25.76914614479611</v>
+        <v>25.76914614479617</v>
       </c>
       <c r="C40" t="n">
-        <v>11.96914099019659</v>
+        <v>11.96914099019665</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3673,7 +3673,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>11.05641842748432</v>
+        <v>11.05641842748437</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3703,31 +3703,31 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>19.43991642302219</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>51.72763038703337</v>
+        <v>51.72763038703343</v>
       </c>
       <c r="T40" t="n">
-        <v>73.94169464670166</v>
+        <v>73.94169464670172</v>
       </c>
       <c r="U40" t="n">
-        <v>128.3554793249273</v>
+        <v>128.3554793249274</v>
       </c>
       <c r="V40" t="n">
-        <v>102.1772825444217</v>
+        <v>102.1772825444218</v>
       </c>
       <c r="W40" t="n">
         <v>127.344168615035</v>
       </c>
       <c r="X40" t="n">
-        <v>72.98927061083808</v>
+        <v>94.39488274470844</v>
       </c>
       <c r="Y40" t="n">
-        <v>104.7096669237988</v>
+        <v>63.86413836690582</v>
       </c>
     </row>
     <row r="41">
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>18.0538686376772</v>
+        <v>18.05386863767721</v>
       </c>
       <c r="T41" t="n">
-        <v>63.98392971243911</v>
+        <v>63.98392971243912</v>
       </c>
       <c r="U41" t="n">
         <v>96.34596012196738</v>
@@ -3919,7 +3919,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>21.40561213387171</v>
+        <v>40.84552855689378</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3940,7 +3940,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>19.43991642302218</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>234.1524352700989</v>
+        <v>234.152435270099</v>
       </c>
       <c r="C44" t="n">
         <v>222.1637522277807</v>
@@ -3983,7 +3983,7 @@
         <v>213.1450562723087</v>
       </c>
       <c r="E44" t="n">
-        <v>234.8871938422142</v>
+        <v>234.8871938422143</v>
       </c>
       <c r="F44" t="n">
         <v>254.0590099301914</v>
@@ -3992,7 +3992,7 @@
         <v>255.4941034721325</v>
       </c>
       <c r="H44" t="n">
-        <v>168.4404646878499</v>
+        <v>168.44046468785</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>18.0538686376772</v>
+        <v>18.05386863767727</v>
       </c>
       <c r="T44" t="n">
-        <v>63.98392971243911</v>
+        <v>63.98392971243918</v>
       </c>
       <c r="U44" t="n">
-        <v>96.34596012196738</v>
+        <v>96.34596012196744</v>
       </c>
       <c r="V44" t="n">
         <v>177.6588125102781</v>
@@ -4043,7 +4043,7 @@
         <v>222.2591702209816</v>
       </c>
       <c r="Y44" t="n">
-        <v>233.6557680171803</v>
+        <v>233.6557680171804</v>
       </c>
     </row>
     <row r="45">
@@ -4132,10 +4132,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>25.76914614479603</v>
+        <v>25.76914614479608</v>
       </c>
       <c r="C46" t="n">
-        <v>11.96914099019651</v>
+        <v>11.96914099019656</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4147,7 +4147,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>11.05641842748423</v>
+        <v>11.05641842748429</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4156,7 +4156,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>40.84552855689378</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -4177,31 +4177,31 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>19.43991642302219</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.40561213387117</v>
       </c>
       <c r="S46" t="n">
-        <v>51.72763038703329</v>
+        <v>51.72763038703334</v>
       </c>
       <c r="T46" t="n">
-        <v>73.94169464670158</v>
+        <v>73.94169464670163</v>
       </c>
       <c r="U46" t="n">
-        <v>128.3554793249272</v>
+        <v>128.3554793249273</v>
       </c>
       <c r="V46" t="n">
-        <v>102.1772825444216</v>
+        <v>102.1772825444217</v>
       </c>
       <c r="W46" t="n">
         <v>127.3441686150349</v>
       </c>
       <c r="X46" t="n">
-        <v>72.98927061083799</v>
+        <v>72.98927061083805</v>
       </c>
       <c r="Y46" t="n">
-        <v>63.86413836690568</v>
+        <v>63.86413836690573</v>
       </c>
     </row>
   </sheetData>
@@ -4778,16 +4778,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>405.8171938589879</v>
+        <v>268.7167905282488</v>
       </c>
       <c r="C8" t="n">
-        <v>405.8171938589879</v>
+        <v>170.1331244293673</v>
       </c>
       <c r="D8" t="n">
-        <v>297.1227411106809</v>
+        <v>170.1331244293673</v>
       </c>
       <c r="E8" t="n">
-        <v>297.1227411106809</v>
+        <v>170.1331244293673</v>
       </c>
       <c r="F8" t="n">
         <v>160.0223377799417</v>
@@ -4796,7 +4796,7 @@
         <v>147.9587552745337</v>
       </c>
       <c r="H8" t="n">
-        <v>10.85835194379454</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="I8" t="n">
         <v>10.85835194379454</v>
@@ -4805,16 +4805,16 @@
         <v>10.85835194379454</v>
       </c>
       <c r="K8" t="n">
-        <v>139.8012812763547</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="L8" t="n">
+        <v>145.230457248252</v>
+      </c>
+      <c r="M8" t="n">
+        <v>145.230457248252</v>
+      </c>
+      <c r="N8" t="n">
         <v>274.1733865808121</v>
-      </c>
-      <c r="M8" t="n">
-        <v>274.1733865808121</v>
-      </c>
-      <c r="N8" t="n">
-        <v>408.5454918852696</v>
       </c>
       <c r="O8" t="n">
         <v>408.5454918852696</v>
@@ -4832,22 +4832,22 @@
         <v>542.9175971897271</v>
       </c>
       <c r="T8" t="n">
-        <v>542.9175971897271</v>
+        <v>405.8171938589879</v>
       </c>
       <c r="U8" t="n">
-        <v>542.9175971897271</v>
+        <v>268.7167905282488</v>
       </c>
       <c r="V8" t="n">
-        <v>542.9175971897271</v>
+        <v>268.7167905282488</v>
       </c>
       <c r="W8" t="n">
-        <v>542.9175971897271</v>
+        <v>268.7167905282488</v>
       </c>
       <c r="X8" t="n">
-        <v>542.9175971897271</v>
+        <v>268.7167905282488</v>
       </c>
       <c r="Y8" t="n">
-        <v>405.8171938589879</v>
+        <v>268.7167905282488</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>274.2806499706356</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="C9" t="n">
-        <v>274.2806499706356</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="D9" t="n">
-        <v>274.2806499706356</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="E9" t="n">
-        <v>274.2806499706356</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="F9" t="n">
-        <v>139.58685192051</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="G9" t="n">
         <v>10.85835194379454</v>
@@ -4884,16 +4884,16 @@
         <v>71.11249847690068</v>
       </c>
       <c r="K9" t="n">
-        <v>71.11249847690068</v>
+        <v>139.8012812763547</v>
       </c>
       <c r="L9" t="n">
-        <v>205.4846037813581</v>
+        <v>139.8012812763547</v>
       </c>
       <c r="M9" t="n">
-        <v>205.4846037813581</v>
+        <v>139.8012812763547</v>
       </c>
       <c r="N9" t="n">
-        <v>205.4846037813581</v>
+        <v>139.8012812763547</v>
       </c>
       <c r="O9" t="n">
         <v>274.1733865808121</v>
@@ -4905,28 +4905,28 @@
         <v>542.9175971897271</v>
       </c>
       <c r="R9" t="n">
-        <v>542.9175971897271</v>
+        <v>483.1333282846729</v>
       </c>
       <c r="S9" t="n">
-        <v>405.8171938589879</v>
+        <v>346.0329249539337</v>
       </c>
       <c r="T9" t="n">
-        <v>274.2806499706356</v>
+        <v>208.9325216231946</v>
       </c>
       <c r="U9" t="n">
-        <v>274.2806499706356</v>
+        <v>71.83211829245539</v>
       </c>
       <c r="V9" t="n">
-        <v>274.2806499706356</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="W9" t="n">
-        <v>274.2806499706356</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="X9" t="n">
-        <v>274.2806499706356</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="Y9" t="n">
-        <v>274.2806499706356</v>
+        <v>10.85835194379454</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>285.0591586052728</v>
+        <v>208.015993860361</v>
       </c>
       <c r="C10" t="n">
-        <v>285.0591586052728</v>
+        <v>208.015993860361</v>
       </c>
       <c r="D10" t="n">
-        <v>147.9587552745337</v>
+        <v>208.015993860361</v>
       </c>
       <c r="E10" t="n">
-        <v>147.9587552745337</v>
+        <v>208.015993860361</v>
       </c>
       <c r="F10" t="n">
-        <v>147.9587552745337</v>
+        <v>208.015993860361</v>
       </c>
       <c r="G10" t="n">
-        <v>147.9587552745337</v>
+        <v>208.015993860361</v>
       </c>
       <c r="H10" t="n">
-        <v>147.9587552745337</v>
+        <v>208.015993860361</v>
       </c>
       <c r="I10" t="n">
-        <v>10.85835194379454</v>
+        <v>70.91559052962182</v>
       </c>
       <c r="J10" t="n">
         <v>10.85835194379454</v>
@@ -4984,28 +4984,28 @@
         <v>504.380255843416</v>
       </c>
       <c r="R10" t="n">
-        <v>504.380255843416</v>
+        <v>367.2798525126768</v>
       </c>
       <c r="S10" t="n">
-        <v>504.380255843416</v>
+        <v>230.1794491819377</v>
       </c>
       <c r="T10" t="n">
-        <v>504.380255843416</v>
+        <v>208.015993860361</v>
       </c>
       <c r="U10" t="n">
-        <v>504.380255843416</v>
+        <v>208.015993860361</v>
       </c>
       <c r="V10" t="n">
-        <v>504.380255843416</v>
+        <v>208.015993860361</v>
       </c>
       <c r="W10" t="n">
-        <v>504.380255843416</v>
+        <v>208.015993860361</v>
       </c>
       <c r="X10" t="n">
-        <v>504.380255843416</v>
+        <v>208.015993860361</v>
       </c>
       <c r="Y10" t="n">
-        <v>422.159561936012</v>
+        <v>208.015993860361</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1020.194774373823</v>
+        <v>927.8550823114366</v>
       </c>
       <c r="C11" t="n">
-        <v>725.1962997192293</v>
+        <v>927.8550823114366</v>
       </c>
       <c r="D11" t="n">
-        <v>439.3076189590521</v>
+        <v>927.8550823114366</v>
       </c>
       <c r="E11" t="n">
-        <v>439.3076189590521</v>
+        <v>620.0046464301427</v>
       </c>
       <c r="F11" t="n">
-        <v>439.3076189590521</v>
+        <v>292.7887397529121</v>
       </c>
       <c r="G11" t="n">
-        <v>110.5247255907746</v>
+        <v>292.7887397529121</v>
       </c>
       <c r="H11" t="n">
-        <v>110.5247255907746</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="I11" t="n">
         <v>50.85391747321462</v>
@@ -5072,19 +5072,19 @@
         <v>2315.459026012763</v>
       </c>
       <c r="U11" t="n">
-        <v>2147.539838472552</v>
+        <v>2147.539838472551</v>
       </c>
       <c r="V11" t="n">
-        <v>1897.495848381093</v>
+        <v>1897.495848381091</v>
       </c>
       <c r="W11" t="n">
-        <v>1621.896202251293</v>
+        <v>1621.896202251292</v>
       </c>
       <c r="X11" t="n">
-        <v>1326.801345785386</v>
+        <v>1326.801345785384</v>
       </c>
       <c r="Y11" t="n">
-        <v>1020.194774373823</v>
+        <v>1020.194774373821</v>
       </c>
     </row>
     <row r="12">
@@ -5127,10 +5127,10 @@
         <v>802.1338407649491</v>
       </c>
       <c r="M12" t="n">
-        <v>1338.430017546049</v>
+        <v>1014.14682775868</v>
       </c>
       <c r="N12" t="n">
-        <v>1902.315261334734</v>
+        <v>1578.032071547365</v>
       </c>
       <c r="O12" t="n">
         <v>2018.368674122672</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>239.9525736744383</v>
+        <v>468.927155138342</v>
       </c>
       <c r="C13" t="n">
-        <v>239.9525736744383</v>
+        <v>386.2464696126215</v>
       </c>
       <c r="D13" t="n">
-        <v>173.8159645148003</v>
+        <v>386.2464696126215</v>
       </c>
       <c r="E13" t="n">
-        <v>173.8159645148003</v>
+        <v>321.1727393865395</v>
       </c>
       <c r="F13" t="n">
-        <v>173.8159645148003</v>
+        <v>255.6273684249158</v>
       </c>
       <c r="G13" t="n">
-        <v>173.8159645148003</v>
+        <v>173.8159645148004</v>
       </c>
       <c r="H13" t="n">
         <v>102.9172703414694</v>
@@ -5197,7 +5197,7 @@
         <v>50.85391747321462</v>
       </c>
       <c r="J13" t="n">
-        <v>89.18899764913215</v>
+        <v>89.1889976491322</v>
       </c>
       <c r="K13" t="n">
         <v>227.7048456257609</v>
@@ -5206,7 +5206,7 @@
         <v>438.7345893298994</v>
       </c>
       <c r="M13" t="n">
-        <v>668.5215719102085</v>
+        <v>668.5215719102086</v>
       </c>
       <c r="N13" t="n">
         <v>898.105182034879</v>
@@ -5224,25 +5224,25 @@
         <v>1281.269660190859</v>
       </c>
       <c r="S13" t="n">
-        <v>1189.256366955588</v>
+        <v>1281.269660190859</v>
       </c>
       <c r="T13" t="n">
-        <v>1189.256366955588</v>
+        <v>1138.813893532343</v>
       </c>
       <c r="U13" t="n">
-        <v>989.0108511323475</v>
+        <v>938.5683777091025</v>
       </c>
       <c r="V13" t="n">
-        <v>815.2108307033693</v>
+        <v>764.7683572801243</v>
       </c>
       <c r="W13" t="n">
-        <v>615.9897132333676</v>
+        <v>565.5472398101226</v>
       </c>
       <c r="X13" t="n">
-        <v>471.6725331413426</v>
+        <v>565.5472398101226</v>
       </c>
       <c r="Y13" t="n">
-        <v>336.5726583462189</v>
+        <v>565.5472398101226</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1145.71804152957</v>
+        <v>1337.425817726571</v>
       </c>
       <c r="C14" t="n">
-        <v>850.7195668749767</v>
+        <v>1042.427343071978</v>
       </c>
       <c r="D14" t="n">
-        <v>564.8308861147996</v>
+        <v>756.5386623118004</v>
       </c>
       <c r="E14" t="n">
-        <v>256.9804502335045</v>
+        <v>448.6882264305066</v>
       </c>
       <c r="F14" t="n">
-        <v>256.9804502335045</v>
+        <v>448.6882264305066</v>
       </c>
       <c r="G14" t="n">
-        <v>120.0227303169721</v>
+        <v>120.022730316972</v>
       </c>
       <c r="H14" t="n">
-        <v>120.0227303169721</v>
+        <v>120.022730316972</v>
       </c>
       <c r="I14" t="n">
-        <v>53.54068103301046</v>
+        <v>53.54068103301044</v>
       </c>
       <c r="J14" t="n">
         <v>167.3983317523201</v>
       </c>
       <c r="K14" t="n">
-        <v>470.2746535064593</v>
+        <v>470.2746535064591</v>
       </c>
       <c r="L14" t="n">
-        <v>895.9895196980101</v>
+        <v>895.9895196980099</v>
       </c>
       <c r="M14" t="n">
-        <v>1375.828993170052</v>
+        <v>1375.828993170051</v>
       </c>
       <c r="N14" t="n">
-        <v>1842.161942585359</v>
+        <v>1842.161942585358</v>
       </c>
       <c r="O14" t="n">
-        <v>2230.263933750938</v>
+        <v>2230.263933750937</v>
       </c>
       <c r="P14" t="n">
-        <v>2529.342544292799</v>
+        <v>2529.342544292798</v>
       </c>
       <c r="Q14" t="n">
-        <v>2677.034051650523</v>
+        <v>2677.034051650522</v>
       </c>
       <c r="R14" t="n">
-        <v>2677.034051650523</v>
+        <v>2677.034051650522</v>
       </c>
       <c r="S14" t="n">
-        <v>2588.207176581893</v>
+        <v>2677.034051650522</v>
       </c>
       <c r="T14" t="n">
-        <v>2452.986300427644</v>
+        <v>2677.034051650522</v>
       </c>
       <c r="U14" t="n">
-        <v>2285.076504667812</v>
+        <v>2521.835147239261</v>
       </c>
       <c r="V14" t="n">
-        <v>2035.032514576353</v>
+        <v>2521.835147239261</v>
       </c>
       <c r="W14" t="n">
-        <v>1759.432868446553</v>
+        <v>2246.235501109461</v>
       </c>
       <c r="X14" t="n">
-        <v>1759.432868446553</v>
+        <v>1951.140644643554</v>
       </c>
       <c r="Y14" t="n">
-        <v>1452.82629703499</v>
+        <v>1644.534073231991</v>
       </c>
     </row>
     <row r="15">
@@ -5352,31 +5352,31 @@
         <v>112.6531089313897</v>
       </c>
       <c r="I15" t="n">
-        <v>53.54068103301046</v>
+        <v>53.54068103301044</v>
       </c>
       <c r="J15" t="n">
-        <v>134.407795479549</v>
+        <v>53.54068103301044</v>
       </c>
       <c r="K15" t="n">
-        <v>406.5093929249607</v>
+        <v>174.8475870604053</v>
       </c>
       <c r="L15" t="n">
-        <v>406.5093929249607</v>
+        <v>597.9652406082531</v>
       </c>
       <c r="M15" t="n">
-        <v>958.4042523433094</v>
+        <v>1149.860100026602</v>
       </c>
       <c r="N15" t="n">
-        <v>1538.301029483322</v>
+        <v>1729.756877166614</v>
       </c>
       <c r="O15" t="n">
-        <v>1993.285056968146</v>
+        <v>2184.740904651438</v>
       </c>
       <c r="P15" t="n">
-        <v>2345.770732938111</v>
+        <v>2537.226580621403</v>
       </c>
       <c r="Q15" t="n">
-        <v>2537.226580621402</v>
+        <v>2537.226580621403</v>
       </c>
       <c r="R15" t="n">
         <v>2494.158757769602</v>
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>383.4567889214771</v>
+        <v>493.0911238983664</v>
       </c>
       <c r="C16" t="n">
-        <v>300.7761033957566</v>
+        <v>410.410438372646</v>
       </c>
       <c r="D16" t="n">
-        <v>234.6394942361186</v>
+        <v>344.273829213008</v>
       </c>
       <c r="E16" t="n">
-        <v>169.5657640100366</v>
+        <v>279.2000989869262</v>
       </c>
       <c r="F16" t="n">
-        <v>104.0203930484132</v>
+        <v>213.6547280253025</v>
       </c>
       <c r="G16" t="n">
-        <v>104.0203930484132</v>
+        <v>131.89598448212</v>
       </c>
       <c r="H16" t="n">
         <v>104.0203930484132</v>
       </c>
       <c r="I16" t="n">
-        <v>53.54068103301046</v>
+        <v>53.54068103301044</v>
       </c>
       <c r="J16" t="n">
-        <v>95.52475970102854</v>
+        <v>95.52475970102853</v>
       </c>
       <c r="K16" t="n">
         <v>240.0370331282223</v>
@@ -5443,7 +5443,7 @@
         <v>458.7401369120587</v>
       </c>
       <c r="M16" t="n">
-        <v>696.6176018119371</v>
+        <v>696.6176018119372</v>
       </c>
       <c r="N16" t="n">
         <v>934.0993206697344</v>
@@ -5464,22 +5464,22 @@
         <v>1214.650131469581</v>
       </c>
       <c r="T16" t="n">
-        <v>1069.370906896885</v>
+        <v>1069.370906896886</v>
       </c>
       <c r="U16" t="n">
-        <v>1069.370906896885</v>
+        <v>869.1282634572956</v>
       </c>
       <c r="V16" t="n">
-        <v>895.5708864679068</v>
+        <v>869.1282634572956</v>
       </c>
       <c r="W16" t="n">
-        <v>696.3497689979051</v>
+        <v>869.1282634572956</v>
       </c>
       <c r="X16" t="n">
-        <v>615.1767483883814</v>
+        <v>724.8110833652706</v>
       </c>
       <c r="Y16" t="n">
-        <v>480.0768735932577</v>
+        <v>589.7112085701469</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1415.348338035515</v>
+        <v>1415.348338035513</v>
       </c>
       <c r="C17" t="n">
-        <v>1190.940507502403</v>
+        <v>1190.940507502401</v>
       </c>
       <c r="D17" t="n">
-        <v>975.6424708637069</v>
+        <v>975.6424708637057</v>
       </c>
       <c r="E17" t="n">
-        <v>738.3826791038944</v>
+        <v>738.3826791038933</v>
       </c>
       <c r="F17" t="n">
-        <v>481.7574165481454</v>
+        <v>481.7574165481444</v>
       </c>
       <c r="G17" t="n">
         <v>223.6825645560913</v>
       </c>
       <c r="H17" t="n">
-        <v>53.54068103301046</v>
+        <v>53.54068103301044</v>
       </c>
       <c r="I17" t="n">
-        <v>53.54068103301046</v>
+        <v>53.54068103301044</v>
       </c>
       <c r="J17" t="n">
-        <v>167.3983317523201</v>
+        <v>167.3983317523199</v>
       </c>
       <c r="K17" t="n">
-        <v>470.2746535064592</v>
+        <v>470.2746535064589</v>
       </c>
       <c r="L17" t="n">
-        <v>895.9895196980101</v>
+        <v>895.9895196980096</v>
       </c>
       <c r="M17" t="n">
-        <v>1375.828993170052</v>
+        <v>1375.828993170051</v>
       </c>
       <c r="N17" t="n">
-        <v>1842.161942585359</v>
+        <v>1842.161942585358</v>
       </c>
       <c r="O17" t="n">
-        <v>2230.263933750938</v>
+        <v>2230.263933750937</v>
       </c>
       <c r="P17" t="n">
-        <v>2529.342544292799</v>
+        <v>2529.342544292798</v>
       </c>
       <c r="Q17" t="n">
-        <v>2677.034051650523</v>
+        <v>2677.034051650522</v>
       </c>
       <c r="R17" t="n">
-        <v>2677.034051650523</v>
+        <v>2677.034051650522</v>
       </c>
       <c r="S17" t="n">
-        <v>2658.797820703374</v>
+        <v>2658.797820703373</v>
       </c>
       <c r="T17" t="n">
-        <v>2594.167588670608</v>
+        <v>2594.167588670606</v>
       </c>
       <c r="U17" t="n">
-        <v>2496.848437032257</v>
+        <v>2496.848437032255</v>
       </c>
       <c r="V17" t="n">
-        <v>2317.395091062279</v>
+        <v>2317.395091062277</v>
       </c>
       <c r="W17" t="n">
-        <v>2112.38608905396</v>
+        <v>2112.386089053959</v>
       </c>
       <c r="X17" t="n">
-        <v>1887.881876709534</v>
+        <v>1887.881876709533</v>
       </c>
       <c r="Y17" t="n">
-        <v>1651.865949419453</v>
+        <v>1651.865949419452</v>
       </c>
     </row>
     <row r="18">
@@ -5589,16 +5589,16 @@
         <v>112.6531089313897</v>
       </c>
       <c r="I18" t="n">
-        <v>53.54068103301046</v>
+        <v>53.54068103301044</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7258246020671</v>
+        <v>138.725824602067</v>
       </c>
       <c r="K18" t="n">
-        <v>410.8274220474789</v>
+        <v>410.8274220474786</v>
       </c>
       <c r="L18" t="n">
-        <v>833.9450755953267</v>
+        <v>833.9450755953264</v>
       </c>
       <c r="M18" t="n">
         <v>1385.839935013675</v>
@@ -5607,7 +5607,7 @@
         <v>1965.736712153687</v>
       </c>
       <c r="O18" t="n">
-        <v>2345.770732938111</v>
+        <v>1993.285056968146</v>
       </c>
       <c r="P18" t="n">
         <v>2345.770732938111</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>76.79882185895083</v>
+        <v>76.79882185895076</v>
       </c>
       <c r="C19" t="n">
-        <v>64.70878045471181</v>
+        <v>64.70878045471177</v>
       </c>
       <c r="D19" t="n">
-        <v>64.70878045471181</v>
+        <v>64.70878045471177</v>
       </c>
       <c r="E19" t="n">
-        <v>64.70878045471181</v>
+        <v>64.70878045471177</v>
       </c>
       <c r="F19" t="n">
-        <v>64.70878045471181</v>
+        <v>64.70878045471177</v>
       </c>
       <c r="G19" t="n">
-        <v>53.54068103301046</v>
+        <v>53.54068103301044</v>
       </c>
       <c r="H19" t="n">
-        <v>53.54068103301046</v>
+        <v>53.54068103301044</v>
       </c>
       <c r="I19" t="n">
-        <v>53.54068103301046</v>
+        <v>53.54068103301044</v>
       </c>
       <c r="J19" t="n">
-        <v>53.54068103301046</v>
+        <v>53.54068103301044</v>
       </c>
       <c r="K19" t="n">
         <v>112.8476825994557</v>
       </c>
       <c r="L19" t="n">
-        <v>246.3455145225436</v>
+        <v>246.3455145225435</v>
       </c>
       <c r="M19" t="n">
-        <v>399.0177075616734</v>
+        <v>399.0177075616733</v>
       </c>
       <c r="N19" t="n">
-        <v>551.2941545587222</v>
+        <v>551.2941545587221</v>
       </c>
       <c r="O19" t="n">
-        <v>681.0275466961471</v>
+        <v>681.0275466961468</v>
       </c>
       <c r="P19" t="n">
-        <v>770.7526998362764</v>
+        <v>770.7526998362761</v>
       </c>
       <c r="Q19" t="n">
-        <v>770.7526998362764</v>
+        <v>770.7526998362761</v>
       </c>
       <c r="R19" t="n">
-        <v>770.7526998362764</v>
+        <v>770.7526998362761</v>
       </c>
       <c r="S19" t="n">
-        <v>718.5025681322022</v>
+        <v>718.502568132202</v>
       </c>
       <c r="T19" t="n">
-        <v>643.8139876809884</v>
+        <v>643.8139876809881</v>
       </c>
       <c r="U19" t="n">
-        <v>472.9038787094527</v>
+        <v>472.9038787094524</v>
       </c>
       <c r="V19" t="n">
-        <v>369.694502401956</v>
+        <v>369.6945024019558</v>
       </c>
       <c r="W19" t="n">
-        <v>241.0640290534357</v>
+        <v>241.0640290534356</v>
       </c>
       <c r="X19" t="n">
-        <v>167.3374930828922</v>
+        <v>167.3374930828921</v>
       </c>
       <c r="Y19" t="n">
-        <v>102.82826240925</v>
+        <v>102.8282624092499</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1415.348338035514</v>
+        <v>1415.348338035512</v>
       </c>
       <c r="C20" t="n">
-        <v>1190.940507502402</v>
+        <v>1190.940507502401</v>
       </c>
       <c r="D20" t="n">
-        <v>975.6424708637065</v>
+        <v>975.6424708637053</v>
       </c>
       <c r="E20" t="n">
-        <v>738.3826791038941</v>
+        <v>738.3826791038925</v>
       </c>
       <c r="F20" t="n">
-        <v>481.7574165481453</v>
+        <v>481.7574165481436</v>
       </c>
       <c r="G20" t="n">
         <v>223.6825645560912</v>
@@ -5750,10 +5750,10 @@
         <v>53.54068103301044</v>
       </c>
       <c r="J20" t="n">
-        <v>167.39833175232</v>
+        <v>167.3983317523201</v>
       </c>
       <c r="K20" t="n">
-        <v>470.274653506459</v>
+        <v>470.2746535064591</v>
       </c>
       <c r="L20" t="n">
         <v>895.9895196980098</v>
@@ -5780,22 +5780,22 @@
         <v>2658.797820703373</v>
       </c>
       <c r="T20" t="n">
-        <v>2594.167588670607</v>
+        <v>2594.167588670606</v>
       </c>
       <c r="U20" t="n">
-        <v>2496.848437032256</v>
+        <v>2496.848437032255</v>
       </c>
       <c r="V20" t="n">
-        <v>2317.395091062278</v>
+        <v>2317.395091062276</v>
       </c>
       <c r="W20" t="n">
-        <v>2112.386089053959</v>
+        <v>2112.386089053958</v>
       </c>
       <c r="X20" t="n">
-        <v>1887.881876709534</v>
+        <v>1887.881876709532</v>
       </c>
       <c r="Y20" t="n">
-        <v>1651.865949419452</v>
+        <v>1651.865949419451</v>
       </c>
     </row>
     <row r="21">
@@ -5832,13 +5832,13 @@
         <v>53.54068103301044</v>
       </c>
       <c r="K21" t="n">
-        <v>325.6422784784222</v>
+        <v>325.6422784784221</v>
       </c>
       <c r="L21" t="n">
-        <v>748.75993202627</v>
+        <v>748.7599320262699</v>
       </c>
       <c r="M21" t="n">
-        <v>958.40425234331</v>
+        <v>1300.654791444618</v>
       </c>
       <c r="N21" t="n">
         <v>1538.301029483322</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>118.0569315123786</v>
+        <v>98.42065229720424</v>
       </c>
       <c r="C22" t="n">
-        <v>64.70878045471171</v>
+        <v>86.33061089296528</v>
       </c>
       <c r="D22" t="n">
-        <v>64.70878045471171</v>
+        <v>86.33061089296528</v>
       </c>
       <c r="E22" t="n">
-        <v>64.70878045471171</v>
+        <v>86.33061089296528</v>
       </c>
       <c r="F22" t="n">
-        <v>64.70878045471171</v>
+        <v>86.33061089296528</v>
       </c>
       <c r="G22" t="n">
-        <v>53.54068103301044</v>
+        <v>75.16251147126398</v>
       </c>
       <c r="H22" t="n">
-        <v>53.54068103301044</v>
+        <v>75.16251147126398</v>
       </c>
       <c r="I22" t="n">
-        <v>53.54068103301044</v>
+        <v>75.16251147126398</v>
       </c>
       <c r="J22" t="n">
         <v>53.54068103301044</v>
       </c>
       <c r="K22" t="n">
-        <v>112.8476825994557</v>
+        <v>112.8476825994556</v>
       </c>
       <c r="L22" t="n">
         <v>246.3455145225435</v>
       </c>
       <c r="M22" t="n">
-        <v>399.0177075616733</v>
+        <v>399.0177075616732</v>
       </c>
       <c r="N22" t="n">
-        <v>551.2941545587221</v>
+        <v>551.2941545587219</v>
       </c>
       <c r="O22" t="n">
-        <v>681.0275466961468</v>
+        <v>681.0275466961466</v>
       </c>
       <c r="P22" t="n">
-        <v>770.7526998362761</v>
+        <v>770.7526998362758</v>
       </c>
       <c r="Q22" t="n">
-        <v>770.7526998362761</v>
+        <v>751.116420621102</v>
       </c>
       <c r="R22" t="n">
-        <v>770.7526998362761</v>
+        <v>751.116420621102</v>
       </c>
       <c r="S22" t="n">
-        <v>718.502568132202</v>
+        <v>698.8662889170279</v>
       </c>
       <c r="T22" t="n">
-        <v>643.8139876809882</v>
+        <v>624.1777084658141</v>
       </c>
       <c r="U22" t="n">
-        <v>514.1619883628799</v>
+        <v>494.5257091477058</v>
       </c>
       <c r="V22" t="n">
-        <v>410.9526120553833</v>
+        <v>391.3163328402091</v>
       </c>
       <c r="W22" t="n">
-        <v>282.3221387068633</v>
+        <v>262.685859491689</v>
       </c>
       <c r="X22" t="n">
-        <v>208.5956027363198</v>
+        <v>188.9593235211455</v>
       </c>
       <c r="Y22" t="n">
-        <v>144.0863720626776</v>
+        <v>124.4500928475033</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1415.348338035514</v>
+        <v>1415.348338035513</v>
       </c>
       <c r="C23" t="n">
-        <v>1190.940507502402</v>
+        <v>1190.940507502401</v>
       </c>
       <c r="D23" t="n">
-        <v>975.6424708637061</v>
+        <v>975.642470863706</v>
       </c>
       <c r="E23" t="n">
-        <v>738.3826791038937</v>
+        <v>738.3826791038935</v>
       </c>
       <c r="F23" t="n">
         <v>481.7574165481446</v>
       </c>
       <c r="G23" t="n">
-        <v>223.6825645560912</v>
+        <v>223.6825645560913</v>
       </c>
       <c r="H23" t="n">
         <v>53.54068103301044</v>
@@ -5990,13 +5990,13 @@
         <v>167.39833175232</v>
       </c>
       <c r="K23" t="n">
-        <v>470.2746535064591</v>
+        <v>470.274653506459</v>
       </c>
       <c r="L23" t="n">
-        <v>895.9895196980101</v>
+        <v>895.9895196980096</v>
       </c>
       <c r="M23" t="n">
-        <v>1375.828993170052</v>
+        <v>1375.828993170051</v>
       </c>
       <c r="N23" t="n">
         <v>1842.161942585358</v>
@@ -6017,10 +6017,10 @@
         <v>2658.797820703373</v>
       </c>
       <c r="T23" t="n">
-        <v>2594.167588670606</v>
+        <v>2594.167588670607</v>
       </c>
       <c r="U23" t="n">
-        <v>2496.848437032255</v>
+        <v>2496.848437032256</v>
       </c>
       <c r="V23" t="n">
         <v>2317.395091062278</v>
@@ -6029,7 +6029,7 @@
         <v>2112.386089053959</v>
       </c>
       <c r="X23" t="n">
-        <v>1887.881876709534</v>
+        <v>1887.881876709533</v>
       </c>
       <c r="Y23" t="n">
         <v>1651.865949419452</v>
@@ -6066,25 +6066,25 @@
         <v>53.54068103301044</v>
       </c>
       <c r="J24" t="n">
-        <v>53.54068103301044</v>
+        <v>138.7258246020671</v>
       </c>
       <c r="K24" t="n">
-        <v>53.54068103301044</v>
+        <v>410.8274220474788</v>
       </c>
       <c r="L24" t="n">
-        <v>476.6583345808583</v>
+        <v>833.9450755953266</v>
       </c>
       <c r="M24" t="n">
-        <v>1028.553193999207</v>
+        <v>1385.839935013675</v>
       </c>
       <c r="N24" t="n">
-        <v>1608.449971139219</v>
+        <v>1965.736712153687</v>
       </c>
       <c r="O24" t="n">
-        <v>2063.433998624043</v>
+        <v>2184.740904651438</v>
       </c>
       <c r="P24" t="n">
-        <v>2415.919674594008</v>
+        <v>2537.226580621403</v>
       </c>
       <c r="Q24" t="n">
         <v>2537.226580621403</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>118.0569315123786</v>
+        <v>118.056931512378</v>
       </c>
       <c r="C25" t="n">
-        <v>105.9668901081397</v>
+        <v>105.966890108139</v>
       </c>
       <c r="D25" t="n">
-        <v>105.9668901081397</v>
+        <v>105.966890108139</v>
       </c>
       <c r="E25" t="n">
-        <v>105.9668901081397</v>
+        <v>105.966890108139</v>
       </c>
       <c r="F25" t="n">
-        <v>105.9668901081397</v>
+        <v>105.966890108139</v>
       </c>
       <c r="G25" t="n">
-        <v>53.54068103301044</v>
+        <v>94.79879068643771</v>
       </c>
       <c r="H25" t="n">
-        <v>53.54068103301044</v>
+        <v>94.79879068643771</v>
       </c>
       <c r="I25" t="n">
-        <v>53.54068103301044</v>
+        <v>94.79879068643771</v>
       </c>
       <c r="J25" t="n">
         <v>53.54068103301044</v>
@@ -6175,22 +6175,22 @@
         <v>718.502568132202</v>
       </c>
       <c r="T25" t="n">
-        <v>643.8139876809882</v>
+        <v>643.8139876809881</v>
       </c>
       <c r="U25" t="n">
-        <v>514.1619883628799</v>
+        <v>514.1619883628797</v>
       </c>
       <c r="V25" t="n">
-        <v>410.9526120553833</v>
+        <v>410.952612055383</v>
       </c>
       <c r="W25" t="n">
-        <v>282.3221387068633</v>
+        <v>282.3221387068629</v>
       </c>
       <c r="X25" t="n">
-        <v>208.5956027363198</v>
+        <v>208.5956027363193</v>
       </c>
       <c r="Y25" t="n">
-        <v>144.0863720626776</v>
+        <v>144.0863720626771</v>
       </c>
     </row>
     <row r="26">
@@ -6200,40 +6200,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1799.544600876468</v>
+        <v>1799.544600876469</v>
       </c>
       <c r="C26" t="n">
-        <v>1521.977422239773</v>
+        <v>1521.977422239774</v>
       </c>
       <c r="D26" t="n">
-        <v>1253.520037497494</v>
+        <v>1253.520037497495</v>
       </c>
       <c r="E26" t="n">
-        <v>963.1008976340984</v>
+        <v>963.1008976340993</v>
       </c>
       <c r="F26" t="n">
-        <v>653.3162869747664</v>
+        <v>653.3162869747673</v>
       </c>
       <c r="G26" t="n">
-        <v>342.0820868791302</v>
+        <v>342.0820868791311</v>
       </c>
       <c r="H26" t="n">
-        <v>118.7808552524661</v>
+        <v>118.7808552524662</v>
       </c>
       <c r="I26" t="n">
         <v>69.73010198640283</v>
       </c>
       <c r="J26" t="n">
-        <v>285.8774377936032</v>
+        <v>216.4059729125951</v>
       </c>
       <c r="K26" t="n">
-        <v>621.5719797546243</v>
+        <v>621.5719797546249</v>
       </c>
       <c r="L26" t="n">
         <v>1149.576531034066</v>
       </c>
       <c r="M26" t="n">
-        <v>1731.705689593998</v>
+        <v>1731.705689593999</v>
       </c>
       <c r="N26" t="n">
         <v>2300.328324097195</v>
@@ -6248,16 +6248,16 @@
         <v>3442.069488426032</v>
       </c>
       <c r="R26" t="n">
-        <v>3486.505099320141</v>
+        <v>3486.505099320142</v>
       </c>
       <c r="S26" t="n">
-        <v>3415.109520269409</v>
+        <v>3415.10952026941</v>
       </c>
       <c r="T26" t="n">
-        <v>3297.319940133059</v>
+        <v>3297.319940133061</v>
       </c>
       <c r="U26" t="n">
-        <v>3146.841440391125</v>
+        <v>3146.841440391126</v>
       </c>
       <c r="V26" t="n">
         <v>2914.228746317564</v>
@@ -6266,10 +6266,10 @@
         <v>2656.060396205663</v>
       </c>
       <c r="X26" t="n">
-        <v>2378.396835757654</v>
+        <v>2378.396835757655</v>
       </c>
       <c r="Y26" t="n">
-        <v>2089.221560363989</v>
+        <v>2089.22156036399</v>
       </c>
     </row>
     <row r="27">
@@ -6306,22 +6306,22 @@
         <v>154.9152455554594</v>
       </c>
       <c r="K27" t="n">
-        <v>427.0168430008712</v>
+        <v>427.0168430008711</v>
       </c>
       <c r="L27" t="n">
-        <v>850.134496548719</v>
+        <v>850.1344965487189</v>
       </c>
       <c r="M27" t="n">
-        <v>1402.029355967068</v>
+        <v>1402.029355967067</v>
       </c>
       <c r="N27" t="n">
         <v>1981.92613310708</v>
       </c>
       <c r="O27" t="n">
-        <v>2009.474477921538</v>
+        <v>2436.910160591904</v>
       </c>
       <c r="P27" t="n">
-        <v>2361.960153891503</v>
+        <v>2553.416001574795</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.416001574795</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>429.8163769310013</v>
+        <v>429.8163769310015</v>
       </c>
       <c r="C28" t="n">
-        <v>364.5669874231792</v>
+        <v>364.5669874231795</v>
       </c>
       <c r="D28" t="n">
-        <v>315.8616742814396</v>
+        <v>315.8616742814398</v>
       </c>
       <c r="E28" t="n">
-        <v>268.2192400732561</v>
+        <v>268.2192400732563</v>
       </c>
       <c r="F28" t="n">
-        <v>220.1051651295308</v>
+        <v>220.105165129531</v>
       </c>
       <c r="G28" t="n">
-        <v>155.7777176042464</v>
+        <v>155.7777176042466</v>
       </c>
       <c r="H28" t="n">
         <v>102.7785179839072</v>
@@ -6427,7 +6427,7 @@
         <v>626.6737443621089</v>
       </c>
       <c r="Y28" t="n">
-        <v>509.0051655848835</v>
+        <v>509.0051655848837</v>
       </c>
     </row>
     <row r="29">
@@ -6437,43 +6437,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1799.544600876469</v>
+        <v>1799.544600876467</v>
       </c>
       <c r="C29" t="n">
-        <v>1521.977422239774</v>
+        <v>1521.977422239772</v>
       </c>
       <c r="D29" t="n">
-        <v>1253.520037497495</v>
+        <v>1253.520037497493</v>
       </c>
       <c r="E29" t="n">
-        <v>963.1008976340993</v>
+        <v>963.1008976340981</v>
       </c>
       <c r="F29" t="n">
-        <v>653.3162869747671</v>
+        <v>653.3162869747666</v>
       </c>
       <c r="G29" t="n">
-        <v>342.0820868791308</v>
+        <v>342.0820868791304</v>
       </c>
       <c r="H29" t="n">
-        <v>118.7808552524661</v>
+        <v>118.7808552524662</v>
       </c>
       <c r="I29" t="n">
         <v>69.73010198640283</v>
       </c>
       <c r="J29" t="n">
-        <v>285.8774377936032</v>
+        <v>285.8774377936031</v>
       </c>
       <c r="K29" t="n">
-        <v>691.043444635633</v>
+        <v>691.0434446356328</v>
       </c>
       <c r="L29" t="n">
-        <v>1149.576531034066</v>
+        <v>1219.047995915074</v>
       </c>
       <c r="M29" t="n">
-        <v>1731.705689593998</v>
+        <v>1801.177154475007</v>
       </c>
       <c r="N29" t="n">
-        <v>2300.328324097195</v>
+        <v>2369.799788978203</v>
       </c>
       <c r="O29" t="n">
         <v>2790.720000350665</v>
@@ -6485,28 +6485,28 @@
         <v>3442.069488426032</v>
       </c>
       <c r="R29" t="n">
-        <v>3486.505099320142</v>
+        <v>3486.505099320141</v>
       </c>
       <c r="S29" t="n">
-        <v>3415.10952026941</v>
+        <v>3415.109520269409</v>
       </c>
       <c r="T29" t="n">
-        <v>3297.31994013306</v>
+        <v>3297.319940133059</v>
       </c>
       <c r="U29" t="n">
         <v>3146.841440391125</v>
       </c>
       <c r="V29" t="n">
-        <v>2914.228746317564</v>
+        <v>2914.228746317563</v>
       </c>
       <c r="W29" t="n">
-        <v>2656.060396205663</v>
+        <v>2656.060396205662</v>
       </c>
       <c r="X29" t="n">
-        <v>2378.396835757654</v>
+        <v>2378.396835757653</v>
       </c>
       <c r="Y29" t="n">
-        <v>2089.22156036399</v>
+        <v>2089.221560363989</v>
       </c>
     </row>
     <row r="30">
@@ -6540,10 +6540,10 @@
         <v>69.73010198640283</v>
       </c>
       <c r="J30" t="n">
-        <v>154.9152455554595</v>
+        <v>154.9152455554594</v>
       </c>
       <c r="K30" t="n">
-        <v>427.0168430008712</v>
+        <v>427.0168430008711</v>
       </c>
       <c r="L30" t="n">
         <v>614.1546615616452</v>
@@ -6598,13 +6598,13 @@
         <v>429.8163769310012</v>
       </c>
       <c r="C31" t="n">
-        <v>364.5669874231791</v>
+        <v>364.5669874231792</v>
       </c>
       <c r="D31" t="n">
         <v>315.8616742814395</v>
       </c>
       <c r="E31" t="n">
-        <v>268.2192400732559</v>
+        <v>268.219240073256</v>
       </c>
       <c r="F31" t="n">
         <v>220.1051651295307</v>
@@ -6613,7 +6613,7 @@
         <v>155.7777176042463</v>
       </c>
       <c r="H31" t="n">
-        <v>102.7785179839072</v>
+        <v>102.7785179839073</v>
       </c>
       <c r="I31" t="n">
         <v>69.73010198640283</v>
@@ -6628,7 +6628,7 @@
         <v>526.1827975468776</v>
       </c>
       <c r="M31" t="n">
-        <v>781.1446756738981</v>
+        <v>781.1446756738982</v>
       </c>
       <c r="N31" t="n">
         <v>1035.710807758838</v>
@@ -6664,7 +6664,7 @@
         <v>626.673744362109</v>
       </c>
       <c r="Y31" t="n">
-        <v>509.0051655848833</v>
+        <v>509.0051655848835</v>
       </c>
     </row>
     <row r="32">
@@ -6683,16 +6683,16 @@
         <v>1065.308603805055</v>
       </c>
       <c r="E32" t="n">
-        <v>810.3600802913879</v>
+        <v>810.3600802913883</v>
       </c>
       <c r="F32" t="n">
-        <v>536.0460859817847</v>
+        <v>536.0460859817849</v>
       </c>
       <c r="G32" t="n">
-        <v>260.2825022358772</v>
+        <v>260.2825022358778</v>
       </c>
       <c r="H32" t="n">
-        <v>72.45188695894285</v>
+        <v>72.45188695894274</v>
       </c>
       <c r="I32" t="n">
         <v>58.87175004260828</v>
@@ -6704,22 +6704,22 @@
         <v>475.6057225160569</v>
       </c>
       <c r="L32" t="n">
-        <v>1025.488534005642</v>
+        <v>901.3205887076076</v>
       </c>
       <c r="M32" t="n">
-        <v>1505.328007477684</v>
+        <v>1381.160062179649</v>
       </c>
       <c r="N32" t="n">
-        <v>1971.66095689299</v>
+        <v>1892.460594914511</v>
       </c>
       <c r="O32" t="n">
-        <v>2359.762948058569</v>
+        <v>2280.56258608009</v>
       </c>
       <c r="P32" t="n">
-        <v>2658.84155860043</v>
+        <v>2579.641196621951</v>
       </c>
       <c r="Q32" t="n">
-        <v>2943.587502130414</v>
+        <v>2864.387140151935</v>
       </c>
       <c r="R32" t="n">
         <v>2943.587502130414</v>
@@ -6731,16 +6731,16 @@
         <v>2825.34357564279</v>
       </c>
       <c r="U32" t="n">
-        <v>2710.335692250585</v>
+        <v>2710.335692250584</v>
       </c>
       <c r="V32" t="n">
-        <v>2513.193614526753</v>
+        <v>2513.193614526752</v>
       </c>
       <c r="W32" t="n">
-        <v>2290.49588076458</v>
+        <v>2290.495880764579</v>
       </c>
       <c r="X32" t="n">
-        <v>2048.3029366663</v>
+        <v>2048.302936666299</v>
       </c>
       <c r="Y32" t="n">
         <v>1794.598277622364</v>
@@ -6780,13 +6780,13 @@
         <v>144.0568936116649</v>
       </c>
       <c r="K33" t="n">
-        <v>144.0568936116649</v>
+        <v>416.1584910570765</v>
       </c>
       <c r="L33" t="n">
-        <v>411.8404619345591</v>
+        <v>839.2761446049243</v>
       </c>
       <c r="M33" t="n">
-        <v>963.7353213529077</v>
+        <v>1391.171004023273</v>
       </c>
       <c r="N33" t="n">
         <v>1543.63209849292</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>173.0859108913298</v>
+        <v>173.085910891329</v>
       </c>
       <c r="C34" t="n">
-        <v>143.3071377332365</v>
+        <v>143.3071377332358</v>
       </c>
       <c r="D34" t="n">
-        <v>130.0724409412256</v>
+        <v>130.072440941225</v>
       </c>
       <c r="E34" t="n">
-        <v>117.9006230827708</v>
+        <v>117.9006230827704</v>
       </c>
       <c r="F34" t="n">
-        <v>105.2571644887743</v>
+        <v>105.257164488774</v>
       </c>
       <c r="G34" t="n">
-        <v>76.4003333132186</v>
+        <v>76.40033331321847</v>
       </c>
       <c r="H34" t="n">
         <v>58.87175004260828</v>
       </c>
       <c r="I34" t="n">
-        <v>61.24574860782334</v>
+        <v>58.87175004260828</v>
       </c>
       <c r="J34" t="n">
-        <v>155.0789915873528</v>
+        <v>58.87175004260828</v>
       </c>
       <c r="K34" t="n">
-        <v>214.385993153798</v>
+        <v>118.1787516090535</v>
       </c>
       <c r="L34" t="n">
-        <v>347.8838250768858</v>
+        <v>251.6765835321413</v>
       </c>
       <c r="M34" t="n">
-        <v>595.10113222174</v>
+        <v>404.3487765712711</v>
       </c>
       <c r="N34" t="n">
-        <v>747.3775792187887</v>
+        <v>556.6252235683198</v>
       </c>
       <c r="O34" t="n">
-        <v>877.1109713562136</v>
+        <v>740.5119439336714</v>
       </c>
       <c r="P34" t="n">
-        <v>966.8361244963428</v>
+        <v>967.2915332460607</v>
       </c>
       <c r="Q34" t="n">
-        <v>966.8361244963428</v>
+        <v>967.2915332460607</v>
       </c>
       <c r="R34" t="n">
-        <v>967.2915332460627</v>
+        <v>967.2915332460607</v>
       </c>
       <c r="S34" t="n">
-        <v>897.3526697881342</v>
+        <v>897.3526697881323</v>
       </c>
       <c r="T34" t="n">
-        <v>804.9753575830661</v>
+        <v>804.9753575830642</v>
       </c>
       <c r="U34" t="n">
-        <v>657.6346265111033</v>
+        <v>657.6346265111016</v>
       </c>
       <c r="V34" t="n">
-        <v>536.7365184497522</v>
+        <v>536.7365184497507</v>
       </c>
       <c r="W34" t="n">
-        <v>390.4173133473777</v>
+        <v>390.4173133473764</v>
       </c>
       <c r="X34" t="n">
-        <v>299.0020456229798</v>
+        <v>299.0020456229787</v>
       </c>
       <c r="Y34" t="n">
-        <v>216.8040831954833</v>
+        <v>216.8040831954823</v>
       </c>
     </row>
     <row r="35">
@@ -6911,31 +6911,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1415.348338035515</v>
+        <v>1415.348338035514</v>
       </c>
       <c r="C35" t="n">
-        <v>1190.940507502403</v>
+        <v>1190.940507502402</v>
       </c>
       <c r="D35" t="n">
-        <v>975.6424708637071</v>
+        <v>975.6424708637062</v>
       </c>
       <c r="E35" t="n">
-        <v>738.3826791038947</v>
+        <v>738.3826791038937</v>
       </c>
       <c r="F35" t="n">
-        <v>481.7574165481458</v>
+        <v>481.7574165481446</v>
       </c>
       <c r="G35" t="n">
         <v>223.6825645560913</v>
       </c>
       <c r="H35" t="n">
-        <v>53.54068103301046</v>
+        <v>53.54068103301045</v>
       </c>
       <c r="I35" t="n">
-        <v>53.54068103301046</v>
+        <v>53.54068103301045</v>
       </c>
       <c r="J35" t="n">
-        <v>167.3983317523201</v>
+        <v>167.39833175232</v>
       </c>
       <c r="K35" t="n">
         <v>470.2746535064591</v>
@@ -6965,13 +6965,13 @@
         <v>2658.797820703374</v>
       </c>
       <c r="T35" t="n">
-        <v>2594.167588670608</v>
+        <v>2594.167588670607</v>
       </c>
       <c r="U35" t="n">
-        <v>2496.848437032257</v>
+        <v>2496.848437032256</v>
       </c>
       <c r="V35" t="n">
-        <v>2317.395091062279</v>
+        <v>2317.395091062278</v>
       </c>
       <c r="W35" t="n">
         <v>2112.38608905396</v>
@@ -6980,7 +6980,7 @@
         <v>1887.881876709534</v>
       </c>
       <c r="Y35" t="n">
-        <v>1651.865949419453</v>
+        <v>1651.865949419452</v>
       </c>
     </row>
     <row r="36">
@@ -7011,25 +7011,25 @@
         <v>112.6531089313897</v>
       </c>
       <c r="I36" t="n">
-        <v>53.54068103301046</v>
+        <v>53.54068103301045</v>
       </c>
       <c r="J36" t="n">
         <v>138.7258246020671</v>
       </c>
       <c r="K36" t="n">
-        <v>410.8274220474788</v>
+        <v>410.8274220474787</v>
       </c>
       <c r="L36" t="n">
-        <v>758.995068894926</v>
+        <v>833.9450755953264</v>
       </c>
       <c r="M36" t="n">
-        <v>1310.889928313275</v>
+        <v>1385.839935013675</v>
       </c>
       <c r="N36" t="n">
-        <v>1890.786705453287</v>
+        <v>1538.301029483322</v>
       </c>
       <c r="O36" t="n">
-        <v>2345.770732938111</v>
+        <v>1993.285056968146</v>
       </c>
       <c r="P36" t="n">
         <v>2345.770732938111</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>76.79882185895077</v>
+        <v>98.4206522972037</v>
       </c>
       <c r="C37" t="n">
-        <v>64.70878045471179</v>
+        <v>86.33061089296466</v>
       </c>
       <c r="D37" t="n">
-        <v>64.70878045471179</v>
+        <v>86.33061089296466</v>
       </c>
       <c r="E37" t="n">
-        <v>64.70878045471179</v>
+        <v>86.33061089296466</v>
       </c>
       <c r="F37" t="n">
-        <v>64.70878045471179</v>
+        <v>86.33061089296466</v>
       </c>
       <c r="G37" t="n">
-        <v>53.54068103301046</v>
+        <v>53.54068103301045</v>
       </c>
       <c r="H37" t="n">
-        <v>53.54068103301046</v>
+        <v>53.54068103301045</v>
       </c>
       <c r="I37" t="n">
-        <v>53.54068103301046</v>
+        <v>53.54068103301045</v>
       </c>
       <c r="J37" t="n">
-        <v>53.54068103301046</v>
+        <v>53.54068103301045</v>
       </c>
       <c r="K37" t="n">
         <v>112.8476825994557</v>
       </c>
       <c r="L37" t="n">
-        <v>246.3455145225436</v>
+        <v>246.3455145225435</v>
       </c>
       <c r="M37" t="n">
         <v>399.0177075616733</v>
@@ -7114,31 +7114,31 @@
         <v>770.7526998362761</v>
       </c>
       <c r="Q37" t="n">
-        <v>770.7526998362761</v>
+        <v>751.1164206211022</v>
       </c>
       <c r="R37" t="n">
-        <v>770.7526998362761</v>
+        <v>751.1164206211022</v>
       </c>
       <c r="S37" t="n">
-        <v>718.502568132202</v>
+        <v>698.866288917028</v>
       </c>
       <c r="T37" t="n">
-        <v>643.8139876809881</v>
+        <v>624.1777084658141</v>
       </c>
       <c r="U37" t="n">
-        <v>514.1619883628797</v>
+        <v>494.5257091477056</v>
       </c>
       <c r="V37" t="n">
-        <v>410.952612055383</v>
+        <v>391.3163328402089</v>
       </c>
       <c r="W37" t="n">
-        <v>282.3221387068629</v>
+        <v>262.6858594916887</v>
       </c>
       <c r="X37" t="n">
-        <v>167.3374930828921</v>
+        <v>188.9593235211451</v>
       </c>
       <c r="Y37" t="n">
-        <v>102.8282624092499</v>
+        <v>124.4500928475029</v>
       </c>
     </row>
     <row r="38">
@@ -7148,16 +7148,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1415.348338035513</v>
+        <v>1415.348338035514</v>
       </c>
       <c r="C38" t="n">
         <v>1190.940507502402</v>
       </c>
       <c r="D38" t="n">
-        <v>975.642470863706</v>
+        <v>975.6424708637062</v>
       </c>
       <c r="E38" t="n">
-        <v>738.3826791038936</v>
+        <v>738.3826791038937</v>
       </c>
       <c r="F38" t="n">
         <v>481.7574165481446</v>
@@ -7172,16 +7172,16 @@
         <v>53.54068103301044</v>
       </c>
       <c r="J38" t="n">
-        <v>167.3983317523202</v>
+        <v>167.3983317523201</v>
       </c>
       <c r="K38" t="n">
-        <v>470.2746535064593</v>
+        <v>470.2746535064591</v>
       </c>
       <c r="L38" t="n">
-        <v>895.98951969801</v>
+        <v>895.9895196980099</v>
       </c>
       <c r="M38" t="n">
-        <v>1375.828993170052</v>
+        <v>1375.828993170051</v>
       </c>
       <c r="N38" t="n">
         <v>1842.161942585358</v>
@@ -7202,19 +7202,19 @@
         <v>2658.797820703373</v>
       </c>
       <c r="T38" t="n">
-        <v>2594.167588670606</v>
+        <v>2594.167588670607</v>
       </c>
       <c r="U38" t="n">
-        <v>2496.848437032255</v>
+        <v>2496.848437032256</v>
       </c>
       <c r="V38" t="n">
-        <v>2317.395091062277</v>
+        <v>2317.395091062278</v>
       </c>
       <c r="W38" t="n">
         <v>2112.386089053959</v>
       </c>
       <c r="X38" t="n">
-        <v>1887.881876709533</v>
+        <v>1887.881876709534</v>
       </c>
       <c r="Y38" t="n">
         <v>1651.865949419452</v>
@@ -7251,25 +7251,25 @@
         <v>53.54068103301044</v>
       </c>
       <c r="J39" t="n">
-        <v>138.725824602067</v>
+        <v>53.54068103301044</v>
       </c>
       <c r="K39" t="n">
-        <v>138.725824602067</v>
+        <v>53.54068103301044</v>
       </c>
       <c r="L39" t="n">
-        <v>561.8434781499149</v>
+        <v>476.6583345808583</v>
       </c>
       <c r="M39" t="n">
-        <v>1113.738337568263</v>
+        <v>1028.553193999207</v>
       </c>
       <c r="N39" t="n">
-        <v>1693.635114708276</v>
+        <v>1608.449971139219</v>
       </c>
       <c r="O39" t="n">
-        <v>2148.6191421931</v>
+        <v>2063.433998624043</v>
       </c>
       <c r="P39" t="n">
-        <v>2501.104818163064</v>
+        <v>2345.770732938111</v>
       </c>
       <c r="Q39" t="n">
         <v>2537.226580621403</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>76.79882185895076</v>
+        <v>76.79882185895087</v>
       </c>
       <c r="C40" t="n">
-        <v>64.70878045471177</v>
+        <v>64.70878045471183</v>
       </c>
       <c r="D40" t="n">
-        <v>64.70878045471177</v>
+        <v>64.70878045471183</v>
       </c>
       <c r="E40" t="n">
-        <v>64.70878045471177</v>
+        <v>64.70878045471183</v>
       </c>
       <c r="F40" t="n">
-        <v>64.70878045471177</v>
+        <v>64.70878045471183</v>
       </c>
       <c r="G40" t="n">
         <v>53.54068103301044</v>
@@ -7333,7 +7333,7 @@
         <v>53.54068103301044</v>
       </c>
       <c r="K40" t="n">
-        <v>112.8476825994557</v>
+        <v>112.8476825994556</v>
       </c>
       <c r="L40" t="n">
         <v>246.3455145225435</v>
@@ -7351,31 +7351,31 @@
         <v>770.7526998362761</v>
       </c>
       <c r="Q40" t="n">
-        <v>770.7526998362761</v>
+        <v>751.1164206211022</v>
       </c>
       <c r="R40" t="n">
-        <v>770.7526998362761</v>
+        <v>751.1164206211022</v>
       </c>
       <c r="S40" t="n">
-        <v>718.502568132202</v>
+        <v>698.866288917028</v>
       </c>
       <c r="T40" t="n">
-        <v>643.8139876809881</v>
+        <v>624.1777084658141</v>
       </c>
       <c r="U40" t="n">
-        <v>514.1619883628797</v>
+        <v>494.5257091477056</v>
       </c>
       <c r="V40" t="n">
-        <v>410.952612055383</v>
+        <v>391.3163328402089</v>
       </c>
       <c r="W40" t="n">
-        <v>282.3221387068629</v>
+        <v>262.6858594916887</v>
       </c>
       <c r="X40" t="n">
-        <v>208.5956027363193</v>
+        <v>167.3374930828923</v>
       </c>
       <c r="Y40" t="n">
-        <v>102.8282624092499</v>
+        <v>102.82826240925</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1415.348338035514</v>
+        <v>1415.348338035513</v>
       </c>
       <c r="C41" t="n">
-        <v>1190.940507502402</v>
+        <v>1190.940507502401</v>
       </c>
       <c r="D41" t="n">
-        <v>975.6424708637061</v>
+        <v>975.6424708637052</v>
       </c>
       <c r="E41" t="n">
-        <v>738.3826791038937</v>
+        <v>738.3826791038928</v>
       </c>
       <c r="F41" t="n">
-        <v>481.7574165481448</v>
+        <v>481.7574165481439</v>
       </c>
       <c r="G41" t="n">
         <v>223.6825645560912</v>
       </c>
       <c r="H41" t="n">
-        <v>53.54068103301044</v>
+        <v>53.54068103301042</v>
       </c>
       <c r="I41" t="n">
-        <v>53.54068103301044</v>
+        <v>53.54068103301042</v>
       </c>
       <c r="J41" t="n">
-        <v>167.3983317523202</v>
+        <v>167.3983317523198</v>
       </c>
       <c r="K41" t="n">
-        <v>470.2746535064593</v>
+        <v>470.2746535064588</v>
       </c>
       <c r="L41" t="n">
-        <v>895.98951969801</v>
+        <v>895.9895196980094</v>
       </c>
       <c r="M41" t="n">
-        <v>1375.828993170052</v>
+        <v>1375.828993170051</v>
       </c>
       <c r="N41" t="n">
-        <v>1842.161942585358</v>
+        <v>1842.161942585357</v>
       </c>
       <c r="O41" t="n">
-        <v>2230.263933750937</v>
+        <v>2230.263933750936</v>
       </c>
       <c r="P41" t="n">
-        <v>2529.342544292798</v>
+        <v>2529.342544292797</v>
       </c>
       <c r="Q41" t="n">
-        <v>2677.034051650522</v>
+        <v>2677.034051650521</v>
       </c>
       <c r="R41" t="n">
-        <v>2677.034051650522</v>
+        <v>2677.034051650521</v>
       </c>
       <c r="S41" t="n">
-        <v>2658.797820703373</v>
+        <v>2658.797820703372</v>
       </c>
       <c r="T41" t="n">
-        <v>2594.167588670606</v>
+        <v>2594.167588670605</v>
       </c>
       <c r="U41" t="n">
-        <v>2496.848437032255</v>
+        <v>2496.848437032254</v>
       </c>
       <c r="V41" t="n">
-        <v>2317.395091062277</v>
+        <v>2317.395091062276</v>
       </c>
       <c r="W41" t="n">
-        <v>2112.386089053959</v>
+        <v>2112.386089053958</v>
       </c>
       <c r="X41" t="n">
-        <v>1887.881876709533</v>
+        <v>1887.881876709532</v>
       </c>
       <c r="Y41" t="n">
-        <v>1651.865949419452</v>
+        <v>1651.865949419451</v>
       </c>
     </row>
     <row r="42">
@@ -7485,28 +7485,28 @@
         <v>112.6531089313897</v>
       </c>
       <c r="I42" t="n">
-        <v>53.54068103301044</v>
+        <v>53.54068103301042</v>
       </c>
       <c r="J42" t="n">
-        <v>53.54068103301044</v>
+        <v>138.725824602067</v>
       </c>
       <c r="K42" t="n">
-        <v>174.8475870604053</v>
+        <v>410.8274220474786</v>
       </c>
       <c r="L42" t="n">
-        <v>597.9652406082531</v>
+        <v>833.9450755953264</v>
       </c>
       <c r="M42" t="n">
-        <v>1149.860100026602</v>
+        <v>958.40425234331</v>
       </c>
       <c r="N42" t="n">
-        <v>1729.756877166614</v>
+        <v>1538.301029483322</v>
       </c>
       <c r="O42" t="n">
-        <v>2184.740904651438</v>
+        <v>1993.285056968146</v>
       </c>
       <c r="P42" t="n">
-        <v>2537.226580621403</v>
+        <v>2345.770732938111</v>
       </c>
       <c r="Q42" t="n">
         <v>2537.226580621403</v>
@@ -7543,34 +7543,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>98.42065229720484</v>
+        <v>118.0569315123786</v>
       </c>
       <c r="C43" t="n">
-        <v>86.33061089296594</v>
+        <v>105.9668901081397</v>
       </c>
       <c r="D43" t="n">
-        <v>86.33061089296594</v>
+        <v>105.9668901081397</v>
       </c>
       <c r="E43" t="n">
-        <v>86.33061089296594</v>
+        <v>105.9668901081397</v>
       </c>
       <c r="F43" t="n">
-        <v>86.33061089296594</v>
+        <v>105.9668901081397</v>
       </c>
       <c r="G43" t="n">
-        <v>75.16251147126469</v>
+        <v>94.79879068643848</v>
       </c>
       <c r="H43" t="n">
-        <v>75.16251147126469</v>
+        <v>94.79879068643848</v>
       </c>
       <c r="I43" t="n">
-        <v>75.16251147126469</v>
+        <v>94.79879068643848</v>
       </c>
       <c r="J43" t="n">
-        <v>53.54068103301044</v>
+        <v>53.54068103301042</v>
       </c>
       <c r="K43" t="n">
-        <v>112.8476825994557</v>
+        <v>112.8476825994556</v>
       </c>
       <c r="L43" t="n">
         <v>246.3455145225435</v>
@@ -7579,40 +7579,40 @@
         <v>399.0177075616733</v>
       </c>
       <c r="N43" t="n">
-        <v>551.2941545587221</v>
+        <v>551.294154558722</v>
       </c>
       <c r="O43" t="n">
-        <v>681.0275466961468</v>
+        <v>681.0275466961467</v>
       </c>
       <c r="P43" t="n">
-        <v>770.7526998362761</v>
+        <v>770.752699836276</v>
       </c>
       <c r="Q43" t="n">
-        <v>751.1164206211022</v>
+        <v>770.752699836276</v>
       </c>
       <c r="R43" t="n">
-        <v>751.1164206211022</v>
+        <v>770.752699836276</v>
       </c>
       <c r="S43" t="n">
-        <v>698.8662889170281</v>
+        <v>718.5025681322019</v>
       </c>
       <c r="T43" t="n">
-        <v>624.1777084658144</v>
+        <v>643.8139876809881</v>
       </c>
       <c r="U43" t="n">
-        <v>494.525709147706</v>
+        <v>514.1619883628798</v>
       </c>
       <c r="V43" t="n">
-        <v>391.3163328402094</v>
+        <v>410.9526120553832</v>
       </c>
       <c r="W43" t="n">
-        <v>262.6858594916894</v>
+        <v>282.3221387068631</v>
       </c>
       <c r="X43" t="n">
-        <v>188.959323521146</v>
+        <v>208.5956027363197</v>
       </c>
       <c r="Y43" t="n">
-        <v>124.4500928475039</v>
+        <v>144.0863720626776</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1415.348338035514</v>
+        <v>1415.348338035512</v>
       </c>
       <c r="C44" t="n">
-        <v>1190.940507502402</v>
+        <v>1190.940507502401</v>
       </c>
       <c r="D44" t="n">
-        <v>975.642470863706</v>
+        <v>975.6424708637051</v>
       </c>
       <c r="E44" t="n">
-        <v>738.3826791038932</v>
+        <v>738.3826791038928</v>
       </c>
       <c r="F44" t="n">
-        <v>481.7574165481444</v>
+        <v>481.7574165481442</v>
       </c>
       <c r="G44" t="n">
         <v>223.6825645560912</v>
@@ -7661,13 +7661,13 @@
         <v>1842.161942585357</v>
       </c>
       <c r="O44" t="n">
-        <v>2230.263933750936</v>
+        <v>2230.263933750937</v>
       </c>
       <c r="P44" t="n">
-        <v>2529.342544292797</v>
+        <v>2529.342544292798</v>
       </c>
       <c r="Q44" t="n">
-        <v>2677.034051650521</v>
+        <v>2677.034051650522</v>
       </c>
       <c r="R44" t="n">
         <v>2677.034051650521</v>
@@ -7685,13 +7685,13 @@
         <v>2317.395091062277</v>
       </c>
       <c r="W44" t="n">
-        <v>2112.386089053959</v>
+        <v>2112.386089053958</v>
       </c>
       <c r="X44" t="n">
-        <v>1887.881876709533</v>
+        <v>1887.881876709532</v>
       </c>
       <c r="Y44" t="n">
-        <v>1651.865949419452</v>
+        <v>1651.865949419451</v>
       </c>
     </row>
     <row r="45">
@@ -7701,25 +7701,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>920.7140613833557</v>
+        <v>920.7140613833559</v>
       </c>
       <c r="C45" t="n">
-        <v>759.0103886243104</v>
+        <v>759.0103886243106</v>
       </c>
       <c r="D45" t="n">
-        <v>620.1717516145225</v>
+        <v>620.1717516145227</v>
       </c>
       <c r="E45" t="n">
-        <v>473.1437416713937</v>
+        <v>473.1437416713939</v>
       </c>
       <c r="F45" t="n">
-        <v>338.4499436212681</v>
+        <v>338.4499436212682</v>
       </c>
       <c r="G45" t="n">
         <v>209.9906828152324</v>
       </c>
       <c r="H45" t="n">
-        <v>112.6531089313896</v>
+        <v>112.6531089313897</v>
       </c>
       <c r="I45" t="n">
         <v>53.54068103301042</v>
@@ -7746,13 +7746,13 @@
         <v>2345.770732938111</v>
       </c>
       <c r="Q45" t="n">
-        <v>2537.226580621402</v>
+        <v>2537.226580621403</v>
       </c>
       <c r="R45" t="n">
-        <v>2494.158757769601</v>
+        <v>2494.158757769602</v>
       </c>
       <c r="S45" t="n">
-        <v>2346.360270290361</v>
+        <v>2346.360270290362</v>
       </c>
       <c r="T45" t="n">
         <v>2158.760389253955</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>118.0569315123786</v>
+        <v>76.79882185895069</v>
       </c>
       <c r="C46" t="n">
-        <v>105.9668901081397</v>
+        <v>64.70878045471173</v>
       </c>
       <c r="D46" t="n">
-        <v>105.9668901081397</v>
+        <v>64.70878045471173</v>
       </c>
       <c r="E46" t="n">
-        <v>105.9668901081397</v>
+        <v>64.70878045471173</v>
       </c>
       <c r="F46" t="n">
-        <v>105.9668901081397</v>
+        <v>64.70878045471173</v>
       </c>
       <c r="G46" t="n">
-        <v>94.79879068643848</v>
+        <v>53.54068103301042</v>
       </c>
       <c r="H46" t="n">
-        <v>94.79879068643848</v>
+        <v>53.54068103301042</v>
       </c>
       <c r="I46" t="n">
-        <v>94.79879068643848</v>
+        <v>53.54068103301042</v>
       </c>
       <c r="J46" t="n">
         <v>53.54068103301042</v>
@@ -7825,31 +7825,31 @@
         <v>770.752699836276</v>
       </c>
       <c r="Q46" t="n">
-        <v>770.752699836276</v>
+        <v>751.1164206211021</v>
       </c>
       <c r="R46" t="n">
-        <v>770.752699836276</v>
+        <v>729.4945901828484</v>
       </c>
       <c r="S46" t="n">
-        <v>718.5025681322019</v>
+        <v>677.2444584787743</v>
       </c>
       <c r="T46" t="n">
-        <v>643.8139876809881</v>
+        <v>602.5558780275605</v>
       </c>
       <c r="U46" t="n">
-        <v>514.1619883628798</v>
+        <v>472.9038787094522</v>
       </c>
       <c r="V46" t="n">
-        <v>410.9526120553832</v>
+        <v>369.6945024019556</v>
       </c>
       <c r="W46" t="n">
-        <v>282.3221387068631</v>
+        <v>241.0640290534354</v>
       </c>
       <c r="X46" t="n">
-        <v>208.5956027363197</v>
+        <v>167.3374930828919</v>
       </c>
       <c r="Y46" t="n">
-        <v>144.0863720626776</v>
+        <v>102.8282624092498</v>
       </c>
     </row>
   </sheetData>
@@ -8453,7 +8453,7 @@
         <v>147.0997974279326</v>
       </c>
       <c r="K8" t="n">
-        <v>309.0683871382489</v>
+        <v>178.8230039740467</v>
       </c>
       <c r="L8" t="n">
         <v>327.2896114605464</v>
@@ -8462,10 +8462,10 @@
         <v>187.1563144971591</v>
       </c>
       <c r="N8" t="n">
-        <v>322.1275134696619</v>
+        <v>316.6434973364323</v>
       </c>
       <c r="O8" t="n">
-        <v>186.9547967801205</v>
+        <v>322.6841960775522</v>
       </c>
       <c r="P8" t="n">
         <v>323.6062083485883</v>
@@ -8532,10 +8532,10 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K9" t="n">
-        <v>111.9961691666667</v>
+        <v>181.378778055004</v>
       </c>
       <c r="L9" t="n">
-        <v>248.3048328685796</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M9" t="n">
         <v>115.4839025616399</v>
@@ -8544,7 +8544,7 @@
         <v>106.7151410677083</v>
       </c>
       <c r="O9" t="n">
-        <v>185.2420574994484</v>
+        <v>251.5888479085429</v>
       </c>
       <c r="P9" t="n">
         <v>244.5836053215751</v>
@@ -8775,13 +8775,13 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M12" t="n">
-        <v>605.4165828749999</v>
+        <v>277.8578053120008</v>
       </c>
       <c r="N12" t="n">
         <v>623.1450866466196</v>
       </c>
       <c r="O12" t="n">
-        <v>184.4622374967492</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P12" t="n">
         <v>414.0015992319183</v>
@@ -8933,7 +8933,7 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M14" t="n">
-        <v>584.3675935406826</v>
+        <v>584.3675935406823</v>
       </c>
       <c r="N14" t="n">
         <v>568.5510017355793</v>
@@ -9003,13 +9003,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J15" t="n">
-        <v>159.5567003642303</v>
+        <v>77.87274637782784</v>
       </c>
       <c r="K15" t="n">
-        <v>343.8048081163522</v>
+        <v>191.4869379971433</v>
       </c>
       <c r="L15" t="n">
-        <v>54.7008796542465</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M15" t="n">
         <v>605.4165828749999</v>
@@ -9024,7 +9024,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q15" t="n">
-        <v>273.1004740566038</v>
+        <v>79.71072892196568</v>
       </c>
       <c r="R15" t="n">
         <v>59.17817075471706</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>219.8255997236959</v>
+        <v>219.8255997236958</v>
       </c>
       <c r="K17" t="n">
         <v>421.3890363425141</v>
@@ -9255,10 +9255,10 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O18" t="n">
-        <v>436.3139375845963</v>
+        <v>80.26780024119775</v>
       </c>
       <c r="P18" t="n">
-        <v>57.95546188851972</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q18" t="n">
         <v>273.1004740566038</v>
@@ -9477,7 +9477,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J21" t="n">
-        <v>77.87274637782782</v>
+        <v>77.87274637782784</v>
       </c>
       <c r="K21" t="n">
         <v>343.8048081163522</v>
@@ -9486,10 +9486,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M21" t="n">
-        <v>259.7089676211529</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N21" t="n">
-        <v>623.1450866466196</v>
+        <v>277.4374713927728</v>
       </c>
       <c r="O21" t="n">
         <v>512.0210150597484</v>
@@ -9641,7 +9641,7 @@
         <v>421.3890363425141</v>
       </c>
       <c r="L23" t="n">
-        <v>542.9595789155859</v>
+        <v>542.9595789155856</v>
       </c>
       <c r="M23" t="n">
         <v>584.3675935406823</v>
@@ -9714,10 +9714,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J24" t="n">
-        <v>77.87274637782782</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K24" t="n">
-        <v>68.95470968664344</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L24" t="n">
         <v>482.0924488944969</v>
@@ -9729,13 +9729,13 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O24" t="n">
-        <v>512.0210150597484</v>
+        <v>273.6575453758358</v>
       </c>
       <c r="P24" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q24" t="n">
-        <v>202.2429572324658</v>
+        <v>79.71072892196568</v>
       </c>
       <c r="R24" t="n">
         <v>59.17817075471706</v>
@@ -9966,13 +9966,13 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O27" t="n">
-        <v>80.26780024119726</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P27" t="n">
-        <v>414.0015992319183</v>
+        <v>175.6381295480058</v>
       </c>
       <c r="Q27" t="n">
-        <v>273.1004740566038</v>
+        <v>79.7107289219657</v>
       </c>
       <c r="R27" t="n">
         <v>59.17817075471706</v>
@@ -10194,7 +10194,7 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L30" t="n">
-        <v>243.728979210584</v>
+        <v>243.7289792105842</v>
       </c>
       <c r="M30" t="n">
         <v>605.4165828749999</v>
@@ -10209,7 +10209,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q30" t="n">
-        <v>79.71072892196565</v>
+        <v>79.7107289219657</v>
       </c>
       <c r="R30" t="n">
         <v>59.17817075471706</v>
@@ -10428,16 +10428,16 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K33" t="n">
-        <v>68.95470968664344</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L33" t="n">
-        <v>325.1893325056549</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M33" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N33" t="n">
-        <v>623.1450866466196</v>
+        <v>191.3918718280689</v>
       </c>
       <c r="O33" t="n">
         <v>512.0210150597484</v>
@@ -10668,19 +10668,19 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L36" t="n">
-        <v>406.3853714193448</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M36" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N36" t="n">
-        <v>623.1450866466196</v>
+        <v>191.3918718280689</v>
       </c>
       <c r="O36" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P36" t="n">
-        <v>57.95546188851978</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q36" t="n">
         <v>273.1004740566038</v>
@@ -10899,10 +10899,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J39" t="n">
-        <v>163.9183459425315</v>
+        <v>77.87274637782784</v>
       </c>
       <c r="K39" t="n">
-        <v>68.95470968664344</v>
+        <v>68.95470968664345</v>
       </c>
       <c r="L39" t="n">
         <v>482.0924488944969</v>
@@ -10917,10 +10917,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P39" t="n">
-        <v>414.0015992319183</v>
+        <v>343.1440824077805</v>
       </c>
       <c r="Q39" t="n">
-        <v>116.1973576677619</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R39" t="n">
         <v>59.17817075471706</v>
@@ -11136,16 +11136,16 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J42" t="n">
-        <v>77.87274637782784</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K42" t="n">
-        <v>191.4869379971433</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L42" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M42" t="n">
-        <v>605.4165828749999</v>
+        <v>173.6633680564494</v>
       </c>
       <c r="N42" t="n">
         <v>623.1450866466196</v>
@@ -11157,7 +11157,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q42" t="n">
-        <v>79.71072892196568</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R42" t="n">
         <v>59.17817075471706</v>
@@ -11303,7 +11303,7 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M44" t="n">
-        <v>584.3675935406814</v>
+        <v>584.3675935406823</v>
       </c>
       <c r="N44" t="n">
         <v>568.5510017355793</v>
@@ -11388,7 +11388,7 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O45" t="n">
-        <v>80.26780024119728</v>
+        <v>80.26780024119775</v>
       </c>
       <c r="P45" t="n">
         <v>414.0015992319183</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>304.0371729503657</v>
+        <v>212.6208778086057</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>292.0484899080475</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>283.0297939525755</v>
       </c>
       <c r="E11" t="n">
-        <v>304.7719315224809</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>323.9437476104581</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>325.4950644345947</v>
       </c>
       <c r="H11" t="n">
-        <v>239.5154740569005</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>11.22382684157642</v>
+        <v>70.29792687796079</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23416,19 +23416,19 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>81.85387867046327</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>65.47524306804168</v>
       </c>
       <c r="E13" t="n">
-        <v>64.42299292382111</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>64.88991725200742</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>80.99328987101447</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23464,10 +23464,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>31.42775707507359</v>
+        <v>122.5209173779917</v>
       </c>
       <c r="T13" t="n">
-        <v>144.0491856790941</v>
+        <v>3.017976687163295</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>142.8740082911048</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>133.7488760471725</v>
       </c>
     </row>
     <row r="14">
@@ -23507,10 +23507,10 @@
         <v>323.9437476104581</v>
       </c>
       <c r="G14" t="n">
-        <v>189.7906984350322</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>238.3252023681167</v>
+        <v>238.3252023681166</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,22 +23543,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>87.93860631794391</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>133.8686673927058</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>12.58378243508502</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>247.5435501905448</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>292.1439079012483</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23665,10 +23665,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>80.94115610775098</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>69.72619068185507</v>
+        <v>42.12935516248557</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23707,16 +23707,16 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>198.240217005194</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>172.0620202246883</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>197.2289062953016</v>
       </c>
       <c r="X16" t="n">
-        <v>62.51271788767623</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -24023,7 +24023,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>-9.250200605492864e-13</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1233835.463477023</v>
+        <v>1233835.463477022</v>
       </c>
     </row>
     <row r="6">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>57440.74736304782</v>
+      </c>
+      <c r="C2" t="n">
         <v>57440.74736304781</v>
-      </c>
-      <c r="C2" t="n">
-        <v>57440.74736304782</v>
       </c>
       <c r="D2" t="n">
         <v>57571.80453706365</v>
       </c>
       <c r="E2" t="n">
-        <v>49664.60974511364</v>
+        <v>49664.60974511363</v>
       </c>
       <c r="F2" t="n">
-        <v>50597.35279883543</v>
+        <v>50597.35279883546</v>
       </c>
       <c r="G2" t="n">
+        <v>57571.80453706366</v>
+      </c>
+      <c r="H2" t="n">
         <v>57571.8045370637</v>
       </c>
-      <c r="H2" t="n">
-        <v>57571.80453706369</v>
-      </c>
       <c r="I2" t="n">
-        <v>57571.80453706365</v>
+        <v>57571.80453706368</v>
       </c>
       <c r="J2" t="n">
         <v>57571.80453706362</v>
       </c>
       <c r="K2" t="n">
-        <v>57571.80453706365</v>
+        <v>57571.80453706363</v>
       </c>
       <c r="L2" t="n">
-        <v>57571.80453706363</v>
+        <v>57571.80453706362</v>
       </c>
       <c r="M2" t="n">
         <v>57571.8045370637</v>
       </c>
       <c r="N2" t="n">
-        <v>57571.80453706369</v>
+        <v>57571.8045370637</v>
       </c>
       <c r="O2" t="n">
+        <v>57571.8045370637</v>
+      </c>
+      <c r="P2" t="n">
         <v>57571.80453706368</v>
-      </c>
-      <c r="P2" t="n">
-        <v>57571.80453706364</v>
       </c>
     </row>
     <row r="3">
@@ -26375,34 +26375,34 @@
         <v>294456.7782311494</v>
       </c>
       <c r="F3" t="n">
-        <v>32475.03813004574</v>
+        <v>32475.03813004548</v>
       </c>
       <c r="G3" t="n">
-        <v>55907.79014421331</v>
+        <v>55907.7901442133</v>
       </c>
       <c r="H3" t="n">
-        <v>6.821210263296962e-11</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>79698.85193905819</v>
+        <v>79698.8519390583</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>5.145141455743993e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>84000.51829319847</v>
+        <v>84000.51829319858</v>
       </c>
       <c r="M3" t="n">
-        <v>121991.115433125</v>
+        <v>121991.1154331248</v>
       </c>
       <c r="N3" t="n">
-        <v>8225.761730126378</v>
+        <v>8225.761730126322</v>
       </c>
       <c r="O3" t="n">
-        <v>26750.5412399408</v>
+        <v>26750.54123994089</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26427,37 +26427,37 @@
         <v>215102.0309827444</v>
       </c>
       <c r="F4" t="n">
-        <v>213572.6448207532</v>
+        <v>213572.6448207533</v>
       </c>
       <c r="G4" t="n">
         <v>266456.8038557648</v>
       </c>
       <c r="H4" t="n">
+        <v>266456.8038557648</v>
+      </c>
+      <c r="I4" t="n">
+        <v>266456.8038557648</v>
+      </c>
+      <c r="J4" t="n">
+        <v>267512.5535851408</v>
+      </c>
+      <c r="K4" t="n">
+        <v>267512.5535851408</v>
+      </c>
+      <c r="L4" t="n">
+        <v>266786.472723726</v>
+      </c>
+      <c r="M4" t="n">
+        <v>266456.8038557648</v>
+      </c>
+      <c r="N4" t="n">
+        <v>266456.8038557647</v>
+      </c>
+      <c r="O4" t="n">
         <v>266456.8038557649</v>
       </c>
-      <c r="I4" t="n">
+      <c r="P4" t="n">
         <v>266456.8038557649</v>
-      </c>
-      <c r="J4" t="n">
-        <v>267512.5535851407</v>
-      </c>
-      <c r="K4" t="n">
-        <v>267512.5535851407</v>
-      </c>
-      <c r="L4" t="n">
-        <v>266786.4727237258</v>
-      </c>
-      <c r="M4" t="n">
-        <v>266456.8038557649</v>
-      </c>
-      <c r="N4" t="n">
-        <v>266456.8038557648</v>
-      </c>
-      <c r="O4" t="n">
-        <v>266456.8038557648</v>
-      </c>
-      <c r="P4" t="n">
-        <v>266456.8038557648</v>
       </c>
     </row>
     <row r="5">
@@ -26479,34 +26479,34 @@
         <v>47955.67923004333</v>
       </c>
       <c r="F5" t="n">
-        <v>50627.86933901336</v>
+        <v>50627.86933901333</v>
       </c>
       <c r="G5" t="n">
-        <v>56503.00935105569</v>
+        <v>56503.00935105567</v>
       </c>
       <c r="H5" t="n">
+        <v>56503.00935105567</v>
+      </c>
+      <c r="I5" t="n">
+        <v>56503.00935105567</v>
+      </c>
+      <c r="J5" t="n">
+        <v>64382.60657227097</v>
+      </c>
+      <c r="K5" t="n">
+        <v>64382.60657227096</v>
+      </c>
+      <c r="L5" t="n">
+        <v>59082.41854843342</v>
+      </c>
+      <c r="M5" t="n">
         <v>56503.00935105568</v>
       </c>
-      <c r="I5" t="n">
-        <v>56503.00935105568</v>
-      </c>
-      <c r="J5" t="n">
-        <v>64382.60657227096</v>
-      </c>
-      <c r="K5" t="n">
-        <v>64382.60657227097</v>
-      </c>
-      <c r="L5" t="n">
-        <v>59082.4185484334</v>
-      </c>
-      <c r="M5" t="n">
-        <v>56503.00935105569</v>
-      </c>
       <c r="N5" t="n">
+        <v>56503.00935105566</v>
+      </c>
+      <c r="O5" t="n">
         <v>56503.00935105567</v>
-      </c>
-      <c r="O5" t="n">
-        <v>56503.00935105568</v>
       </c>
       <c r="P5" t="n">
         <v>56503.00935105566</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-359645.2630088931</v>
+        <v>-359649.6315813603</v>
       </c>
       <c r="C6" t="n">
-        <v>-359645.2630088931</v>
+        <v>-359649.6315813603</v>
       </c>
       <c r="D6" t="n">
         <v>-388727.0260374218</v>
       </c>
       <c r="E6" t="n">
-        <v>-507849.8786988235</v>
+        <v>-508113.4518585552</v>
       </c>
       <c r="F6" t="n">
-        <v>-246078.1994909769</v>
+        <v>-246310.6812155842</v>
       </c>
       <c r="G6" t="n">
         <v>-321295.7988139701</v>
       </c>
       <c r="H6" t="n">
-        <v>-265388.0086697569</v>
+        <v>-265388.0086697568</v>
       </c>
       <c r="I6" t="n">
-        <v>-265388.0086697569</v>
+        <v>-265388.0086697568</v>
       </c>
       <c r="J6" t="n">
-        <v>-354022.2075594063</v>
+        <v>-354022.2075594065</v>
       </c>
       <c r="K6" t="n">
-        <v>-274323.3556203481</v>
+        <v>-274323.3556203482</v>
       </c>
       <c r="L6" t="n">
-        <v>-352297.6050282941</v>
+        <v>-352297.6050282943</v>
       </c>
       <c r="M6" t="n">
-        <v>-387379.1241028819</v>
+        <v>-387379.1241028816</v>
       </c>
       <c r="N6" t="n">
-        <v>-273613.7703998832</v>
+        <v>-273613.770399883</v>
       </c>
       <c r="O6" t="n">
-        <v>-292138.5499096976</v>
+        <v>-292138.5499096977</v>
       </c>
       <c r="P6" t="n">
         <v>-265388.0086697568</v>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>86.06593117247323</v>
+        <v>86.06593117247321</v>
       </c>
       <c r="F2" t="n">
-        <v>86.06593117247324</v>
+        <v>86.06593117247328</v>
       </c>
       <c r="G2" t="n">
         <v>155.9506688527399</v>
       </c>
       <c r="H2" t="n">
-        <v>155.95066885274</v>
+        <v>155.9506688527399</v>
       </c>
       <c r="I2" t="n">
-        <v>155.95066885274</v>
+        <v>155.9506688527399</v>
       </c>
       <c r="J2" t="n">
         <v>103.3229142301927</v>
@@ -26713,7 +26713,7 @@
         <v>103.3229142301927</v>
       </c>
       <c r="L2" t="n">
-        <v>138.4388244164241</v>
+        <v>138.4388244164242</v>
       </c>
       <c r="M2" t="n">
         <v>155.9506688527399</v>
@@ -26725,7 +26725,7 @@
         <v>155.95066885274</v>
       </c>
       <c r="P2" t="n">
-        <v>155.95066885274</v>
+        <v>155.9506688527399</v>
       </c>
     </row>
     <row r="3">
@@ -26747,28 +26747,28 @@
         <v>95.01032947988871</v>
       </c>
       <c r="F3" t="n">
-        <v>123.9208709259981</v>
+        <v>123.9208709259978</v>
       </c>
       <c r="G3" t="n">
-        <v>123.920870925998</v>
+        <v>123.9208709259978</v>
       </c>
       <c r="H3" t="n">
-        <v>123.9208709259979</v>
+        <v>123.9208709259978</v>
       </c>
       <c r="I3" t="n">
         <v>123.9208709259979</v>
       </c>
       <c r="J3" t="n">
-        <v>123.9208709259979</v>
+        <v>123.9208709259978</v>
       </c>
       <c r="K3" t="n">
-        <v>123.9208709259979</v>
+        <v>123.9208709259978</v>
       </c>
       <c r="L3" t="n">
-        <v>123.9208709259979</v>
+        <v>123.9208709259978</v>
       </c>
       <c r="M3" t="n">
-        <v>123.9208709259979</v>
+        <v>123.9208709259978</v>
       </c>
       <c r="N3" t="n">
         <v>123.9208709259978</v>
@@ -26799,37 +26799,37 @@
         <v>635.6739684151827</v>
       </c>
       <c r="F4" t="n">
-        <v>669.2585129126307</v>
+        <v>669.2585129126304</v>
       </c>
       <c r="G4" t="n">
-        <v>669.2585129126307</v>
+        <v>669.2585129126304</v>
       </c>
       <c r="H4" t="n">
-        <v>669.2585129126305</v>
+        <v>669.2585129126304</v>
       </c>
       <c r="I4" t="n">
-        <v>669.2585129126305</v>
+        <v>669.2585129126304</v>
       </c>
       <c r="J4" t="n">
+        <v>871.6262748300354</v>
+      </c>
+      <c r="K4" t="n">
         <v>871.6262748300353</v>
       </c>
-      <c r="K4" t="n">
-        <v>871.6262748300354</v>
-      </c>
       <c r="L4" t="n">
-        <v>735.8968755326034</v>
+        <v>735.8968755326035</v>
       </c>
       <c r="M4" t="n">
-        <v>669.2585129126307</v>
+        <v>669.2585129126306</v>
       </c>
       <c r="N4" t="n">
         <v>669.2585129126304</v>
       </c>
       <c r="O4" t="n">
-        <v>669.2585129126304</v>
+        <v>669.2585129126303</v>
       </c>
       <c r="P4" t="n">
-        <v>669.2585129126302</v>
+        <v>669.2585129126303</v>
       </c>
     </row>
   </sheetData>
@@ -26914,37 +26914,37 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>86.06593117247323</v>
+        <v>86.06593117247321</v>
       </c>
       <c r="F2" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>7.141969555440092e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>69.88473768026664</v>
+        <v>69.88473768026662</v>
       </c>
       <c r="H2" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>33.43817654992591</v>
+        <v>33.43817654992597</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>105.0006478664981</v>
+        <v>105.0006478664982</v>
       </c>
       <c r="M2" t="n">
-        <v>17.5118444363159</v>
+        <v>17.51184443631564</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>33.438176549926</v>
+        <v>33.43817654992611</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26969,7 +26969,7 @@
         <v>95.01032947988871</v>
       </c>
       <c r="F3" t="n">
-        <v>28.91054144610938</v>
+        <v>28.91054144610911</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27021,7 +27021,7 @@
         <v>499.9445691177509</v>
       </c>
       <c r="F4" t="n">
-        <v>33.58454449744806</v>
+        <v>33.58454449744772</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>202.3677619174048</v>
+        <v>202.367761917405</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>433.3062064977782</v>
+        <v>433.306206497778</v>
       </c>
       <c r="N4" t="n">
-        <v>33.58454449744772</v>
+        <v>33.5845444974475</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27151,25 +27151,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>86.06593117247323</v>
+        <v>86.06593117247321</v>
       </c>
       <c r="K2" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>7.141969555440092e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>69.88473768026664</v>
+        <v>69.88473768026662</v>
       </c>
       <c r="M2" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>33.43817654992591</v>
+        <v>33.43817654992597</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27267,7 +27267,7 @@
         <v>499.9445691177509</v>
       </c>
       <c r="N4" t="n">
-        <v>33.58454449744806</v>
+        <v>33.58454449744772</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27853,25 +27853,25 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C8" t="n">
-        <v>378.1144210805207</v>
+        <v>280.516591642628</v>
       </c>
       <c r="D8" t="n">
-        <v>261.4882169042247</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E8" t="n">
         <v>390.8378626949542</v>
       </c>
       <c r="F8" t="n">
-        <v>274.2802794854996</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>193.763662361232</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I8" t="n">
-        <v>171.0890268032919</v>
+        <v>35.35962750586017</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,10 +27904,10 @@
         <v>185.3566856159496</v>
       </c>
       <c r="T8" t="n">
-        <v>222.1153568062989</v>
+        <v>86.38595750886716</v>
       </c>
       <c r="U8" t="n">
-        <v>252.3364829231459</v>
+        <v>116.6070836257141</v>
       </c>
       <c r="V8" t="n">
         <v>333.6094813630181</v>
@@ -27919,7 +27919,7 @@
         <v>378.2098390737216</v>
       </c>
       <c r="Y8" t="n">
-        <v>253.8770375724886</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="9">
@@ -27941,10 +27941,10 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H9" t="n">
         <v>98.93847887876893</v>
@@ -27977,19 +27977,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>15.54209281995534</v>
       </c>
       <c r="T9" t="n">
-        <v>56.57707434620588</v>
+        <v>51.06885349824287</v>
       </c>
       <c r="U9" t="n">
-        <v>216.3098444776729</v>
+        <v>80.58044518024116</v>
       </c>
       <c r="V9" t="n">
-        <v>226.1116663261494</v>
+        <v>165.7476376409751</v>
       </c>
       <c r="W9" t="n">
         <v>238.9027100790231</v>
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>45.99041570010425</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C10" t="n">
         <v>167.9198098429365</v>
       </c>
       <c r="D10" t="n">
-        <v>15.81177494308312</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E10" t="n">
         <v>150.4889240962943</v>
@@ -28032,7 +28032,7 @@
         <v>7.031614655916485</v>
       </c>
       <c r="J10" t="n">
-        <v>59.456666199969</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>148.0265635717656</v>
+        <v>12.2971642743338</v>
       </c>
       <c r="S10" t="n">
-        <v>211.5726649703493</v>
+        <v>75.84326567291754</v>
       </c>
       <c r="T10" t="n">
-        <v>230.8471636524779</v>
+        <v>208.9053428841171</v>
       </c>
       <c r="U10" t="n">
         <v>284.3183371157911</v>
@@ -28077,7 +28077,7 @@
         <v>228.939939463578</v>
       </c>
       <c r="Y10" t="n">
-        <v>138.4163202513157</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>86.06593117247323</v>
+        <v>86.06593117247321</v>
       </c>
       <c r="C11" t="n">
-        <v>86.06593117247323</v>
+        <v>86.06593117247321</v>
       </c>
       <c r="D11" t="n">
-        <v>86.06593117247323</v>
+        <v>86.06593117247321</v>
       </c>
       <c r="E11" t="n">
-        <v>86.06593117247323</v>
+        <v>86.06593117247321</v>
       </c>
       <c r="F11" t="n">
-        <v>86.06593117247323</v>
+        <v>86.06593117247321</v>
       </c>
       <c r="G11" t="n">
-        <v>86.06593117247323</v>
+        <v>86.06593117247321</v>
       </c>
       <c r="H11" t="n">
-        <v>86.06593117247323</v>
+        <v>86.06593117247321</v>
       </c>
       <c r="I11" t="n">
-        <v>86.06593117247323</v>
+        <v>86.06593117247321</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>65.73916953180444</v>
       </c>
       <c r="S11" t="n">
-        <v>86.06593117247323</v>
+        <v>86.06593117247321</v>
       </c>
       <c r="T11" t="n">
-        <v>86.06593117247323</v>
+        <v>86.06593117247321</v>
       </c>
       <c r="U11" t="n">
-        <v>86.06593117247323</v>
+        <v>86.06593117247321</v>
       </c>
       <c r="V11" t="n">
-        <v>86.06593117247323</v>
+        <v>86.06593117247321</v>
       </c>
       <c r="W11" t="n">
-        <v>86.06593117247323</v>
+        <v>86.06593117247321</v>
       </c>
       <c r="X11" t="n">
-        <v>86.06593117247323</v>
+        <v>86.06593117247321</v>
       </c>
       <c r="Y11" t="n">
-        <v>86.06593117247323</v>
+        <v>86.06593117247321</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>86.06593117247323</v>
+        <v>86.06593117247321</v>
       </c>
       <c r="C13" t="n">
-        <v>86.06593117247323</v>
+        <v>86.06593117247321</v>
       </c>
       <c r="D13" t="n">
-        <v>86.06593117247323</v>
+        <v>86.06593117247321</v>
       </c>
       <c r="E13" t="n">
-        <v>86.06593117247323</v>
+        <v>86.06593117247321</v>
       </c>
       <c r="F13" t="n">
-        <v>86.06593117247323</v>
+        <v>86.06593117247321</v>
       </c>
       <c r="G13" t="n">
-        <v>86.06593117247323</v>
+        <v>86.06593117247321</v>
       </c>
       <c r="H13" t="n">
-        <v>86.06593117247323</v>
+        <v>86.06593117247321</v>
       </c>
       <c r="I13" t="n">
-        <v>86.06593117247323</v>
+        <v>86.06593117247321</v>
       </c>
       <c r="J13" t="n">
-        <v>86.06593117247323</v>
+        <v>86.06593117247321</v>
       </c>
       <c r="K13" t="n">
-        <v>86.06593117247323</v>
+        <v>86.06593117247321</v>
       </c>
       <c r="L13" t="n">
-        <v>86.06593117247323</v>
+        <v>86.06593117247321</v>
       </c>
       <c r="M13" t="n">
-        <v>86.06593117247323</v>
+        <v>86.06593117247321</v>
       </c>
       <c r="N13" t="n">
-        <v>86.06593117247323</v>
+        <v>86.06593117247321</v>
       </c>
       <c r="O13" t="n">
-        <v>86.06593117247323</v>
+        <v>86.06593117247321</v>
       </c>
       <c r="P13" t="n">
-        <v>86.06593117247323</v>
+        <v>86.06593117247321</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.06593117247323</v>
+        <v>86.06593117247321</v>
       </c>
       <c r="R13" t="n">
-        <v>86.06593117247323</v>
+        <v>86.06593117247321</v>
       </c>
       <c r="S13" t="n">
-        <v>86.06593117247323</v>
+        <v>86.06593117247321</v>
       </c>
       <c r="T13" t="n">
-        <v>86.06593117247323</v>
+        <v>86.06593117247321</v>
       </c>
       <c r="U13" t="n">
-        <v>86.06593117247323</v>
+        <v>86.06593117247321</v>
       </c>
       <c r="V13" t="n">
-        <v>86.06593117247323</v>
+        <v>86.06593117247321</v>
       </c>
       <c r="W13" t="n">
-        <v>86.06593117247323</v>
+        <v>86.06593117247321</v>
       </c>
       <c r="X13" t="n">
-        <v>86.06593117247323</v>
+        <v>86.06593117247321</v>
       </c>
       <c r="Y13" t="n">
-        <v>86.06593117247323</v>
+        <v>86.06593117247321</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>86.06593117247324</v>
+        <v>86.06593117247328</v>
       </c>
       <c r="C14" t="n">
-        <v>86.06593117247324</v>
+        <v>86.06593117247328</v>
       </c>
       <c r="D14" t="n">
-        <v>86.06593117247324</v>
+        <v>86.06593117247328</v>
       </c>
       <c r="E14" t="n">
-        <v>86.06593117247324</v>
+        <v>86.06593117247328</v>
       </c>
       <c r="F14" t="n">
-        <v>86.06593117247324</v>
+        <v>86.06593117247328</v>
       </c>
       <c r="G14" t="n">
-        <v>86.06593117247324</v>
+        <v>86.06593117247328</v>
       </c>
       <c r="H14" t="n">
-        <v>86.06593117247324</v>
+        <v>86.06593117247328</v>
       </c>
       <c r="I14" t="n">
-        <v>86.06593117247324</v>
+        <v>86.06593117247328</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28372,28 +28372,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>58.43845878159673</v>
+        <v>58.43845878159679</v>
       </c>
       <c r="S14" t="n">
-        <v>86.06593117247324</v>
+        <v>86.06593117247328</v>
       </c>
       <c r="T14" t="n">
-        <v>86.06593117247324</v>
+        <v>86.06593117247328</v>
       </c>
       <c r="U14" t="n">
-        <v>86.06593117247324</v>
+        <v>86.06593117247328</v>
       </c>
       <c r="V14" t="n">
-        <v>86.06593117247324</v>
+        <v>86.06593117247328</v>
       </c>
       <c r="W14" t="n">
-        <v>86.06593117247324</v>
+        <v>86.06593117247328</v>
       </c>
       <c r="X14" t="n">
-        <v>86.06593117247324</v>
+        <v>86.06593117247328</v>
       </c>
       <c r="Y14" t="n">
-        <v>86.06593117247324</v>
+        <v>86.06593117247328</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>86.06593117247324</v>
+        <v>86.06593117247328</v>
       </c>
       <c r="C16" t="n">
-        <v>86.06593117247324</v>
+        <v>86.06593117247328</v>
       </c>
       <c r="D16" t="n">
-        <v>86.06593117247324</v>
+        <v>86.06593117247328</v>
       </c>
       <c r="E16" t="n">
-        <v>86.06593117247324</v>
+        <v>86.06593117247328</v>
       </c>
       <c r="F16" t="n">
-        <v>86.06593117247324</v>
+        <v>86.06593117247328</v>
       </c>
       <c r="G16" t="n">
-        <v>86.06593117247324</v>
+        <v>86.06593117247328</v>
       </c>
       <c r="H16" t="n">
-        <v>86.06593117247324</v>
+        <v>86.06593117247328</v>
       </c>
       <c r="I16" t="n">
-        <v>86.06593117247324</v>
+        <v>86.06593117247328</v>
       </c>
       <c r="J16" t="n">
-        <v>86.06593117247324</v>
+        <v>86.06593117247328</v>
       </c>
       <c r="K16" t="n">
-        <v>86.06593117247324</v>
+        <v>86.06593117247328</v>
       </c>
       <c r="L16" t="n">
-        <v>86.06593117247324</v>
+        <v>86.06593117247328</v>
       </c>
       <c r="M16" t="n">
-        <v>86.06593117247324</v>
+        <v>86.06593117247328</v>
       </c>
       <c r="N16" t="n">
-        <v>86.06593117247324</v>
+        <v>86.06593117247328</v>
       </c>
       <c r="O16" t="n">
-        <v>86.06593117247324</v>
+        <v>86.06593117247328</v>
       </c>
       <c r="P16" t="n">
-        <v>86.06593117247324</v>
+        <v>86.06593117247328</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.06593117247324</v>
+        <v>86.06593117247328</v>
       </c>
       <c r="R16" t="n">
-        <v>86.06593117247324</v>
+        <v>86.06593117247328</v>
       </c>
       <c r="S16" t="n">
-        <v>86.06593117247324</v>
+        <v>86.06593117247328</v>
       </c>
       <c r="T16" t="n">
-        <v>86.06593117247324</v>
+        <v>86.06593117247328</v>
       </c>
       <c r="U16" t="n">
-        <v>86.06593117247324</v>
+        <v>86.06593117247328</v>
       </c>
       <c r="V16" t="n">
-        <v>86.06593117247324</v>
+        <v>86.06593117247328</v>
       </c>
       <c r="W16" t="n">
-        <v>86.06593117247324</v>
+        <v>86.06593117247328</v>
       </c>
       <c r="X16" t="n">
-        <v>86.06593117247324</v>
+        <v>86.06593117247328</v>
       </c>
       <c r="Y16" t="n">
-        <v>86.06593117247324</v>
+        <v>86.06593117247328</v>
       </c>
     </row>
     <row r="17">
@@ -28609,7 +28609,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>58.43845878159675</v>
+        <v>58.43845878159679</v>
       </c>
       <c r="S17" t="n">
         <v>155.9506688527399</v>
@@ -28743,7 +28743,7 @@
         <v>136.040846067722</v>
       </c>
       <c r="J19" t="n">
-        <v>43.65777090174791</v>
+        <v>43.65777090174794</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28764,7 +28764,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>19.43991642302215</v>
+        <v>19.43991642302218</v>
       </c>
       <c r="R19" t="n">
         <v>137.9788155783232</v>
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>155.95066885274</v>
+        <v>155.9506688527399</v>
       </c>
       <c r="C20" t="n">
-        <v>155.95066885274</v>
+        <v>155.9506688527399</v>
       </c>
       <c r="D20" t="n">
-        <v>155.95066885274</v>
+        <v>155.9506688527399</v>
       </c>
       <c r="E20" t="n">
-        <v>155.95066885274</v>
+        <v>155.9506688527399</v>
       </c>
       <c r="F20" t="n">
-        <v>155.95066885274</v>
+        <v>155.9506688527399</v>
       </c>
       <c r="G20" t="n">
-        <v>155.95066885274</v>
+        <v>155.9506688527399</v>
       </c>
       <c r="H20" t="n">
-        <v>155.95066885274</v>
+        <v>155.9506688527399</v>
       </c>
       <c r="I20" t="n">
         <v>151.8831599635953</v>
@@ -28846,28 +28846,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>58.43845878159679</v>
+        <v>58.43845878159681</v>
       </c>
       <c r="S20" t="n">
-        <v>155.95066885274</v>
+        <v>155.9506688527399</v>
       </c>
       <c r="T20" t="n">
-        <v>155.95066885274</v>
+        <v>155.9506688527399</v>
       </c>
       <c r="U20" t="n">
-        <v>155.95066885274</v>
+        <v>155.9506688527399</v>
       </c>
       <c r="V20" t="n">
-        <v>155.95066885274</v>
+        <v>155.9506688527399</v>
       </c>
       <c r="W20" t="n">
-        <v>155.95066885274</v>
+        <v>155.9506688527399</v>
       </c>
       <c r="X20" t="n">
-        <v>155.95066885274</v>
+        <v>155.9506688527399</v>
       </c>
       <c r="Y20" t="n">
-        <v>155.95066885274</v>
+        <v>155.9506688527399</v>
       </c>
     </row>
     <row r="21">
@@ -28956,10 +28956,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>155.95066885274</v>
+        <v>155.9506688527399</v>
       </c>
       <c r="C22" t="n">
-        <v>115.1051402958463</v>
+        <v>155.9506688527399</v>
       </c>
       <c r="D22" t="n">
         <v>151.5411742405149</v>
@@ -28971,7 +28971,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G22" t="n">
-        <v>155.95066885274</v>
+        <v>155.9506688527399</v>
       </c>
       <c r="H22" t="n">
         <v>155.7921218543283</v>
@@ -28980,7 +28980,7 @@
         <v>136.040846067722</v>
       </c>
       <c r="J22" t="n">
-        <v>43.65777090174793</v>
+        <v>22.25215876787693</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29001,31 +29001,31 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>19.43991642302218</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>137.9788155783232</v>
       </c>
       <c r="S22" t="n">
-        <v>155.95066885274</v>
+        <v>155.9506688527399</v>
       </c>
       <c r="T22" t="n">
-        <v>155.95066885274</v>
+        <v>155.9506688527399</v>
       </c>
       <c r="U22" t="n">
-        <v>155.95066885274</v>
+        <v>155.9506688527399</v>
       </c>
       <c r="V22" t="n">
-        <v>155.95066885274</v>
+        <v>155.9506688527399</v>
       </c>
       <c r="W22" t="n">
-        <v>155.95066885274</v>
+        <v>155.9506688527399</v>
       </c>
       <c r="X22" t="n">
-        <v>155.95066885274</v>
+        <v>155.9506688527399</v>
       </c>
       <c r="Y22" t="n">
-        <v>155.95066885274</v>
+        <v>155.9506688527399</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>155.95066885274</v>
+        <v>155.9506688527399</v>
       </c>
       <c r="C23" t="n">
-        <v>155.95066885274</v>
+        <v>155.9506688527399</v>
       </c>
       <c r="D23" t="n">
-        <v>155.95066885274</v>
+        <v>155.9506688527399</v>
       </c>
       <c r="E23" t="n">
-        <v>155.95066885274</v>
+        <v>155.9506688527399</v>
       </c>
       <c r="F23" t="n">
-        <v>155.95066885274</v>
+        <v>155.9506688527399</v>
       </c>
       <c r="G23" t="n">
-        <v>155.95066885274</v>
+        <v>155.9506688527399</v>
       </c>
       <c r="H23" t="n">
-        <v>155.95066885274</v>
+        <v>155.9506688527399</v>
       </c>
       <c r="I23" t="n">
         <v>151.8831599635953</v>
@@ -29083,28 +29083,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>58.43845878159679</v>
+        <v>58.43845878159678</v>
       </c>
       <c r="S23" t="n">
-        <v>155.95066885274</v>
+        <v>155.9506688527399</v>
       </c>
       <c r="T23" t="n">
-        <v>155.95066885274</v>
+        <v>155.9506688527399</v>
       </c>
       <c r="U23" t="n">
-        <v>155.95066885274</v>
+        <v>155.9506688527399</v>
       </c>
       <c r="V23" t="n">
-        <v>155.95066885274</v>
+        <v>155.9506688527399</v>
       </c>
       <c r="W23" t="n">
-        <v>155.95066885274</v>
+        <v>155.9506688527399</v>
       </c>
       <c r="X23" t="n">
-        <v>155.95066885274</v>
+        <v>155.9506688527399</v>
       </c>
       <c r="Y23" t="n">
-        <v>155.95066885274</v>
+        <v>155.9506688527399</v>
       </c>
     </row>
     <row r="24">
@@ -29193,10 +29193,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>155.95066885274</v>
+        <v>155.9506688527399</v>
       </c>
       <c r="C25" t="n">
-        <v>155.95066885274</v>
+        <v>155.9506688527399</v>
       </c>
       <c r="D25" t="n">
         <v>151.5411742405149</v>
@@ -29208,7 +29208,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G25" t="n">
-        <v>115.1051402958463</v>
+        <v>155.9506688527399</v>
       </c>
       <c r="H25" t="n">
         <v>155.7921218543283</v>
@@ -29217,7 +29217,7 @@
         <v>136.040846067722</v>
       </c>
       <c r="J25" t="n">
-        <v>43.65777090174793</v>
+        <v>2.81224234485493</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29244,25 +29244,25 @@
         <v>137.9788155783232</v>
       </c>
       <c r="S25" t="n">
-        <v>155.95066885274</v>
+        <v>155.9506688527399</v>
       </c>
       <c r="T25" t="n">
-        <v>155.95066885274</v>
+        <v>155.9506688527399</v>
       </c>
       <c r="U25" t="n">
-        <v>155.95066885274</v>
+        <v>155.9506688527399</v>
       </c>
       <c r="V25" t="n">
-        <v>155.95066885274</v>
+        <v>155.9506688527399</v>
       </c>
       <c r="W25" t="n">
-        <v>155.95066885274</v>
+        <v>155.9506688527399</v>
       </c>
       <c r="X25" t="n">
-        <v>155.95066885274</v>
+        <v>155.9506688527399</v>
       </c>
       <c r="Y25" t="n">
-        <v>155.95066885274</v>
+        <v>155.9506688527399</v>
       </c>
     </row>
     <row r="26">
@@ -29296,10 +29296,10 @@
         <v>103.3229142301927</v>
       </c>
       <c r="J26" t="n">
+        <v>33.14971738068964</v>
+      </c>
+      <c r="K26" t="n">
         <v>103.3229142301927</v>
-      </c>
-      <c r="K26" t="n">
-        <v>33.14971738068897</v>
       </c>
       <c r="L26" t="n">
         <v>103.3229142301927</v>
@@ -29539,7 +29539,7 @@
         <v>103.3229142301927</v>
       </c>
       <c r="L29" t="n">
-        <v>33.1497173806888</v>
+        <v>103.3229142301927</v>
       </c>
       <c r="M29" t="n">
         <v>103.3229142301927</v>
@@ -29548,7 +29548,7 @@
         <v>103.3229142301927</v>
       </c>
       <c r="O29" t="n">
-        <v>103.3229142301927</v>
+        <v>33.14971738068948</v>
       </c>
       <c r="P29" t="n">
         <v>103.3229142301927</v>
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>138.4388244164241</v>
+        <v>138.4388244164242</v>
       </c>
       <c r="C32" t="n">
-        <v>138.4388244164241</v>
+        <v>138.4388244164242</v>
       </c>
       <c r="D32" t="n">
-        <v>138.4388244164241</v>
+        <v>138.4388244164242</v>
       </c>
       <c r="E32" t="n">
-        <v>138.4388244164241</v>
+        <v>138.4388244164242</v>
       </c>
       <c r="F32" t="n">
-        <v>138.4388244164241</v>
+        <v>138.4388244164242</v>
       </c>
       <c r="G32" t="n">
-        <v>138.4388244164241</v>
+        <v>138.4388244164242</v>
       </c>
       <c r="H32" t="n">
-        <v>138.4388244164241</v>
+        <v>138.4388244164242</v>
       </c>
       <c r="I32" t="n">
-        <v>138.4388244164241</v>
+        <v>138.4388244164242</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29776,13 +29776,13 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>125.4221669677112</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>45.42180133288434</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -29791,31 +29791,31 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>138.4388244164241</v>
+        <v>138.4388244164242</v>
       </c>
       <c r="R32" t="n">
-        <v>58.43845878159679</v>
+        <v>138.4388244164242</v>
       </c>
       <c r="S32" t="n">
-        <v>138.4388244164241</v>
+        <v>138.4388244164242</v>
       </c>
       <c r="T32" t="n">
-        <v>138.4388244164241</v>
+        <v>138.4388244164242</v>
       </c>
       <c r="U32" t="n">
-        <v>138.4388244164241</v>
+        <v>138.4388244164242</v>
       </c>
       <c r="V32" t="n">
-        <v>138.4388244164241</v>
+        <v>138.4388244164242</v>
       </c>
       <c r="W32" t="n">
-        <v>138.4388244164241</v>
+        <v>138.4388244164242</v>
       </c>
       <c r="X32" t="n">
-        <v>138.4388244164241</v>
+        <v>138.4388244164242</v>
       </c>
       <c r="Y32" t="n">
-        <v>138.4388244164241</v>
+        <v>138.4388244164242</v>
       </c>
     </row>
     <row r="33">
@@ -29904,31 +29904,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>138.4388244164241</v>
+        <v>138.4388244164242</v>
       </c>
       <c r="C34" t="n">
-        <v>138.4388244164241</v>
+        <v>138.4388244164242</v>
       </c>
       <c r="D34" t="n">
-        <v>138.4388244164241</v>
+        <v>138.4388244164242</v>
       </c>
       <c r="E34" t="n">
-        <v>138.4388244164241</v>
+        <v>138.4388244164242</v>
       </c>
       <c r="F34" t="n">
-        <v>138.4388244164241</v>
+        <v>138.4388244164242</v>
       </c>
       <c r="G34" t="n">
-        <v>138.4388244164241</v>
+        <v>138.4388244164242</v>
       </c>
       <c r="H34" t="n">
-        <v>138.4388244164241</v>
+        <v>138.4388244164242</v>
       </c>
       <c r="I34" t="n">
-        <v>138.4388244164241</v>
+        <v>136.040846067722</v>
       </c>
       <c r="J34" t="n">
-        <v>138.4388244164241</v>
+        <v>43.65777090174794</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -29937,43 +29937,43 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>95.50011525830752</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>54.70033154336045</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>138.4388244164242</v>
       </c>
       <c r="Q34" t="n">
-        <v>19.43991642302218</v>
+        <v>19.43991642302219</v>
       </c>
       <c r="R34" t="n">
-        <v>138.4388244164241</v>
+        <v>137.9788155783232</v>
       </c>
       <c r="S34" t="n">
-        <v>138.4388244164241</v>
+        <v>138.4388244164242</v>
       </c>
       <c r="T34" t="n">
-        <v>138.4388244164241</v>
+        <v>138.4388244164242</v>
       </c>
       <c r="U34" t="n">
-        <v>138.4388244164241</v>
+        <v>138.4388244164242</v>
       </c>
       <c r="V34" t="n">
-        <v>138.4388244164241</v>
+        <v>138.4388244164242</v>
       </c>
       <c r="W34" t="n">
-        <v>138.4388244164241</v>
+        <v>138.4388244164242</v>
       </c>
       <c r="X34" t="n">
-        <v>138.4388244164241</v>
+        <v>138.4388244164242</v>
       </c>
       <c r="Y34" t="n">
-        <v>138.4388244164241</v>
+        <v>138.4388244164242</v>
       </c>
     </row>
     <row r="35">
@@ -30031,7 +30031,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>58.43845878159769</v>
+        <v>58.4384587815968</v>
       </c>
       <c r="S35" t="n">
         <v>155.9506688527399</v>
@@ -30156,7 +30156,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G37" t="n">
-        <v>155.9506688527399</v>
+        <v>134.5450567188696</v>
       </c>
       <c r="H37" t="n">
         <v>155.7921218543283</v>
@@ -30165,7 +30165,7 @@
         <v>136.040846067722</v>
       </c>
       <c r="J37" t="n">
-        <v>43.65777090174793</v>
+        <v>43.65777090174794</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30186,7 +30186,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>19.43991642302218</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>137.9788155783232</v>
@@ -30207,7 +30207,7 @@
         <v>155.9506688527399</v>
       </c>
       <c r="X37" t="n">
-        <v>115.1051402958469</v>
+        <v>155.9506688527399</v>
       </c>
       <c r="Y37" t="n">
         <v>155.9506688527399</v>
@@ -30268,7 +30268,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>58.43845878159679</v>
+        <v>58.4384587815968</v>
       </c>
       <c r="S38" t="n">
         <v>155.9506688527399</v>
@@ -30423,7 +30423,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>19.43991642302218</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>137.9788155783232</v>
@@ -30444,10 +30444,10 @@
         <v>155.9506688527399</v>
       </c>
       <c r="X40" t="n">
+        <v>134.5450567188695</v>
+      </c>
+      <c r="Y40" t="n">
         <v>155.9506688527399</v>
-      </c>
-      <c r="Y40" t="n">
-        <v>115.1051402958469</v>
       </c>
     </row>
     <row r="41">
@@ -30505,7 +30505,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>58.43845878159679</v>
+        <v>58.4384587815968</v>
       </c>
       <c r="S41" t="n">
         <v>155.95066885274</v>
@@ -30639,7 +30639,7 @@
         <v>136.040846067722</v>
       </c>
       <c r="J43" t="n">
-        <v>22.25215876787622</v>
+        <v>2.812242344854162</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30660,7 +30660,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>19.43991642302219</v>
       </c>
       <c r="R43" t="n">
         <v>137.9788155783232</v>
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>155.95066885274</v>
+        <v>155.9506688527399</v>
       </c>
       <c r="C44" t="n">
-        <v>155.95066885274</v>
+        <v>155.9506688527399</v>
       </c>
       <c r="D44" t="n">
-        <v>155.95066885274</v>
+        <v>155.9506688527399</v>
       </c>
       <c r="E44" t="n">
-        <v>155.95066885274</v>
+        <v>155.9506688527399</v>
       </c>
       <c r="F44" t="n">
-        <v>155.95066885274</v>
+        <v>155.9506688527399</v>
       </c>
       <c r="G44" t="n">
-        <v>155.95066885274</v>
+        <v>155.9506688527399</v>
       </c>
       <c r="H44" t="n">
-        <v>155.95066885274</v>
+        <v>155.9506688527399</v>
       </c>
       <c r="I44" t="n">
         <v>151.8831599635953</v>
@@ -30742,28 +30742,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>58.43845878159679</v>
+        <v>58.4384587815968</v>
       </c>
       <c r="S44" t="n">
-        <v>155.95066885274</v>
+        <v>155.9506688527399</v>
       </c>
       <c r="T44" t="n">
-        <v>155.95066885274</v>
+        <v>155.9506688527399</v>
       </c>
       <c r="U44" t="n">
-        <v>155.95066885274</v>
+        <v>155.9506688527399</v>
       </c>
       <c r="V44" t="n">
-        <v>155.95066885274</v>
+        <v>155.9506688527399</v>
       </c>
       <c r="W44" t="n">
-        <v>155.95066885274</v>
+        <v>155.9506688527399</v>
       </c>
       <c r="X44" t="n">
-        <v>155.95066885274</v>
+        <v>155.9506688527399</v>
       </c>
       <c r="Y44" t="n">
-        <v>155.95066885274</v>
+        <v>155.9506688527399</v>
       </c>
     </row>
     <row r="45">
@@ -30852,10 +30852,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>155.95066885274</v>
+        <v>155.9506688527399</v>
       </c>
       <c r="C46" t="n">
-        <v>155.95066885274</v>
+        <v>155.9506688527399</v>
       </c>
       <c r="D46" t="n">
         <v>151.5411742405149</v>
@@ -30867,7 +30867,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G46" t="n">
-        <v>155.95066885274</v>
+        <v>155.9506688527399</v>
       </c>
       <c r="H46" t="n">
         <v>155.7921218543283</v>
@@ -30876,7 +30876,7 @@
         <v>136.040846067722</v>
       </c>
       <c r="J46" t="n">
-        <v>2.812242344854155</v>
+        <v>43.65777090174794</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -30897,31 +30897,31 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>19.43991642302218</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>137.9788155783232</v>
+        <v>116.573203444452</v>
       </c>
       <c r="S46" t="n">
-        <v>155.95066885274</v>
+        <v>155.9506688527399</v>
       </c>
       <c r="T46" t="n">
-        <v>155.95066885274</v>
+        <v>155.9506688527399</v>
       </c>
       <c r="U46" t="n">
-        <v>155.95066885274</v>
+        <v>155.9506688527399</v>
       </c>
       <c r="V46" t="n">
-        <v>155.95066885274</v>
+        <v>155.9506688527399</v>
       </c>
       <c r="W46" t="n">
-        <v>155.95066885274</v>
+        <v>155.9506688527399</v>
       </c>
       <c r="X46" t="n">
-        <v>155.95066885274</v>
+        <v>155.9506688527399</v>
       </c>
       <c r="Y46" t="n">
-        <v>155.95066885274</v>
+        <v>155.9506688527399</v>
       </c>
     </row>
   </sheetData>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.498174355481399</v>
+        <v>0.4981743554813979</v>
       </c>
       <c r="H14" t="n">
-        <v>5.101928118073879</v>
+        <v>5.101928118073867</v>
       </c>
       <c r="I14" t="n">
-        <v>19.20586683969665</v>
+        <v>19.20586683969661</v>
       </c>
       <c r="J14" t="n">
-        <v>42.28192570353942</v>
+        <v>42.28192570353933</v>
       </c>
       <c r="K14" t="n">
-        <v>63.36964617106705</v>
+        <v>63.36964617106692</v>
       </c>
       <c r="L14" t="n">
-        <v>78.61564960263094</v>
+        <v>78.61564960263077</v>
       </c>
       <c r="M14" t="n">
-        <v>87.47505779692327</v>
+        <v>87.47505779692307</v>
       </c>
       <c r="N14" t="n">
-        <v>88.8904956844348</v>
+        <v>88.8904956844346</v>
       </c>
       <c r="O14" t="n">
-        <v>83.93677443711663</v>
+        <v>83.93677443711644</v>
       </c>
       <c r="P14" t="n">
-        <v>71.63809503616957</v>
+        <v>71.63809503616942</v>
       </c>
       <c r="Q14" t="n">
-        <v>53.79722593049196</v>
+        <v>53.79722593049184</v>
       </c>
       <c r="R14" t="n">
-        <v>31.29344485750845</v>
+        <v>31.29344485750839</v>
       </c>
       <c r="S14" t="n">
-        <v>11.35214812553239</v>
+        <v>11.35214812553237</v>
       </c>
       <c r="T14" t="n">
-        <v>2.180758241119825</v>
+        <v>2.180758241119821</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03985394843851191</v>
+        <v>0.03985394843851182</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2665467789729016</v>
+        <v>0.266546778972901</v>
       </c>
       <c r="H15" t="n">
-        <v>2.574280733764602</v>
+        <v>2.574280733764597</v>
       </c>
       <c r="I15" t="n">
-        <v>9.1771588374442</v>
+        <v>9.17715883744418</v>
       </c>
       <c r="J15" t="n">
-        <v>25.18282528883892</v>
+        <v>25.18282528883886</v>
       </c>
       <c r="K15" t="n">
-        <v>43.04145948002332</v>
+        <v>43.04145948002323</v>
       </c>
       <c r="L15" t="n">
-        <v>57.87455391690128</v>
+        <v>57.87455391690116</v>
       </c>
       <c r="M15" t="n">
-        <v>67.53687465466895</v>
+        <v>67.53687465466881</v>
       </c>
       <c r="N15" t="n">
-        <v>69.32437476453548</v>
+        <v>69.32437476453534</v>
       </c>
       <c r="O15" t="n">
-        <v>63.41825929360961</v>
+        <v>63.41825929360947</v>
       </c>
       <c r="P15" t="n">
-        <v>50.89874413562364</v>
+        <v>50.89874413562352</v>
       </c>
       <c r="Q15" t="n">
-        <v>34.02446252292687</v>
+        <v>34.0244625229268</v>
       </c>
       <c r="R15" t="n">
-        <v>16.54928159272103</v>
+        <v>16.549281592721</v>
       </c>
       <c r="S15" t="n">
-        <v>4.950989512939637</v>
+        <v>4.950989512939627</v>
       </c>
       <c r="T15" t="n">
-        <v>1.074370569632002</v>
+        <v>1.074370569632</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01753597230084879</v>
+        <v>0.01753597230084876</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2234638656042588</v>
+        <v>0.2234638656042583</v>
       </c>
       <c r="H16" t="n">
-        <v>1.986796914190593</v>
+        <v>1.986796914190589</v>
       </c>
       <c r="I16" t="n">
-        <v>6.720167885626259</v>
+        <v>6.720167885626243</v>
       </c>
       <c r="J16" t="n">
-        <v>15.7988952982211</v>
+        <v>15.79889529822106</v>
       </c>
       <c r="K16" t="n">
-        <v>25.96243820384025</v>
+        <v>25.96243820384019</v>
       </c>
       <c r="L16" t="n">
-        <v>33.22298234629136</v>
+        <v>33.22298234629129</v>
       </c>
       <c r="M16" t="n">
-        <v>35.02897667831122</v>
+        <v>35.02897667831115</v>
       </c>
       <c r="N16" t="n">
-        <v>34.19606590651356</v>
+        <v>34.19606590651348</v>
       </c>
       <c r="O16" t="n">
-        <v>31.58560165831834</v>
+        <v>31.58560165831827</v>
       </c>
       <c r="P16" t="n">
-        <v>27.02693879999144</v>
+        <v>27.02693879999138</v>
       </c>
       <c r="Q16" t="n">
-        <v>18.71205150982571</v>
+        <v>18.71205150982567</v>
       </c>
       <c r="R16" t="n">
-        <v>10.0477479934424</v>
+        <v>10.04774799344238</v>
       </c>
       <c r="S16" t="n">
-        <v>3.894365730576037</v>
+        <v>3.894365730576028</v>
       </c>
       <c r="T16" t="n">
-        <v>0.9548001530363783</v>
+        <v>0.9548001530363763</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01218893812386868</v>
+        <v>0.01218893812386865</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4981743554813986</v>
+        <v>0.4981743554813979</v>
       </c>
       <c r="H17" t="n">
-        <v>5.101928118073875</v>
+        <v>5.101928118073867</v>
       </c>
       <c r="I17" t="n">
-        <v>19.20586683969664</v>
+        <v>19.20586683969661</v>
       </c>
       <c r="J17" t="n">
-        <v>42.28192570353939</v>
+        <v>42.28192570353933</v>
       </c>
       <c r="K17" t="n">
-        <v>63.36964617106701</v>
+        <v>63.36964617106692</v>
       </c>
       <c r="L17" t="n">
-        <v>78.61564960263088</v>
+        <v>78.61564960263077</v>
       </c>
       <c r="M17" t="n">
-        <v>87.4750577969232</v>
+        <v>87.47505779692307</v>
       </c>
       <c r="N17" t="n">
-        <v>88.89049568443473</v>
+        <v>88.8904956844346</v>
       </c>
       <c r="O17" t="n">
-        <v>83.93677443711657</v>
+        <v>83.93677443711644</v>
       </c>
       <c r="P17" t="n">
-        <v>71.63809503616953</v>
+        <v>71.63809503616942</v>
       </c>
       <c r="Q17" t="n">
-        <v>53.79722593049193</v>
+        <v>53.79722593049184</v>
       </c>
       <c r="R17" t="n">
-        <v>31.29344485750843</v>
+        <v>31.29344485750839</v>
       </c>
       <c r="S17" t="n">
-        <v>11.35214812553238</v>
+        <v>11.35214812553237</v>
       </c>
       <c r="T17" t="n">
-        <v>2.180758241119824</v>
+        <v>2.180758241119821</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03985394843851188</v>
+        <v>0.03985394843851182</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2665467789729014</v>
+        <v>0.266546778972901</v>
       </c>
       <c r="H18" t="n">
-        <v>2.574280733764601</v>
+        <v>2.574280733764597</v>
       </c>
       <c r="I18" t="n">
-        <v>9.177158837444193</v>
+        <v>9.17715883744418</v>
       </c>
       <c r="J18" t="n">
-        <v>25.1828252888389</v>
+        <v>25.18282528883886</v>
       </c>
       <c r="K18" t="n">
-        <v>43.04145948002329</v>
+        <v>43.04145948002323</v>
       </c>
       <c r="L18" t="n">
-        <v>57.87455391690124</v>
+        <v>57.87455391690116</v>
       </c>
       <c r="M18" t="n">
-        <v>67.53687465466891</v>
+        <v>67.53687465466881</v>
       </c>
       <c r="N18" t="n">
-        <v>69.32437476453543</v>
+        <v>69.32437476453534</v>
       </c>
       <c r="O18" t="n">
-        <v>63.41825929360956</v>
+        <v>63.41825929360947</v>
       </c>
       <c r="P18" t="n">
-        <v>50.8987441356236</v>
+        <v>50.89874413562352</v>
       </c>
       <c r="Q18" t="n">
-        <v>34.02446252292685</v>
+        <v>34.0244625229268</v>
       </c>
       <c r="R18" t="n">
-        <v>16.54928159272102</v>
+        <v>16.549281592721</v>
       </c>
       <c r="S18" t="n">
-        <v>4.950989512939634</v>
+        <v>4.950989512939627</v>
       </c>
       <c r="T18" t="n">
-        <v>1.074370569632001</v>
+        <v>1.074370569632</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01753597230084878</v>
+        <v>0.01753597230084876</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2234638656042587</v>
+        <v>0.2234638656042583</v>
       </c>
       <c r="H19" t="n">
-        <v>1.986796914190592</v>
+        <v>1.986796914190589</v>
       </c>
       <c r="I19" t="n">
-        <v>6.720167885626254</v>
+        <v>6.720167885626243</v>
       </c>
       <c r="J19" t="n">
-        <v>15.79889529822109</v>
+        <v>15.79889529822106</v>
       </c>
       <c r="K19" t="n">
-        <v>25.96243820384023</v>
+        <v>25.96243820384019</v>
       </c>
       <c r="L19" t="n">
-        <v>33.22298234629134</v>
+        <v>33.22298234629129</v>
       </c>
       <c r="M19" t="n">
-        <v>35.0289766783112</v>
+        <v>35.02897667831115</v>
       </c>
       <c r="N19" t="n">
-        <v>34.19606590651353</v>
+        <v>34.19606590651348</v>
       </c>
       <c r="O19" t="n">
-        <v>31.58560165831832</v>
+        <v>31.58560165831827</v>
       </c>
       <c r="P19" t="n">
-        <v>27.02693879999142</v>
+        <v>27.02693879999138</v>
       </c>
       <c r="Q19" t="n">
-        <v>18.7120515098257</v>
+        <v>18.71205150982567</v>
       </c>
       <c r="R19" t="n">
-        <v>10.04774799344239</v>
+        <v>10.04774799344238</v>
       </c>
       <c r="S19" t="n">
-        <v>3.894365730576034</v>
+        <v>3.894365730576028</v>
       </c>
       <c r="T19" t="n">
-        <v>0.9548001530363777</v>
+        <v>0.9548001530363763</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01218893812386867</v>
+        <v>0.01218893812386865</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.498174355481398</v>
+        <v>0.4981743554813977</v>
       </c>
       <c r="H20" t="n">
-        <v>5.101928118073869</v>
+        <v>5.101928118073865</v>
       </c>
       <c r="I20" t="n">
-        <v>19.20586683969662</v>
+        <v>19.2058668396966</v>
       </c>
       <c r="J20" t="n">
-        <v>42.28192570353934</v>
+        <v>42.28192570353932</v>
       </c>
       <c r="K20" t="n">
-        <v>63.36964617106694</v>
+        <v>63.3696461710669</v>
       </c>
       <c r="L20" t="n">
-        <v>78.6156496026308</v>
+        <v>78.61564960263074</v>
       </c>
       <c r="M20" t="n">
-        <v>87.4750577969231</v>
+        <v>87.47505779692304</v>
       </c>
       <c r="N20" t="n">
-        <v>88.89049568443463</v>
+        <v>88.89049568443457</v>
       </c>
       <c r="O20" t="n">
-        <v>83.93677443711647</v>
+        <v>83.93677443711641</v>
       </c>
       <c r="P20" t="n">
-        <v>71.63809503616945</v>
+        <v>71.6380950361694</v>
       </c>
       <c r="Q20" t="n">
-        <v>53.79722593049186</v>
+        <v>53.79722593049183</v>
       </c>
       <c r="R20" t="n">
-        <v>31.2934448575084</v>
+        <v>31.29344485750838</v>
       </c>
       <c r="S20" t="n">
-        <v>11.35214812553237</v>
+        <v>11.35214812553236</v>
       </c>
       <c r="T20" t="n">
-        <v>2.180758241119821</v>
+        <v>2.18075824111982</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03985394843851184</v>
+        <v>0.03985394843851181</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2665467789729011</v>
+        <v>0.2665467789729009</v>
       </c>
       <c r="H21" t="n">
-        <v>2.574280733764597</v>
+        <v>2.574280733764596</v>
       </c>
       <c r="I21" t="n">
-        <v>9.177158837444182</v>
+        <v>9.177158837444177</v>
       </c>
       <c r="J21" t="n">
-        <v>25.18282528883887</v>
+        <v>25.18282528883885</v>
       </c>
       <c r="K21" t="n">
-        <v>43.04145948002324</v>
+        <v>43.04145948002321</v>
       </c>
       <c r="L21" t="n">
-        <v>57.87455391690118</v>
+        <v>57.87455391690114</v>
       </c>
       <c r="M21" t="n">
-        <v>67.53687465466882</v>
+        <v>67.53687465466878</v>
       </c>
       <c r="N21" t="n">
-        <v>69.32437476453535</v>
+        <v>69.32437476453531</v>
       </c>
       <c r="O21" t="n">
-        <v>63.41825929360949</v>
+        <v>63.41825929360945</v>
       </c>
       <c r="P21" t="n">
-        <v>50.89874413562355</v>
+        <v>50.89874413562351</v>
       </c>
       <c r="Q21" t="n">
-        <v>34.02446252292681</v>
+        <v>34.02446252292679</v>
       </c>
       <c r="R21" t="n">
-        <v>16.54928159272101</v>
+        <v>16.54928159272099</v>
       </c>
       <c r="S21" t="n">
-        <v>4.950989512939628</v>
+        <v>4.950989512939625</v>
       </c>
       <c r="T21" t="n">
-        <v>1.074370569632</v>
+        <v>1.074370569631999</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01753597230084876</v>
+        <v>0.01753597230084875</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,46 +32619,46 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2234638656042584</v>
+        <v>0.2234638656042583</v>
       </c>
       <c r="H22" t="n">
-        <v>1.98679691419059</v>
+        <v>1.986796914190589</v>
       </c>
       <c r="I22" t="n">
-        <v>6.720167885626246</v>
+        <v>6.720167885626242</v>
       </c>
       <c r="J22" t="n">
-        <v>15.79889529822107</v>
+        <v>15.79889529822106</v>
       </c>
       <c r="K22" t="n">
-        <v>25.9624382038402</v>
+        <v>25.96243820384018</v>
       </c>
       <c r="L22" t="n">
-        <v>33.2229823462913</v>
+        <v>33.22298234629127</v>
       </c>
       <c r="M22" t="n">
-        <v>35.02897667831116</v>
+        <v>35.02897667831113</v>
       </c>
       <c r="N22" t="n">
-        <v>34.1960659065135</v>
+        <v>34.19606590651347</v>
       </c>
       <c r="O22" t="n">
-        <v>31.58560165831828</v>
+        <v>31.58560165831826</v>
       </c>
       <c r="P22" t="n">
-        <v>27.02693879999139</v>
+        <v>27.02693879999137</v>
       </c>
       <c r="Q22" t="n">
-        <v>18.71205150982568</v>
+        <v>18.71205150982566</v>
       </c>
       <c r="R22" t="n">
-        <v>10.04774799344238</v>
+        <v>10.04774799344237</v>
       </c>
       <c r="S22" t="n">
-        <v>3.89436573057603</v>
+        <v>3.894365730576027</v>
       </c>
       <c r="T22" t="n">
-        <v>0.9548001530363766</v>
+        <v>0.954800153036376</v>
       </c>
       <c r="U22" t="n">
         <v>0.01218893812386865</v>
@@ -32698,37 +32698,37 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.498174355481398</v>
+        <v>0.4981743554813981</v>
       </c>
       <c r="H23" t="n">
-        <v>5.101928118073869</v>
+        <v>5.10192811807387</v>
       </c>
       <c r="I23" t="n">
         <v>19.20586683969662</v>
       </c>
       <c r="J23" t="n">
-        <v>42.28192570353934</v>
+        <v>42.28192570353935</v>
       </c>
       <c r="K23" t="n">
-        <v>63.36964617106694</v>
+        <v>63.36964617106695</v>
       </c>
       <c r="L23" t="n">
         <v>78.6156496026308</v>
       </c>
       <c r="M23" t="n">
-        <v>87.4750577969231</v>
+        <v>87.47505779692311</v>
       </c>
       <c r="N23" t="n">
-        <v>88.89049568443463</v>
+        <v>88.89049568443464</v>
       </c>
       <c r="O23" t="n">
-        <v>83.93677443711647</v>
+        <v>83.93677443711648</v>
       </c>
       <c r="P23" t="n">
-        <v>71.63809503616945</v>
+        <v>71.63809503616946</v>
       </c>
       <c r="Q23" t="n">
-        <v>53.79722593049186</v>
+        <v>53.79722593049187</v>
       </c>
       <c r="R23" t="n">
         <v>31.2934448575084</v>
@@ -32780,25 +32780,25 @@
         <v>0.2665467789729011</v>
       </c>
       <c r="H24" t="n">
-        <v>2.574280733764597</v>
+        <v>2.574280733764598</v>
       </c>
       <c r="I24" t="n">
-        <v>9.177158837444182</v>
+        <v>9.177158837444184</v>
       </c>
       <c r="J24" t="n">
         <v>25.18282528883887</v>
       </c>
       <c r="K24" t="n">
-        <v>43.04145948002324</v>
+        <v>43.04145948002325</v>
       </c>
       <c r="L24" t="n">
         <v>57.87455391690118</v>
       </c>
       <c r="M24" t="n">
-        <v>67.53687465466882</v>
+        <v>67.53687465466884</v>
       </c>
       <c r="N24" t="n">
-        <v>69.32437476453535</v>
+        <v>69.32437476453536</v>
       </c>
       <c r="O24" t="n">
         <v>63.41825929360949</v>
@@ -32807,13 +32807,13 @@
         <v>50.89874413562355</v>
       </c>
       <c r="Q24" t="n">
-        <v>34.02446252292681</v>
+        <v>34.02446252292682</v>
       </c>
       <c r="R24" t="n">
         <v>16.54928159272101</v>
       </c>
       <c r="S24" t="n">
-        <v>4.950989512939628</v>
+        <v>4.950989512939629</v>
       </c>
       <c r="T24" t="n">
         <v>1.074370569632</v>
@@ -32862,7 +32862,7 @@
         <v>1.98679691419059</v>
       </c>
       <c r="I25" t="n">
-        <v>6.720167885626246</v>
+        <v>6.720167885626247</v>
       </c>
       <c r="J25" t="n">
         <v>15.79889529822107</v>
@@ -32880,7 +32880,7 @@
         <v>34.1960659065135</v>
       </c>
       <c r="O25" t="n">
-        <v>31.58560165831828</v>
+        <v>31.58560165831829</v>
       </c>
       <c r="P25" t="n">
         <v>27.02693879999139</v>
@@ -32895,10 +32895,10 @@
         <v>3.89436573057603</v>
       </c>
       <c r="T25" t="n">
-        <v>0.9548001530363766</v>
+        <v>0.9548001530363767</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01218893812386865</v>
+        <v>0.01218893812386866</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.498174355481398</v>
+        <v>0.4981743554813978</v>
       </c>
       <c r="H26" t="n">
-        <v>5.101928118073869</v>
+        <v>5.101928118073867</v>
       </c>
       <c r="I26" t="n">
-        <v>19.20586683969662</v>
+        <v>19.20586683969661</v>
       </c>
       <c r="J26" t="n">
-        <v>42.28192570353934</v>
+        <v>42.28192570353933</v>
       </c>
       <c r="K26" t="n">
-        <v>63.36964617106694</v>
+        <v>63.36964617106691</v>
       </c>
       <c r="L26" t="n">
-        <v>78.6156496026308</v>
+        <v>78.61564960263075</v>
       </c>
       <c r="M26" t="n">
-        <v>87.4750577969231</v>
+        <v>87.47505779692305</v>
       </c>
       <c r="N26" t="n">
-        <v>88.89049568443463</v>
+        <v>88.89049568443458</v>
       </c>
       <c r="O26" t="n">
-        <v>83.93677443711647</v>
+        <v>83.93677443711644</v>
       </c>
       <c r="P26" t="n">
-        <v>71.63809503616945</v>
+        <v>71.63809503616942</v>
       </c>
       <c r="Q26" t="n">
-        <v>53.79722593049186</v>
+        <v>53.79722593049183</v>
       </c>
       <c r="R26" t="n">
-        <v>31.2934448575084</v>
+        <v>31.29344485750838</v>
       </c>
       <c r="S26" t="n">
-        <v>11.35214812553237</v>
+        <v>11.35214812553236</v>
       </c>
       <c r="T26" t="n">
-        <v>2.180758241119821</v>
+        <v>2.18075824111982</v>
       </c>
       <c r="U26" t="n">
-        <v>0.03985394843851184</v>
+        <v>0.03985394843851182</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2665467789729011</v>
+        <v>0.266546778972901</v>
       </c>
       <c r="H27" t="n">
         <v>2.574280733764597</v>
       </c>
       <c r="I27" t="n">
-        <v>9.177158837444182</v>
+        <v>9.177158837444178</v>
       </c>
       <c r="J27" t="n">
-        <v>25.18282528883887</v>
+        <v>25.18282528883886</v>
       </c>
       <c r="K27" t="n">
-        <v>43.04145948002324</v>
+        <v>43.04145948002322</v>
       </c>
       <c r="L27" t="n">
-        <v>57.87455391690118</v>
+        <v>57.87455391690115</v>
       </c>
       <c r="M27" t="n">
-        <v>67.53687465466882</v>
+        <v>67.53687465466879</v>
       </c>
       <c r="N27" t="n">
-        <v>69.32437476453535</v>
+        <v>69.32437476453532</v>
       </c>
       <c r="O27" t="n">
-        <v>63.41825929360949</v>
+        <v>63.41825929360946</v>
       </c>
       <c r="P27" t="n">
-        <v>50.89874413562355</v>
+        <v>50.89874413562352</v>
       </c>
       <c r="Q27" t="n">
-        <v>34.02446252292681</v>
+        <v>34.0244625229268</v>
       </c>
       <c r="R27" t="n">
-        <v>16.54928159272101</v>
+        <v>16.549281592721</v>
       </c>
       <c r="S27" t="n">
-        <v>4.950989512939628</v>
+        <v>4.950989512939626</v>
       </c>
       <c r="T27" t="n">
-        <v>1.074370569632</v>
+        <v>1.074370569631999</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01753597230084876</v>
+        <v>0.01753597230084875</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,46 +33093,46 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2234638656042584</v>
+        <v>0.2234638656042583</v>
       </c>
       <c r="H28" t="n">
-        <v>1.98679691419059</v>
+        <v>1.986796914190589</v>
       </c>
       <c r="I28" t="n">
-        <v>6.720167885626246</v>
+        <v>6.720167885626243</v>
       </c>
       <c r="J28" t="n">
-        <v>15.79889529822107</v>
+        <v>15.79889529822106</v>
       </c>
       <c r="K28" t="n">
-        <v>25.9624382038402</v>
+        <v>25.96243820384019</v>
       </c>
       <c r="L28" t="n">
-        <v>33.2229823462913</v>
+        <v>33.22298234629128</v>
       </c>
       <c r="M28" t="n">
-        <v>35.02897667831116</v>
+        <v>35.02897667831114</v>
       </c>
       <c r="N28" t="n">
-        <v>34.1960659065135</v>
+        <v>34.19606590651348</v>
       </c>
       <c r="O28" t="n">
-        <v>31.58560165831828</v>
+        <v>31.58560165831827</v>
       </c>
       <c r="P28" t="n">
-        <v>27.02693879999139</v>
+        <v>27.02693879999138</v>
       </c>
       <c r="Q28" t="n">
-        <v>18.71205150982568</v>
+        <v>18.71205150982567</v>
       </c>
       <c r="R28" t="n">
         <v>10.04774799344238</v>
       </c>
       <c r="S28" t="n">
-        <v>3.89436573057603</v>
+        <v>3.894365730576028</v>
       </c>
       <c r="T28" t="n">
-        <v>0.9548001530363766</v>
+        <v>0.9548001530363762</v>
       </c>
       <c r="U28" t="n">
         <v>0.01218893812386865</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4981743554813983</v>
+        <v>0.4981743554813978</v>
       </c>
       <c r="H29" t="n">
-        <v>5.101928118073872</v>
+        <v>5.101928118073867</v>
       </c>
       <c r="I29" t="n">
-        <v>19.20586683969663</v>
+        <v>19.20586683969661</v>
       </c>
       <c r="J29" t="n">
-        <v>42.28192570353937</v>
+        <v>42.28192570353933</v>
       </c>
       <c r="K29" t="n">
-        <v>63.36964617106698</v>
+        <v>63.36964617106691</v>
       </c>
       <c r="L29" t="n">
-        <v>78.61564960263084</v>
+        <v>78.61564960263075</v>
       </c>
       <c r="M29" t="n">
-        <v>87.47505779692315</v>
+        <v>87.47505779692305</v>
       </c>
       <c r="N29" t="n">
-        <v>88.89049568443468</v>
+        <v>88.89049568443458</v>
       </c>
       <c r="O29" t="n">
-        <v>83.93677443711653</v>
+        <v>83.93677443711644</v>
       </c>
       <c r="P29" t="n">
-        <v>71.63809503616949</v>
+        <v>71.63809503616942</v>
       </c>
       <c r="Q29" t="n">
-        <v>53.79722593049189</v>
+        <v>53.79722593049183</v>
       </c>
       <c r="R29" t="n">
-        <v>31.29344485750842</v>
+        <v>31.29344485750838</v>
       </c>
       <c r="S29" t="n">
-        <v>11.35214812553238</v>
+        <v>11.35214812553236</v>
       </c>
       <c r="T29" t="n">
-        <v>2.180758241119822</v>
+        <v>2.18075824111982</v>
       </c>
       <c r="U29" t="n">
-        <v>0.03985394843851186</v>
+        <v>0.03985394843851182</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2665467789729012</v>
+        <v>0.266546778972901</v>
       </c>
       <c r="H30" t="n">
-        <v>2.574280733764599</v>
+        <v>2.574280733764597</v>
       </c>
       <c r="I30" t="n">
-        <v>9.177158837444187</v>
+        <v>9.177158837444178</v>
       </c>
       <c r="J30" t="n">
-        <v>25.18282528883888</v>
+        <v>25.18282528883886</v>
       </c>
       <c r="K30" t="n">
-        <v>43.04145948002326</v>
+        <v>43.04145948002322</v>
       </c>
       <c r="L30" t="n">
-        <v>57.87455391690121</v>
+        <v>57.87455391690115</v>
       </c>
       <c r="M30" t="n">
-        <v>67.53687465466886</v>
+        <v>67.53687465466879</v>
       </c>
       <c r="N30" t="n">
-        <v>69.32437476453539</v>
+        <v>69.32437476453532</v>
       </c>
       <c r="O30" t="n">
-        <v>63.41825929360952</v>
+        <v>63.41825929360946</v>
       </c>
       <c r="P30" t="n">
-        <v>50.89874413562357</v>
+        <v>50.89874413562352</v>
       </c>
       <c r="Q30" t="n">
-        <v>34.02446252292683</v>
+        <v>34.0244625229268</v>
       </c>
       <c r="R30" t="n">
-        <v>16.54928159272101</v>
+        <v>16.549281592721</v>
       </c>
       <c r="S30" t="n">
-        <v>4.950989512939631</v>
+        <v>4.950989512939626</v>
       </c>
       <c r="T30" t="n">
-        <v>1.074370569632001</v>
+        <v>1.074370569631999</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01753597230084877</v>
+        <v>0.01753597230084875</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2234638656042585</v>
+        <v>0.2234638656042583</v>
       </c>
       <c r="H31" t="n">
-        <v>1.986796914190591</v>
+        <v>1.986796914190589</v>
       </c>
       <c r="I31" t="n">
-        <v>6.72016788562625</v>
+        <v>6.720167885626243</v>
       </c>
       <c r="J31" t="n">
-        <v>15.79889529822108</v>
+        <v>15.79889529822106</v>
       </c>
       <c r="K31" t="n">
-        <v>25.96243820384021</v>
+        <v>25.96243820384019</v>
       </c>
       <c r="L31" t="n">
-        <v>33.22298234629132</v>
+        <v>33.22298234629128</v>
       </c>
       <c r="M31" t="n">
-        <v>35.02897667831117</v>
+        <v>35.02897667831114</v>
       </c>
       <c r="N31" t="n">
-        <v>34.19606590651352</v>
+        <v>34.19606590651348</v>
       </c>
       <c r="O31" t="n">
-        <v>31.5856016583183</v>
+        <v>31.58560165831827</v>
       </c>
       <c r="P31" t="n">
-        <v>27.0269387999914</v>
+        <v>27.02693879999138</v>
       </c>
       <c r="Q31" t="n">
-        <v>18.71205150982569</v>
+        <v>18.71205150982567</v>
       </c>
       <c r="R31" t="n">
-        <v>10.04774799344239</v>
+        <v>10.04774799344238</v>
       </c>
       <c r="S31" t="n">
-        <v>3.894365730576032</v>
+        <v>3.894365730576028</v>
       </c>
       <c r="T31" t="n">
-        <v>0.9548001530363771</v>
+        <v>0.9548001530363762</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01218893812386866</v>
+        <v>0.01218893812386865</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.498174355481398</v>
+        <v>0.4981743554813978</v>
       </c>
       <c r="H32" t="n">
-        <v>5.101928118073869</v>
+        <v>5.101928118073867</v>
       </c>
       <c r="I32" t="n">
-        <v>19.20586683969662</v>
+        <v>19.20586683969661</v>
       </c>
       <c r="J32" t="n">
-        <v>42.28192570353934</v>
+        <v>42.28192570353933</v>
       </c>
       <c r="K32" t="n">
-        <v>63.36964617106694</v>
+        <v>63.36964617106691</v>
       </c>
       <c r="L32" t="n">
-        <v>78.6156496026308</v>
+        <v>78.61564960263075</v>
       </c>
       <c r="M32" t="n">
-        <v>87.4750577969231</v>
+        <v>87.47505779692305</v>
       </c>
       <c r="N32" t="n">
-        <v>88.89049568443463</v>
+        <v>88.89049568443458</v>
       </c>
       <c r="O32" t="n">
-        <v>83.93677443711647</v>
+        <v>83.93677443711644</v>
       </c>
       <c r="P32" t="n">
-        <v>71.63809503616945</v>
+        <v>71.63809503616942</v>
       </c>
       <c r="Q32" t="n">
-        <v>53.79722593049186</v>
+        <v>53.79722593049183</v>
       </c>
       <c r="R32" t="n">
-        <v>31.2934448575084</v>
+        <v>31.29344485750838</v>
       </c>
       <c r="S32" t="n">
-        <v>11.35214812553237</v>
+        <v>11.35214812553236</v>
       </c>
       <c r="T32" t="n">
-        <v>2.180758241119821</v>
+        <v>2.18075824111982</v>
       </c>
       <c r="U32" t="n">
-        <v>0.03985394843851184</v>
+        <v>0.03985394843851182</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2665467789729011</v>
+        <v>0.266546778972901</v>
       </c>
       <c r="H33" t="n">
         <v>2.574280733764597</v>
       </c>
       <c r="I33" t="n">
-        <v>9.177158837444182</v>
+        <v>9.177158837444178</v>
       </c>
       <c r="J33" t="n">
-        <v>25.18282528883887</v>
+        <v>25.18282528883886</v>
       </c>
       <c r="K33" t="n">
-        <v>43.04145948002324</v>
+        <v>43.04145948002322</v>
       </c>
       <c r="L33" t="n">
-        <v>57.87455391690118</v>
+        <v>57.87455391690115</v>
       </c>
       <c r="M33" t="n">
-        <v>67.53687465466882</v>
+        <v>67.53687465466879</v>
       </c>
       <c r="N33" t="n">
-        <v>69.32437476453535</v>
+        <v>69.32437476453532</v>
       </c>
       <c r="O33" t="n">
-        <v>63.41825929360949</v>
+        <v>63.41825929360946</v>
       </c>
       <c r="P33" t="n">
-        <v>50.89874413562355</v>
+        <v>50.89874413562352</v>
       </c>
       <c r="Q33" t="n">
-        <v>34.02446252292681</v>
+        <v>34.0244625229268</v>
       </c>
       <c r="R33" t="n">
-        <v>16.54928159272101</v>
+        <v>16.549281592721</v>
       </c>
       <c r="S33" t="n">
-        <v>4.950989512939628</v>
+        <v>4.950989512939626</v>
       </c>
       <c r="T33" t="n">
-        <v>1.074370569632</v>
+        <v>1.074370569631999</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01753597230084876</v>
+        <v>0.01753597230084875</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,46 +33567,46 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2234638656042584</v>
+        <v>0.2234638656042583</v>
       </c>
       <c r="H34" t="n">
-        <v>1.98679691419059</v>
+        <v>1.986796914190589</v>
       </c>
       <c r="I34" t="n">
-        <v>6.720167885626246</v>
+        <v>6.720167885626243</v>
       </c>
       <c r="J34" t="n">
-        <v>15.79889529822107</v>
+        <v>15.79889529822106</v>
       </c>
       <c r="K34" t="n">
-        <v>25.9624382038402</v>
+        <v>25.96243820384019</v>
       </c>
       <c r="L34" t="n">
-        <v>33.2229823462913</v>
+        <v>33.22298234629128</v>
       </c>
       <c r="M34" t="n">
-        <v>35.02897667831116</v>
+        <v>35.02897667831114</v>
       </c>
       <c r="N34" t="n">
-        <v>34.1960659065135</v>
+        <v>34.19606590651348</v>
       </c>
       <c r="O34" t="n">
-        <v>31.58560165831828</v>
+        <v>31.58560165831827</v>
       </c>
       <c r="P34" t="n">
-        <v>27.02693879999139</v>
+        <v>27.02693879999138</v>
       </c>
       <c r="Q34" t="n">
-        <v>18.71205150982568</v>
+        <v>18.71205150982567</v>
       </c>
       <c r="R34" t="n">
         <v>10.04774799344238</v>
       </c>
       <c r="S34" t="n">
-        <v>3.89436573057603</v>
+        <v>3.894365730576028</v>
       </c>
       <c r="T34" t="n">
-        <v>0.9548001530363766</v>
+        <v>0.9548001530363762</v>
       </c>
       <c r="U34" t="n">
         <v>0.01218893812386865</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.498174355481398</v>
+        <v>0.4981743554813978</v>
       </c>
       <c r="H35" t="n">
-        <v>5.101928118073869</v>
+        <v>5.101928118073867</v>
       </c>
       <c r="I35" t="n">
-        <v>19.20586683969662</v>
+        <v>19.20586683969661</v>
       </c>
       <c r="J35" t="n">
-        <v>42.28192570353934</v>
+        <v>42.28192570353933</v>
       </c>
       <c r="K35" t="n">
-        <v>63.36964617106694</v>
+        <v>63.36964617106691</v>
       </c>
       <c r="L35" t="n">
-        <v>78.6156496026308</v>
+        <v>78.61564960263075</v>
       </c>
       <c r="M35" t="n">
-        <v>87.4750577969231</v>
+        <v>87.47505779692305</v>
       </c>
       <c r="N35" t="n">
-        <v>88.89049568443463</v>
+        <v>88.89049568443458</v>
       </c>
       <c r="O35" t="n">
-        <v>83.93677443711647</v>
+        <v>83.93677443711644</v>
       </c>
       <c r="P35" t="n">
-        <v>71.63809503616945</v>
+        <v>71.63809503616942</v>
       </c>
       <c r="Q35" t="n">
-        <v>53.79722593049186</v>
+        <v>53.79722593049183</v>
       </c>
       <c r="R35" t="n">
-        <v>31.2934448575084</v>
+        <v>31.29344485750838</v>
       </c>
       <c r="S35" t="n">
-        <v>11.35214812553237</v>
+        <v>11.35214812553236</v>
       </c>
       <c r="T35" t="n">
-        <v>2.180758241119821</v>
+        <v>2.18075824111982</v>
       </c>
       <c r="U35" t="n">
-        <v>0.03985394843851184</v>
+        <v>0.03985394843851182</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2665467789729011</v>
+        <v>0.266546778972901</v>
       </c>
       <c r="H36" t="n">
         <v>2.574280733764597</v>
       </c>
       <c r="I36" t="n">
-        <v>9.177158837444182</v>
+        <v>9.177158837444178</v>
       </c>
       <c r="J36" t="n">
-        <v>25.18282528883887</v>
+        <v>25.18282528883886</v>
       </c>
       <c r="K36" t="n">
-        <v>43.04145948002324</v>
+        <v>43.04145948002322</v>
       </c>
       <c r="L36" t="n">
-        <v>57.87455391690118</v>
+        <v>57.87455391690115</v>
       </c>
       <c r="M36" t="n">
-        <v>67.53687465466882</v>
+        <v>67.53687465466879</v>
       </c>
       <c r="N36" t="n">
-        <v>69.32437476453535</v>
+        <v>69.32437476453532</v>
       </c>
       <c r="O36" t="n">
-        <v>63.41825929360949</v>
+        <v>63.41825929360946</v>
       </c>
       <c r="P36" t="n">
-        <v>50.89874413562355</v>
+        <v>50.89874413562352</v>
       </c>
       <c r="Q36" t="n">
-        <v>34.02446252292681</v>
+        <v>34.0244625229268</v>
       </c>
       <c r="R36" t="n">
-        <v>16.54928159272101</v>
+        <v>16.549281592721</v>
       </c>
       <c r="S36" t="n">
-        <v>4.950989512939628</v>
+        <v>4.950989512939626</v>
       </c>
       <c r="T36" t="n">
-        <v>1.074370569632</v>
+        <v>1.074370569631999</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01753597230084876</v>
+        <v>0.01753597230084875</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,46 +33804,46 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2234638656042584</v>
+        <v>0.2234638656042583</v>
       </c>
       <c r="H37" t="n">
-        <v>1.98679691419059</v>
+        <v>1.986796914190589</v>
       </c>
       <c r="I37" t="n">
-        <v>6.720167885626246</v>
+        <v>6.720167885626243</v>
       </c>
       <c r="J37" t="n">
-        <v>15.79889529822107</v>
+        <v>15.79889529822106</v>
       </c>
       <c r="K37" t="n">
-        <v>25.9624382038402</v>
+        <v>25.96243820384019</v>
       </c>
       <c r="L37" t="n">
-        <v>33.2229823462913</v>
+        <v>33.22298234629128</v>
       </c>
       <c r="M37" t="n">
-        <v>35.02897667831116</v>
+        <v>35.02897667831114</v>
       </c>
       <c r="N37" t="n">
-        <v>34.1960659065135</v>
+        <v>34.19606590651348</v>
       </c>
       <c r="O37" t="n">
-        <v>31.58560165831828</v>
+        <v>31.58560165831827</v>
       </c>
       <c r="P37" t="n">
-        <v>27.02693879999139</v>
+        <v>27.02693879999138</v>
       </c>
       <c r="Q37" t="n">
-        <v>18.71205150982568</v>
+        <v>18.71205150982567</v>
       </c>
       <c r="R37" t="n">
         <v>10.04774799344238</v>
       </c>
       <c r="S37" t="n">
-        <v>3.89436573057603</v>
+        <v>3.894365730576028</v>
       </c>
       <c r="T37" t="n">
-        <v>0.9548001530363766</v>
+        <v>0.9548001530363762</v>
       </c>
       <c r="U37" t="n">
         <v>0.01218893812386865</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4981743554813979</v>
+        <v>0.4981743554813978</v>
       </c>
       <c r="H38" t="n">
         <v>5.101928118073867</v>
@@ -33895,16 +33895,16 @@
         <v>42.28192570353933</v>
       </c>
       <c r="K38" t="n">
-        <v>63.36964617106692</v>
+        <v>63.36964617106691</v>
       </c>
       <c r="L38" t="n">
-        <v>78.61564960263077</v>
+        <v>78.61564960263075</v>
       </c>
       <c r="M38" t="n">
-        <v>87.47505779692307</v>
+        <v>87.47505779692305</v>
       </c>
       <c r="N38" t="n">
-        <v>88.8904956844346</v>
+        <v>88.89049568443458</v>
       </c>
       <c r="O38" t="n">
         <v>83.93677443711644</v>
@@ -33913,16 +33913,16 @@
         <v>71.63809503616942</v>
       </c>
       <c r="Q38" t="n">
-        <v>53.79722593049184</v>
+        <v>53.79722593049183</v>
       </c>
       <c r="R38" t="n">
-        <v>31.29344485750839</v>
+        <v>31.29344485750838</v>
       </c>
       <c r="S38" t="n">
-        <v>11.35214812553237</v>
+        <v>11.35214812553236</v>
       </c>
       <c r="T38" t="n">
-        <v>2.180758241119821</v>
+        <v>2.18075824111982</v>
       </c>
       <c r="U38" t="n">
         <v>0.03985394843851182</v>
@@ -33968,25 +33968,25 @@
         <v>2.574280733764597</v>
       </c>
       <c r="I39" t="n">
-        <v>9.17715883744418</v>
+        <v>9.177158837444178</v>
       </c>
       <c r="J39" t="n">
         <v>25.18282528883886</v>
       </c>
       <c r="K39" t="n">
-        <v>43.04145948002323</v>
+        <v>43.04145948002322</v>
       </c>
       <c r="L39" t="n">
-        <v>57.87455391690116</v>
+        <v>57.87455391690115</v>
       </c>
       <c r="M39" t="n">
-        <v>67.53687465466881</v>
+        <v>67.53687465466879</v>
       </c>
       <c r="N39" t="n">
-        <v>69.32437476453534</v>
+        <v>69.32437476453532</v>
       </c>
       <c r="O39" t="n">
-        <v>63.41825929360947</v>
+        <v>63.41825929360946</v>
       </c>
       <c r="P39" t="n">
         <v>50.89874413562352</v>
@@ -33998,13 +33998,13 @@
         <v>16.549281592721</v>
       </c>
       <c r="S39" t="n">
-        <v>4.950989512939627</v>
+        <v>4.950989512939626</v>
       </c>
       <c r="T39" t="n">
-        <v>1.074370569632</v>
+        <v>1.074370569631999</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01753597230084876</v>
+        <v>0.01753597230084875</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34056,10 +34056,10 @@
         <v>25.96243820384019</v>
       </c>
       <c r="L40" t="n">
-        <v>33.22298234629129</v>
+        <v>33.22298234629128</v>
       </c>
       <c r="M40" t="n">
-        <v>35.02897667831115</v>
+        <v>35.02897667831114</v>
       </c>
       <c r="N40" t="n">
         <v>34.19606590651348</v>
@@ -34080,7 +34080,7 @@
         <v>3.894365730576028</v>
       </c>
       <c r="T40" t="n">
-        <v>0.9548001530363763</v>
+        <v>0.9548001530363762</v>
       </c>
       <c r="U40" t="n">
         <v>0.01218893812386865</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4981743554813979</v>
+        <v>0.4981743554813978</v>
       </c>
       <c r="H41" t="n">
         <v>5.101928118073867</v>
@@ -34132,16 +34132,16 @@
         <v>42.28192570353933</v>
       </c>
       <c r="K41" t="n">
-        <v>63.36964617106692</v>
+        <v>63.36964617106691</v>
       </c>
       <c r="L41" t="n">
-        <v>78.61564960263077</v>
+        <v>78.61564960263075</v>
       </c>
       <c r="M41" t="n">
-        <v>87.47505779692307</v>
+        <v>87.47505779692305</v>
       </c>
       <c r="N41" t="n">
-        <v>88.8904956844346</v>
+        <v>88.89049568443458</v>
       </c>
       <c r="O41" t="n">
         <v>83.93677443711644</v>
@@ -34150,16 +34150,16 @@
         <v>71.63809503616942</v>
       </c>
       <c r="Q41" t="n">
-        <v>53.79722593049184</v>
+        <v>53.79722593049183</v>
       </c>
       <c r="R41" t="n">
-        <v>31.29344485750839</v>
+        <v>31.29344485750838</v>
       </c>
       <c r="S41" t="n">
-        <v>11.35214812553237</v>
+        <v>11.35214812553236</v>
       </c>
       <c r="T41" t="n">
-        <v>2.180758241119821</v>
+        <v>2.18075824111982</v>
       </c>
       <c r="U41" t="n">
         <v>0.03985394843851182</v>
@@ -34205,25 +34205,25 @@
         <v>2.574280733764597</v>
       </c>
       <c r="I42" t="n">
-        <v>9.17715883744418</v>
+        <v>9.177158837444178</v>
       </c>
       <c r="J42" t="n">
         <v>25.18282528883886</v>
       </c>
       <c r="K42" t="n">
-        <v>43.04145948002323</v>
+        <v>43.04145948002322</v>
       </c>
       <c r="L42" t="n">
-        <v>57.87455391690116</v>
+        <v>57.87455391690115</v>
       </c>
       <c r="M42" t="n">
-        <v>67.53687465466881</v>
+        <v>67.53687465466879</v>
       </c>
       <c r="N42" t="n">
-        <v>69.32437476453534</v>
+        <v>69.32437476453532</v>
       </c>
       <c r="O42" t="n">
-        <v>63.41825929360947</v>
+        <v>63.41825929360946</v>
       </c>
       <c r="P42" t="n">
         <v>50.89874413562352</v>
@@ -34235,13 +34235,13 @@
         <v>16.549281592721</v>
       </c>
       <c r="S42" t="n">
-        <v>4.950989512939627</v>
+        <v>4.950989512939626</v>
       </c>
       <c r="T42" t="n">
-        <v>1.074370569632</v>
+        <v>1.074370569631999</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01753597230084876</v>
+        <v>0.01753597230084875</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34293,10 +34293,10 @@
         <v>25.96243820384019</v>
       </c>
       <c r="L43" t="n">
-        <v>33.22298234629129</v>
+        <v>33.22298234629128</v>
       </c>
       <c r="M43" t="n">
-        <v>35.02897667831115</v>
+        <v>35.02897667831114</v>
       </c>
       <c r="N43" t="n">
         <v>34.19606590651348</v>
@@ -34317,7 +34317,7 @@
         <v>3.894365730576028</v>
       </c>
       <c r="T43" t="n">
-        <v>0.9548001530363763</v>
+        <v>0.9548001530363762</v>
       </c>
       <c r="U43" t="n">
         <v>0.01218893812386865</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4981743554813979</v>
+        <v>0.4981743554813978</v>
       </c>
       <c r="H44" t="n">
         <v>5.101928118073867</v>
@@ -34369,16 +34369,16 @@
         <v>42.28192570353933</v>
       </c>
       <c r="K44" t="n">
-        <v>63.36964617106692</v>
+        <v>63.36964617106691</v>
       </c>
       <c r="L44" t="n">
-        <v>78.61564960263077</v>
+        <v>78.61564960263075</v>
       </c>
       <c r="M44" t="n">
-        <v>87.47505779692307</v>
+        <v>87.47505779692305</v>
       </c>
       <c r="N44" t="n">
-        <v>88.8904956844346</v>
+        <v>88.89049568443458</v>
       </c>
       <c r="O44" t="n">
         <v>83.93677443711644</v>
@@ -34387,16 +34387,16 @@
         <v>71.63809503616942</v>
       </c>
       <c r="Q44" t="n">
-        <v>53.79722593049184</v>
+        <v>53.79722593049183</v>
       </c>
       <c r="R44" t="n">
-        <v>31.29344485750839</v>
+        <v>31.29344485750838</v>
       </c>
       <c r="S44" t="n">
-        <v>11.35214812553237</v>
+        <v>11.35214812553236</v>
       </c>
       <c r="T44" t="n">
-        <v>2.180758241119821</v>
+        <v>2.18075824111982</v>
       </c>
       <c r="U44" t="n">
         <v>0.03985394843851182</v>
@@ -34442,25 +34442,25 @@
         <v>2.574280733764597</v>
       </c>
       <c r="I45" t="n">
-        <v>9.17715883744418</v>
+        <v>9.177158837444178</v>
       </c>
       <c r="J45" t="n">
         <v>25.18282528883886</v>
       </c>
       <c r="K45" t="n">
-        <v>43.04145948002323</v>
+        <v>43.04145948002322</v>
       </c>
       <c r="L45" t="n">
-        <v>57.87455391690116</v>
+        <v>57.87455391690115</v>
       </c>
       <c r="M45" t="n">
-        <v>67.53687465466881</v>
+        <v>67.53687465466879</v>
       </c>
       <c r="N45" t="n">
-        <v>69.32437476453534</v>
+        <v>69.32437476453532</v>
       </c>
       <c r="O45" t="n">
-        <v>63.41825929360947</v>
+        <v>63.41825929360946</v>
       </c>
       <c r="P45" t="n">
         <v>50.89874413562352</v>
@@ -34472,13 +34472,13 @@
         <v>16.549281592721</v>
       </c>
       <c r="S45" t="n">
-        <v>4.950989512939627</v>
+        <v>4.950989512939626</v>
       </c>
       <c r="T45" t="n">
-        <v>1.074370569632</v>
+        <v>1.074370569631999</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01753597230084876</v>
+        <v>0.01753597230084875</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34530,10 +34530,10 @@
         <v>25.96243820384019</v>
       </c>
       <c r="L46" t="n">
-        <v>33.22298234629129</v>
+        <v>33.22298234629128</v>
       </c>
       <c r="M46" t="n">
-        <v>35.02897667831115</v>
+        <v>35.02897667831114</v>
       </c>
       <c r="N46" t="n">
         <v>34.19606590651348</v>
@@ -34554,7 +34554,7 @@
         <v>3.894365730576028</v>
       </c>
       <c r="T46" t="n">
-        <v>0.9548001530363763</v>
+        <v>0.9548001530363762</v>
       </c>
       <c r="U46" t="n">
         <v>0.01218893812386865</v>
@@ -35173,7 +35173,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>130.2453831642022</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>135.7293992974318</v>
@@ -35182,10 +35182,10 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
+        <v>130.2453831642022</v>
+      </c>
+      <c r="O8" t="n">
         <v>135.7293992974318</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>135.7293992974318</v>
@@ -35252,19 +35252,19 @@
         <v>60.86277427586479</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>69.38260888833736</v>
       </c>
       <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>135.7293992974318</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>69.38260888833734</v>
       </c>
       <c r="P9" t="n">
         <v>135.7293992974318</v>
@@ -35495,13 +35495,13 @@
         <v>413.8895281620462</v>
       </c>
       <c r="M12" t="n">
-        <v>541.7133098798994</v>
+        <v>214.1545323169003</v>
       </c>
       <c r="N12" t="n">
         <v>569.5810543320048</v>
       </c>
       <c r="O12" t="n">
-        <v>117.2256694827656</v>
+        <v>444.7844470457648</v>
       </c>
       <c r="P12" t="n">
         <v>344.1715415558448</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>38.72230320799758</v>
+        <v>38.72230320799756</v>
       </c>
       <c r="K13" t="n">
-        <v>139.9149979561907</v>
+        <v>139.9149979561906</v>
       </c>
       <c r="L13" t="n">
         <v>213.1613572769076</v>
@@ -35586,7 +35586,7 @@
         <v>170.3920572957194</v>
       </c>
       <c r="Q13" t="n">
-        <v>62.26052299108857</v>
+        <v>62.26052299108856</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>115.0077279993027</v>
+        <v>115.0077279993026</v>
       </c>
       <c r="K14" t="n">
-        <v>305.9356785395345</v>
+        <v>305.9356785395344</v>
       </c>
       <c r="L14" t="n">
-        <v>430.0150163551019</v>
+        <v>430.0150163551017</v>
       </c>
       <c r="M14" t="n">
-        <v>484.6863368404468</v>
+        <v>484.6863368404462</v>
       </c>
       <c r="N14" t="n">
-        <v>471.043383247784</v>
+        <v>471.0433832477838</v>
       </c>
       <c r="O14" t="n">
-        <v>392.0222132985651</v>
+        <v>392.0222132985649</v>
       </c>
       <c r="P14" t="n">
-        <v>302.0996066079405</v>
+        <v>302.0996066079404</v>
       </c>
       <c r="Q14" t="n">
-        <v>149.1833407653778</v>
+        <v>149.1833407653777</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>81.68395398640251</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>274.8500984297089</v>
+        <v>122.5322283104999</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>427.3915692402503</v>
       </c>
       <c r="M15" t="n">
-        <v>557.469554968029</v>
+        <v>557.4695549680289</v>
       </c>
       <c r="N15" t="n">
-        <v>585.7543203434467</v>
+        <v>585.7543203434466</v>
       </c>
       <c r="O15" t="n">
-        <v>459.5798257422468</v>
+        <v>459.5798257422467</v>
       </c>
       <c r="P15" t="n">
-        <v>356.0461373433986</v>
+        <v>356.0461373433985</v>
       </c>
       <c r="Q15" t="n">
-        <v>193.3897451346382</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>42.40816027072534</v>
+        <v>42.40816027072535</v>
       </c>
       <c r="K16" t="n">
         <v>145.9719933608018</v>
@@ -35881,28 +35881,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>115.0077279993027</v>
+        <v>115.0077279993025</v>
       </c>
       <c r="K17" t="n">
         <v>305.9356785395344</v>
       </c>
       <c r="L17" t="n">
-        <v>430.0150163551018</v>
+        <v>430.0150163551017</v>
       </c>
       <c r="M17" t="n">
-        <v>484.6863368404464</v>
+        <v>484.6863368404462</v>
       </c>
       <c r="N17" t="n">
-        <v>471.0433832477839</v>
+        <v>471.0433832477838</v>
       </c>
       <c r="O17" t="n">
-        <v>392.022213298565</v>
+        <v>392.0222132985649</v>
       </c>
       <c r="P17" t="n">
-        <v>302.0996066079405</v>
+        <v>302.0996066079404</v>
       </c>
       <c r="Q17" t="n">
-        <v>149.1833407653778</v>
+        <v>149.1833407653777</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,13 +35960,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>86.04559956470369</v>
+        <v>86.04559956470365</v>
       </c>
       <c r="K18" t="n">
-        <v>274.8500984297089</v>
+        <v>274.8500984297087</v>
       </c>
       <c r="L18" t="n">
-        <v>427.3915692402504</v>
+        <v>427.3915692402503</v>
       </c>
       <c r="M18" t="n">
         <v>557.4695549680289</v>
@@ -35975,13 +35975,13 @@
         <v>585.7543203434466</v>
       </c>
       <c r="O18" t="n">
-        <v>383.8727482670947</v>
+        <v>27.82661092369611</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>356.0461373433985</v>
       </c>
       <c r="Q18" t="n">
-        <v>193.3897451346382</v>
+        <v>193.3897451346381</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,22 +36042,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>59.90606218832853</v>
+        <v>59.90606218832849</v>
       </c>
       <c r="L19" t="n">
-        <v>134.846294871806</v>
+        <v>134.8462948718059</v>
       </c>
       <c r="M19" t="n">
         <v>154.2143364031614</v>
       </c>
       <c r="N19" t="n">
-        <v>153.8145929263119</v>
+        <v>153.8145929263118</v>
       </c>
       <c r="O19" t="n">
-        <v>131.0438304418433</v>
+        <v>131.0438304418432</v>
       </c>
       <c r="P19" t="n">
-        <v>90.63146781831242</v>
+        <v>90.63146781831239</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36121,19 +36121,19 @@
         <v>115.0077279993026</v>
       </c>
       <c r="K20" t="n">
-        <v>305.9356785395344</v>
+        <v>305.9356785395343</v>
       </c>
       <c r="L20" t="n">
         <v>430.0150163551017</v>
       </c>
       <c r="M20" t="n">
-        <v>484.6863368404463</v>
+        <v>484.6863368404462</v>
       </c>
       <c r="N20" t="n">
         <v>471.0433832477838</v>
       </c>
       <c r="O20" t="n">
-        <v>392.0222132985649</v>
+        <v>392.0222132985648</v>
       </c>
       <c r="P20" t="n">
         <v>302.0996066079404</v>
@@ -36200,16 +36200,16 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>274.8500984297088</v>
+        <v>274.8500984297087</v>
       </c>
       <c r="L21" t="n">
         <v>427.3915692402503</v>
       </c>
       <c r="M21" t="n">
-        <v>211.7619397141818</v>
+        <v>557.4695549680288</v>
       </c>
       <c r="N21" t="n">
-        <v>585.7543203434466</v>
+        <v>240.0467050895998</v>
       </c>
       <c r="O21" t="n">
         <v>459.5798257422467</v>
@@ -36279,10 +36279,10 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>59.9060621883285</v>
+        <v>59.90606218832848</v>
       </c>
       <c r="L22" t="n">
-        <v>134.846294871806</v>
+        <v>134.8462948718059</v>
       </c>
       <c r="M22" t="n">
         <v>154.2143364031614</v>
@@ -36294,7 +36294,7 @@
         <v>131.0438304418432</v>
       </c>
       <c r="P22" t="n">
-        <v>90.63146781831239</v>
+        <v>90.63146781831237</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36361,13 +36361,13 @@
         <v>305.9356785395344</v>
       </c>
       <c r="L23" t="n">
-        <v>430.015016355102</v>
+        <v>430.0150163551017</v>
       </c>
       <c r="M23" t="n">
         <v>484.6863368404463</v>
       </c>
       <c r="N23" t="n">
-        <v>471.0433832477838</v>
+        <v>471.0433832477839</v>
       </c>
       <c r="O23" t="n">
         <v>392.0222132985649</v>
@@ -36434,10 +36434,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>86.04559956470366</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>274.8500984297088</v>
       </c>
       <c r="L24" t="n">
         <v>427.3915692402503</v>
@@ -36449,13 +36449,13 @@
         <v>585.7543203434466</v>
       </c>
       <c r="O24" t="n">
-        <v>459.5798257422467</v>
+        <v>221.2163560583342</v>
       </c>
       <c r="P24" t="n">
         <v>356.0461373433985</v>
       </c>
       <c r="Q24" t="n">
-        <v>122.5322283105001</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36592,19 +36592,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>218.3306422294953</v>
+        <v>148.1574453799923</v>
       </c>
       <c r="K26" t="n">
-        <v>339.0853959202233</v>
+        <v>409.258592769727</v>
       </c>
       <c r="L26" t="n">
-        <v>533.3379305852944</v>
+        <v>533.3379305852943</v>
       </c>
       <c r="M26" t="n">
         <v>588.0092510706389</v>
       </c>
       <c r="N26" t="n">
-        <v>574.3662974779766</v>
+        <v>574.3662974779764</v>
       </c>
       <c r="O26" t="n">
         <v>495.3451275287575</v>
@@ -36671,10 +36671,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>86.04559956470366</v>
+        <v>86.04559956470365</v>
       </c>
       <c r="K27" t="n">
-        <v>274.8500984297088</v>
+        <v>274.8500984297087</v>
       </c>
       <c r="L27" t="n">
         <v>427.3915692402503</v>
@@ -36686,13 +36686,13 @@
         <v>585.7543203434466</v>
       </c>
       <c r="O27" t="n">
-        <v>27.82661092369564</v>
+        <v>459.5798257422467</v>
       </c>
       <c r="P27" t="n">
-        <v>356.0461373433985</v>
+        <v>117.682667659486</v>
       </c>
       <c r="Q27" t="n">
-        <v>193.3897451346381</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>59.66514332844472</v>
+        <v>59.66514332844473</v>
       </c>
       <c r="K28" t="n">
         <v>163.2289764185211</v>
@@ -36759,16 +36759,16 @@
         <v>238.1692091019986</v>
       </c>
       <c r="M28" t="n">
-        <v>257.537250633354</v>
+        <v>257.5372506333541</v>
       </c>
       <c r="N28" t="n">
         <v>257.1375071565045</v>
       </c>
       <c r="O28" t="n">
-        <v>234.3667446720359</v>
+        <v>234.3667446720358</v>
       </c>
       <c r="P28" t="n">
-        <v>193.954382048505</v>
+        <v>193.9543820485051</v>
       </c>
       <c r="Q28" t="n">
         <v>83.88299780717048</v>
@@ -36835,25 +36835,25 @@
         <v>409.258592769727</v>
       </c>
       <c r="L29" t="n">
-        <v>463.1647337357906</v>
+        <v>533.3379305852943</v>
       </c>
       <c r="M29" t="n">
-        <v>588.0092510706389</v>
+        <v>588.0092510706388</v>
       </c>
       <c r="N29" t="n">
-        <v>574.3662974779766</v>
+        <v>574.3662974779764</v>
       </c>
       <c r="O29" t="n">
-        <v>495.3451275287576</v>
+        <v>425.1719306792544</v>
       </c>
       <c r="P29" t="n">
-        <v>405.4225208381331</v>
+        <v>405.422520838133</v>
       </c>
       <c r="Q29" t="n">
-        <v>252.5062549955704</v>
+        <v>252.5062549955703</v>
       </c>
       <c r="R29" t="n">
-        <v>44.88445544859589</v>
+        <v>44.88445544859585</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,13 +36908,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>86.04559956470368</v>
+        <v>86.04559956470365</v>
       </c>
       <c r="K30" t="n">
-        <v>274.8500984297088</v>
+        <v>274.8500984297087</v>
       </c>
       <c r="L30" t="n">
-        <v>189.0280995563374</v>
+        <v>189.0280995563375</v>
       </c>
       <c r="M30" t="n">
         <v>557.4695549680289</v>
@@ -36923,10 +36923,10 @@
         <v>585.7543203434466</v>
       </c>
       <c r="O30" t="n">
-        <v>459.5798257422468</v>
+        <v>459.5798257422467</v>
       </c>
       <c r="P30" t="n">
-        <v>356.0461373433986</v>
+        <v>356.0461373433985</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>59.66514332844473</v>
+        <v>59.66514332844471</v>
       </c>
       <c r="K31" t="n">
-        <v>163.2289764185212</v>
+        <v>163.2289764185211</v>
       </c>
       <c r="L31" t="n">
         <v>238.1692091019986</v>
       </c>
       <c r="M31" t="n">
-        <v>257.5372506333541</v>
+        <v>257.537250633354</v>
       </c>
       <c r="N31" t="n">
         <v>257.1375071565045</v>
       </c>
       <c r="O31" t="n">
-        <v>234.3667446720359</v>
+        <v>234.3667446720358</v>
       </c>
       <c r="P31" t="n">
-        <v>193.9543820485051</v>
+        <v>193.954382048505</v>
       </c>
       <c r="Q31" t="n">
-        <v>83.88299780717048</v>
+        <v>83.88299780717047</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37072,13 +37072,13 @@
         <v>305.9356785395344</v>
       </c>
       <c r="L32" t="n">
-        <v>555.437183322813</v>
+        <v>430.0150163551017</v>
       </c>
       <c r="M32" t="n">
-        <v>484.6863368404463</v>
+        <v>484.6863368404462</v>
       </c>
       <c r="N32" t="n">
-        <v>471.0433832477838</v>
+        <v>516.4651845806682</v>
       </c>
       <c r="O32" t="n">
         <v>392.0222132985649</v>
@@ -37087,10 +37087,10 @@
         <v>302.0996066079404</v>
       </c>
       <c r="Q32" t="n">
-        <v>287.6221651818018</v>
+        <v>287.622165181802</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>80.00036563482743</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,19 +37145,19 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>86.04559956470366</v>
+        <v>86.04559956470365</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>274.8500984297087</v>
       </c>
       <c r="L33" t="n">
-        <v>270.4884528514083</v>
+        <v>427.3915692402503</v>
       </c>
       <c r="M33" t="n">
         <v>557.4695549680289</v>
       </c>
       <c r="N33" t="n">
-        <v>585.7543203434466</v>
+        <v>154.0011055248959</v>
       </c>
       <c r="O33" t="n">
         <v>459.5798257422467</v>
@@ -37221,34 +37221,34 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>2.39797834870209</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>94.78105351467617</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>59.9060621883285</v>
+        <v>59.90606218832848</v>
       </c>
       <c r="L34" t="n">
-        <v>134.846294871806</v>
+        <v>134.8462948718059</v>
       </c>
       <c r="M34" t="n">
-        <v>249.7144516614689</v>
+        <v>154.2143364031614</v>
       </c>
       <c r="N34" t="n">
         <v>153.8145929263118</v>
       </c>
       <c r="O34" t="n">
-        <v>131.0438304418432</v>
+        <v>185.7441619852036</v>
       </c>
       <c r="P34" t="n">
-        <v>90.63146781831239</v>
+        <v>229.0702922347366</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0.4600088381009133</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37312,7 +37312,7 @@
         <v>430.0150163551017</v>
       </c>
       <c r="M35" t="n">
-        <v>484.6863368404463</v>
+        <v>484.6863368404462</v>
       </c>
       <c r="N35" t="n">
         <v>471.0433832477838</v>
@@ -37382,25 +37382,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>86.04559956470366</v>
+        <v>86.04559956470365</v>
       </c>
       <c r="K36" t="n">
-        <v>274.8500984297088</v>
+        <v>274.8500984297087</v>
       </c>
       <c r="L36" t="n">
-        <v>351.6844917650982</v>
+        <v>427.3915692402503</v>
       </c>
       <c r="M36" t="n">
         <v>557.4695549680289</v>
       </c>
       <c r="N36" t="n">
-        <v>585.7543203434466</v>
+        <v>154.0011055248959</v>
       </c>
       <c r="O36" t="n">
         <v>459.5798257422467</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>356.0461373433985</v>
       </c>
       <c r="Q36" t="n">
         <v>193.3897451346381</v>
@@ -37464,10 +37464,10 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>59.9060621883285</v>
+        <v>59.90606218832848</v>
       </c>
       <c r="L37" t="n">
-        <v>134.846294871806</v>
+        <v>134.8462948718059</v>
       </c>
       <c r="M37" t="n">
         <v>154.2143364031614</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>86.04559956470365</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -37637,10 +37637,10 @@
         <v>459.5798257422467</v>
       </c>
       <c r="P39" t="n">
-        <v>356.0461373433985</v>
+        <v>285.1886205192607</v>
       </c>
       <c r="Q39" t="n">
-        <v>36.48662874579622</v>
+        <v>193.3897451346381</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,7 +37701,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>59.90606218832849</v>
+        <v>59.90606218832848</v>
       </c>
       <c r="L40" t="n">
         <v>134.8462948718059</v>
@@ -37856,16 +37856,16 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>86.04559956470365</v>
       </c>
       <c r="K42" t="n">
-        <v>122.5322283104999</v>
+        <v>274.8500984297087</v>
       </c>
       <c r="L42" t="n">
         <v>427.3915692402503</v>
       </c>
       <c r="M42" t="n">
-        <v>557.4695549680289</v>
+        <v>125.7163401494783</v>
       </c>
       <c r="N42" t="n">
         <v>585.7543203434466</v>
@@ -37877,7 +37877,7 @@
         <v>356.0461373433985</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>193.3897451346381</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37938,7 +37938,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>59.90606218832849</v>
+        <v>59.90606218832848</v>
       </c>
       <c r="L43" t="n">
         <v>134.8462948718059</v>
@@ -38023,7 +38023,7 @@
         <v>430.0150163551017</v>
       </c>
       <c r="M44" t="n">
-        <v>484.6863368404453</v>
+        <v>484.6863368404462</v>
       </c>
       <c r="N44" t="n">
         <v>471.0433832477838</v>
@@ -38108,7 +38108,7 @@
         <v>585.7543203434466</v>
       </c>
       <c r="O45" t="n">
-        <v>27.82661092369564</v>
+        <v>27.82661092369611</v>
       </c>
       <c r="P45" t="n">
         <v>356.0461373433985</v>
@@ -38175,7 +38175,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>59.90606218832849</v>
+        <v>59.90606218832848</v>
       </c>
       <c r="L46" t="n">
         <v>134.8462948718059</v>
